--- a/examples/UK OGD/hackney carriage/profile.xlsx
+++ b/examples/UK OGD/hackney carriage/profile.xlsx
@@ -345,7 +345,6 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,20 +435,30 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
+          <t>default_count</t>
+        </is>
+      </c>
+      <c r="R1" t="inlineStr">
+        <is>
+          <t>default_value</t>
+        </is>
+      </c>
+      <c r="S1" t="inlineStr">
+        <is>
           <t>most_frequent_value</t>
         </is>
       </c>
-      <c r="R1" t="inlineStr">
+      <c r="T1" t="inlineStr">
         <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="S1" t="inlineStr">
+      <c r="U1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="T1" t="inlineStr">
+      <c r="V1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -508,18 +517,22 @@
       <c r="P2" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>NV1</t>
-        </is>
-      </c>
-      <c r="R2" t="n">
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
+      <c r="R2" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S2" t="inlineStr"/>
+      <c r="T2" t="n">
         <v>18001</v>
       </c>
-      <c r="S2" t="n">
+      <c r="U2" t="n">
         <v>4597</v>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="V2" t="inlineStr">
         <is>
           <t>['0', '1', '10', '100', '1000', '10001', '10002', '10003', '10004', '10005', '10007', '10008', '10009', '10010', '10011', '10013', '10014', '10015', '10016', '10017', '10018', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10026', '10027', '10028', '10029', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10042', '10043', '10044', '10045', '10046', '10047', '10048', '10049', '1005', '10050', '10051', '10052', '10053', '10054', '10055', '10056', '10058', '1006', '10061', '10062', '10063', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10072', '10073', '10075', '10076', '1008', '10080', '10081', '10082', '10084', '10085', '10086', '10087', '10088', '10089', '1009', '10090', '10092', '10094', '10095', '10096', '101', '10101', '10105', '10107', '10108', '1011', '10110', '10111', '10112', '10113', '10115', '1012', '10124', '10126', '10129', '1013', '10130', '10136', '10137', '10138', '10139', '1014', '10140', '10141', '10142', '10148', '1015', '10156', '10159', '1016', '10161', '10162', '10163', '10164', '10166', '10169', '10170', '10173', '10174', '10175', '10176', '10178', '1018', '10180', '10186', '10187', '1019', '10190', '10199', '102', '1020', '10200', '10205', '10208', '1021', '10215', '10216', '1022', '10221', '10229', '1023', '10230', '10231', '10238', '10239', '1024', '10244', '10245', '10248', '1025', '10256', '10257', '10258', '10259', '1026', '10262', '10263', '10265', '10266', '10269', '1027', '10271', '10272', '10273', '10274', '10276', '1028', '10282', '10288', '10289', '1029', '10292', '10295', '10296', '10298', '1030', '10300', '10303', '10308', '1031', '10310', '10312', '10317', '10318', '1032', '10321', '10327', '1033', '10333', '10339', '1034', '1035', '10352', '10354', '10356', '10359', '10360', '10362', '10367', '10368', '1037', '1038', '10381', '10386', '10387', '10388', '10389', '1039', '10393', '10394', '10399', '104', '1040', '10400', '10404', '10408', '1041', '10411', '10412', '10413', '10414', '10415', '10416', '10417', '10418', '10419', '1042', '10420', '10421', '10424', '10425', '10429', '1043', '10430', '10434', '10436', '10437', '10438', '10439', '1044', '10443', '10449', '1045', '10452', '10455', '10458', '1046', '10465', '10466', '10467', '10468', '10469', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '10479', '1048', '10480', '10481', '10482', '10483', '10484', '10485', '10486', '10487', '10488', '10489', '1049', '10490', '10491', '10492', '10493', '10494', '10495', '105', '1050', '10500', '1051', '1052', '1053', '1054', '1056', '1057', '1058', '1059', '106', '1060', '1061', '1062', '1063', '1064', '1065', '1066', '1067', '1068', '1069', '107', '1070', '1071', '1072', '1073', '1074', '1075', '1076', '1077', '1078', '1079', '108', '1080', '1081', '1082', '1083', '1084', '1085', '1086', '1087', '1088', '1089', '109', '1091', '1092', '1093', '1094', '1095', '1096', '1097', '1098', '1099', '11', '110', '1100', '1101', '1102', '1103', '1104', '1105', '1106', '1107', '1108', '1109', '111', '1110', '1111', '1112', '1113', '1114', '1115', '1116', '1117', '1118', '1119', '112', '1120', '1121', '1122', '1123', '1124', '1125', '1126', '1127', '1128', '113', '1130', '1131', '1132', '1133', '1134', '1135', '1136', '1138', '1139', '114', '1140', '1141', '1142', '1143', '1144', '1145', '1146', '1147', '1148', '1149', '115', '1150', '1151', '1152', '1153', '1154', '1155', '1156', '1157', '1158', '1159', '116', '1161', '1162', '1163', '1164', '1165', '1166', '1167', '1168', '1169', '117', '1170', '1171', '1172', '1173', '1174', '1175', '1176', '1177', '1178', '1179', '118', '1180', '1181', '1182', '1183', '1184', '1186', '1187', '1188', '1189', '119', '1190', '1191', '1192', '1193', '1194', '1195', '1196', '1197', '1198', '1199', '12', '120', '1200', '1201', '1202', '1203', '1204', '1205', '1206', '1207', '1208', '1209', '121', '1211', '1212', '1213', '1214', '1215', '1216', '1217', '1218', '1219', '122', '1220', '1221', '1222', '1223', '1224', '1225', '1226', '1227', '1228', '1229', '123', '1230', '1231', '1232', '1233', '1234', '1235', '1236', '1237', '1238', '1239', '124', '1240', '1241', '1242', '1243', '1244', '1245', '1246', '1247', '1248', '1249', '125', '1250', '1251', '1252', '1253', '1254', '1255', '1256', '1257', '1258', '1259', '126', '1260', '1261', '1262', '1263', '1264', '1265', '1266', '1267', '1268', '1269', '127', '1270', '1271', '1272', '1273', '1274', '1275', '1276', '1277', '1278', '1279', '128', '1280', '1281', '1282', '1283', '1284', '1285', '1287', '1288', '1289', '129', '1290', '1291', '1292', '1293', '1294', '1295', '1296', '1297', '1298', '1299', '13', '130', '1300', '1301', '1302', '1304', '1305', '1306', '1307', '1308', '1309', '131', '1310', '1311', '1312', '1313', '1314', '1315', '1316', '1317', '1318', '1319', '132', '1320', '1321', '1322', '1324', '1325', '1326', '1327', '1328', '1329', '133', '1330', '1331', '1332', '1333', '1334', '1335', '1336', '1337', '1338', '1339', '134', '1340', '1341', '1342', '1344', '1345', '1346', '1347', '1348', '1349', '135', '1350', '1351', '1352', '1353', '1354', '1355', '1356', '1357', '1358', '1359', '136', '1360', '1361', '1362', '1363', '1364', '1365', '1366', '1367', '1368', '1369', '137', '1370', '1371', '1372', '1373', '1374', '1375', '1376', '1377', '1378', '1379', '138', '1380', '1381', '1382', '1383', '1384', '1385', '1386', '1387', '1388', '1389', '139', '1390', '1391', '1392', '1393', '1395', '1396', '1397', '1398', '1399', '14', '140', '1400', '1401', '1402', '1403', '1404', '1405', '1406', '1407', '1408', '1409', '141', '1410', '1411', '1412', '1413', '1414', '1415', '1416', '1417', '1419', '142', '1420', '1421', '1422', '1423', '1424', '1425', '1426', '1428', '1429', '143', '1431', '1432', '1433', '1434', '1435', '1436', '1437', '1438', '144', '1440', '1443', '1444', '1445', '1446', '1447', '1448', '1449', '145', '1450', '1451', '1453', '1454', '1455', '1456', '1458', '1459', '146', '1460', '1461', '1462', '1463', '1464', '1465', '1466', '1467', '1468', '1469', '147', '1470', '1471', '1472', '1473', '1474', '1475', '1476', '1477', '1478', '1479', '148', '1480', '1481', '1482', '1483', '1484', '1486', '1487', '1488', '1489', '149', '1490', '1491', '1492', '1493', '1494', '1495', '1496', '1497', '1498', '1499', '15', '150', '1500', '1501', '1503', '1504', '1505', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '1516', '1517', '1518', '1519', '152', '1520', '1521', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '1531', '1532', '1533', '1534', '1535', '1536', '1537', '1538', '1539', '154', '1540', '1541', '1542', '1543', '1544', '1545', '1546', '1547', '1548', '1549', '155', '1550', '1553', '1554', '1555', '1556', '1557', '1558', '1559', '156', '1560', '1561', '1562', '1563', '1564', '1565', '1566', '1567', '1568', '1569', '157', '1570', '1571', '1572', '1573', '1574', '1575', '1576', '1577', '1578', '1579', '158', '1580', '1581', '1582', '1584', '1585', '1586', '1587', '1588', '1589', '159', '1590', '1591', '1592', '1593', '1595', '1596', '1597', '1598', '1599', '16', '160', '1600', '1601', '1602', '1604', '1605', '1606', '1607', '1608', '1609', '161', '1610', '1611', '1613', '1614', '1615', '1616', '1617', '1618', '1619', '162', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1628', '1629', '163', '1630', '1631', '1632', '1633', '1634', '1635', '1636', '1637', '1638', '1639', '164', '1640', '1641', '1642', '1644', '1645', '1646', '1647', '1648', '1649', '165', '1650', '1651', '1652', '1654', '1655', '1656', '1657', '1658', '1659', '166', '1660', '1661', '1662', '1663', '1664', '1665', '1666', '1667', '1668', '1669', '167', '1670', '1671', '1672', '1673', '1674', '1675', '1676', '1677', '1678', '1679', '168', '1680', '1681', '1682', '1683', '1684', '1685', '1686', '1687', '1688', '1689', '169', '1690', '1691', '1692', '1693', '1694', '1695', '1697', '1698', '1699', '17', '170', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '171', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '172', '1720', '1721', '1722', '1723', '1724', '1725', '1727', '1728', '1729', '173', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '174', '1740', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '175', '1750', '1751', '1752', '1753', '1754', '1756', '1757', '1758', '1759', '176', '1760', '1761', '1762', '1763', '1764', '1765', '1766', '1768', '1769', '177', '1770', '1772', '1773', '1774', '1775', '1776', '1777', '1778', '1779', '178', '1780', '1781', '1782', '1783', '1784', '1785', '1786', '1787', '1788', '1789', '179', '1790', '1791', '1792', '1793', '1794', '1795', '1796', '1797', '1798', '1799', '18', '180', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '181', '1810', '1811', '1812', '1813', '1814', '1815', '1816', '1819', '182', '1820', '1821', '1822', '1824', '1825', '1826', '1827', '1828', '1829', '183', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '184', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '185', '1850', '1851', '1852', '1853', '1855', '1856', '1857', '1858', '1859', '186', '1860', '1861', '1862', '1863', '1864', '1866', '1867', '1868', '1869', '187', '1870', '1871', '1872', '1873', '1874', '1875', '1876', '1877', '1878', '1879', '188', '1880', '1881', '1882', '1883', '1884', '1885', '1886', '1887', '1888', '1889', '189', '1890', '1891', '1892', '1893', '1894', '1895', '1896', '1897', '1898', '1899', '19', '190', '1900', '1901', '1902', '1903', '1904', '1905', '1906', '1907', '1908', '1909', '191', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '192', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1928', '1929', '193', '1930', '1931', '1932', '1933', '1934', '1935', '1937', '1938', '1939', '194', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '195', '1950', '1951', '1952', '1953', '1954', '1955', '1956', '1957', '1958', '1959', '196', '1960', '1961', '1962', '1964', '1965', '1966', '1967', '1969', '197', '1971', '1972', '1973', '1974', '1975', '1976', '1977', '1978', '198', '1980', '1981', '1982', '1983', '1984', '1985', '1986', '1987', '1988', '199', '1990', '1991', '1992', '1993', '1994', '1995', '1996', '1997', '1998', '1999', '2', '20', '200', '2000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '2060', '2061', '2062', '2063', '2064', '2065', '2067', '2068', '2069', '207', '2070', '2072', '2073', '2074', '2075', '2077', '2078', '2079', '208', '2080', '2081', '2082', '2083', '2084', '2085', '2086', '2087', '2088', '2089', '209', '2090', '2091', '2092', '2093', '2094', '2095', '2096', '2097', '2098', '2099', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2154', '2156', '2157', '2158', '2159', '216', '2160', '2161', '2162', '2163', '2164', '2165', '2166', '2167', '2168', '2169', '217', '2170', '2171', '2172', '2173', '2174', '2175', '2176', '2177', '2178', '2179', '218', '2180', '2181', '2182', '2184', '2185', '2186', '2187', '2188', '2189', '219', '2190', '2191', '2192', '2193', '2194', '2195', '2196', '2197', '2198', '2199', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2243', '2244', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '2260', '2261', '2262', '2263', '2264', '2265', '2266', '2267', '2269', '227', '2270', '2271', '2272', '2273', '2274', '2275', '2276', '2277', '2278', '2279', '228', '2280', '2281', '2282', '2283', '2284', '2285', '2286', '2287', '2289', '229', '2290', '2292', '2293', '2294', '2295', '2296', '2297', '2298', '2299', '23', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2314', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '2335', '2336', '2337', '2338', '2339', '234', '2340', '2341', '2342', '2343', '2344', '2345', '2346', '2347', '2348', '2349', '235', '2350', '2351', '2352', '2353', '2354', '2355', '2356', '2357', '2358', '2359', '236', '2360', '2361', '2362', '2363', '2364', '2365', '2366', '2367', '2368', '2369', '237', '2370', '2371', '2372', '2373', '2374', '2375', '2376', '2377', '2378', '2379', '238', '2380', '2381', '2382', '2383', '2384', '2385', '2386', '2387', '2388', '2389', '239', '2390', '2391', '2392', '2393', '2394', '2395', '2397', '2398', '2399', '24', '2400', '2401', '2402', '2403', '2404', '2405', '2406', '2407', '2409', '241', '2410', '2411', '2412', '2413', '2415', '2416', '2417', '2418', '2419', '242', '2420', '2421', '2422', '2423', '2424', '2425', '2427', '2428', '2429', '243', '2430', '2431', '2432', '2433', '2434', '2435', '2436', '2437', '2438', '2439', '244', '2440', '2442', '2443', '2444', '2445', '2446', '2447', '2448', '2449', '245', '2450', '2451', '2452', '2453', '2454', '2455', '2456', '2458', '2459', '246', '2460', '2461', '2462', '2463', '2464', '2465', '2466', '2467', '2468', '2469', '247', '2470', '2471', '2472', '2473', '2474', '2475', '2476', '2477', '2478', '2479', '248', '2480', '2481', '2482', '2483', '2484', '2485', '2486', '2487', '2488', '2489', '249', '2490', '2493', '2494', '2495', '2496', '2497', '2499', '25', '250', '2500', '2501', '2502', '2503', '2504', '2505', '2506', '2507', '2508', '2509', '2510', '2511', '2513', '2514', '2515', '2516', '2517', '2518', '2519', '252', '2520', '2521', '2522', '2523', '2524', '2525', '2526', '2527', '2528', '2529', '253', '2530', '2531', '2532', '2533', '2534', '2535', '2536', '2537', '2538', '2539', '254', '2540', '2541', '2542', '2543', '2545', '2546', '2547', '2548', '2549', '255', '2550', '2551', '2552', '2553', '2554', '2555', '2556', '2557', '2558', '2559', '256', '2561', '2562', '2563', '2564', '2565', '2566', '2568', '2569', '257', '2570', '2571', '2573', '2574', '2575', '2576', '2577', '2578', '2579', '258', '2580', '2581', '2582', '2583', '2584', '2585', '2586', '2587', '2588', '2589', '259', '2590', '2591', '2592', '2593', '2594', '2595', '2596', '2597', '2598', '2599', '26', '260', '2600', '2601', '2602', '2603', '2604', '2605', '2606', '2607', '2608', '2609', '261', '2610', '2611', '2612', '2613', '2614', '2615', '2616', '2618', '2619', '262', '2620', '2621', '2622', '2623', '2624', '2625', '2627', '2628', '2629', '263', '2630', '2631', '2632', '2633', '2634', '2635', '2636', '2637', '2639', '264', '2640', '2641', '2642', '2643', '2644', '2645', '2646', '2647', '2648', '2649', '265', '2650', '2651', '2652', '2653', '2654', '2655', '2656', '2657', '2659', '266', '2660', '2661', '2662', '2663', '2664', '2666', '2667', '2668', '2669', '267', '2670', '2671', '2672', '2673', '2674', '2675', '2676', '2677', '2679', '268', '2680', '2681', '2682', '2683', '2684', '2685', '2686', '2687', '2688', '2689', '269', '2690', '2691', '2692', '2693', '2694', '2695', '2696', '2697', '2698', '2699', '27', '270', '2700', '2701', '2702', '2703', '2704', '2705', '2706', '2707', '2708', '2709', '271', '2710', '2711', '2712', '2713', '2715', '2716', '2717', '2719', '272', '2720', '2721', '2722', '2723', '2724', '2726', '2727', '2728', '2729', '273', '2730', '2731', '2732', '2733', '2734', '2735', '2736', '2737', '2738', '2739', '274', '2740', '2741', '2743', '2744', '2745', '2747', '2748', '2749', '275', '2750', '2751', '2752', '2753', '2754', '2755', '2756', '2758', '2759', '276', '2760', '2761', '2762', '2763', '2764', '2765', '2766', '2767', '2768', '2769', '277', '2770', '2771', '2772', '2773', '2774', '2775', '2776', '2777', '2778', '2779', '278', '2780', '2781', '2782', '2783', '2784', '2785', '2786', '2787', '2788', '2789', '279', '2790', '2791', '2792', '2793', '2794', '2795', '2796', '2797', '2798', '2799', '28', '280', '2800', '2801', '2802', '2803', '2804', '2805', '2806', '2807', '2808', '2809', '281', '2810', '2811', '2812', '2813', '2814', '2815', '2816', '2817', '2818', '2819', '282', '2820', '2821', '2822', '2823', '2824', '2825', '2826', '2827', '2828', '2829', '283', '2830', '2831', '2832', '2833', '2834', '2835', '2836', '2837', '2838', '2839', '284', '2840', '2841', '2842', '2843', '2844', '2845', '2846', '2847', '2849', '285', '2850', '2851', '2852', '2853', '2854', '2855', '2856', '2857', '2858', '286', '2860', '2861', '2862', '2863', '2864', '2865', '2866', '2867', '2868', '2869', '287', '2870', '2871', '2872', '2873', '2874', '2875', '2876', '2877', '2878', '2879', '288', '2880', '2881', '2882', '2883', '2884', '2885', '2886', '2887', '2888', '2889', '289', '2890', '2891', '2892', '2893', '2894', '2895', '2896', '2897', '2898', '2899', '29', '290', '2900', '2901', '2903', '2904', '2905', '2907', '2908', '2909', '291', '2910', '2911', '2912', '2913', '2914', '2915', '2916', '2918', '2919', '292', '2920', '2921', '2922', '2923', '2924', '2925', '2926', '2927', '2928', '2929', '293', '2931', '2932', '2933', '2934', '2935', '2936', '2937', '2938', '2939', '294', '2940', '2941', '2942', '2943', '2944', '2945', '2946', '2947', '2948', '2949', '295', '2950', '2951', '2952', '2953', '2954', '2955', '2956', '2957', '2958', '2959', '296', '2960', '2961', '2962', '2963', '2964', '2965', '2966', '2967', '2968', '2969', '297', '2970', '2971', '2973', '2974', '2975', '2976', '2977', '2978', '2979', '298', '2980', '2981', '2982', '2983', '2984', '2985', '2986', '2987', '2988', '2989', '299', '2990', '2991', '2992', '2993', '2994', '2995', '2997', '2998', '2999', '3', '30', '300', '3001', '3004', '3006', '3007', '301', '3010', '3011', '3012', '3013', '3014', '3015', '3016', '3017', '3018', '3019', '302', '303', '304', '3046', '305', '3050', '306', '307', '308', '309', '31', '310', '311', '3115', '312', '3128', '313', '3134', '314', '3142', '3143', '315', '316', '317', '318', '319', '32', '320', '321', '323', '324', '3245', '325', '326', '327', '328', '329', '33', '330', '331', '332', '3326', '333', '3337', '3338', '334', '335', '336', '337', '3373', '3376', '338', '3384', '339', '3397', '34', '340', '341', '342', '343', '344', '345', '346', '347', '349', '35', '350', '3500', '3501', '3503', '3504', '3505', '3506', '3507', '3508', '351', '3510', '3511', '3512', '3513', '3514', '3515', '3516', '3517', '3518', '3519', '352', '3521', '3523', '3525', '3526', '3527', '3529', '353', '3530', '3531', '3532', '3533', '3534', '3535', '3536', '3537', '3538', '3539', '354', '3540', '3541', '3542', '3543', '3544', '3545', '3546', '3547', '3548', '3549', '355', '3550', '3551', '3552', '3553', '3554', '3555', '3556', '3557', '3558', '3559', '356', '3560', '3561', '3562', '3563', '3564', '3565', '3566', '3567', '3568', '3569', '357', '3570', '3571', '3572', '3573', '3574', '3575', '3576', '3577', '3578', '3579', '358', '3580', '3581', '3582', '3583', '3584', '3585', '3586', '3587', '3588', '3589', '359', '3590', '3591', '3592', '3593', '3594', '3595', '3596', '3597', '3598', '3599', '36', '360', '3600', '3601', '3602', '3603', '3604', '3605', '3606', '3607', '3608', '3609', '361', '3610', '3611', '3612', '3613', '3614', '3615', '3616', '3617', '3618', '3619', '362', '3620', '3621', '3622', '3623', '3624', '3625', '3626', '3627', '3628', '3629', '363', '3630', '3632', '3633', '3634', '3636', '3637', '3638', '3639', '364', '3640', '3641', '3642', '3643', '3644', '3645', '3646', '3647', '3648', '3649', '365', '3651', '3652', '3653', '3654', '3656', '3657', '3658', '3659', '366', '3660', '3661', '3662', '3663', '3664', '3665', '3666', '3667', '3668', '3669', '367', '3670', '3671', '3672', '3673', '3674', '3675', '3676', '3678', '368', '3680', '3681', '3682', '3683', '3684', '3685', '3686', '3687', '3688', '3689', '369', '3690', '3691', '3692', '3693', '3694', '3696', '3697', '3698', '37', '370', '3700', '3701', '3702', '3703', '3704', '3705', '3706', '3707', '3709', '371', '3710', '3711', '3712', '3713', '3714', '3715', '3716', '3717', '3718', '3719', '372', '3720', '3722', '3724', '3725', '3726', '3727', '3728', '3729', '373', '3730', '3731', '3732', '3733', '3734', '3735', '3736', '3737', '3738', '3739', '374', '3740', '3741', '3742', '3743', '3744', '3745', '3746', '3747', '3748', '3749', '375', '3750', '3751', '3752', '3753', '3754', '3755', '3756', '3757', '3758', '376', '3760', '3761', '3762', '3763', '3764', '3765', '3766', '3767', '3768', '3769', '377', '3770', '3771', '3773', '3774', '3775', '3776', '3777', '3778', '3779', '378', '3780', '3781', '3782', '3783', '3784', '3785', '3786', '3787', '3788', '3789', '379', '3790', '3791', '3792', '3793', '3794', '3795', '3796', '3797', '3798', '3799', '38', '380', '3800', '3801', '3803', '3804', '3805', '3806', '3807', '3808', '3809', '381', '3810', '3812', '3813', '3814', '3815', '3816', '3817', '3818', '3819', '382', '3820', '3821', '3822', '3823', '3824', '3825', '3826', '3827', '3828', '3829', '383', '3830', '3831', '3832', '3833', '3835', '3836', '3837', '3838', '3839', '384', '3840', '3841', '3842', '3843', '3844', '3845', '3846', '3847', '3848', '3849', '385', '3850', '3851', '3852', '3853', '3854', '3855', '3856', '3857', '3858', '3859', '386', '3861', '3862', '3863', '3864', '3865', '3866', '3867', '3868', '3869', '387', '3870', '3871', '3872', '3873', '3874', '3875', '3876', '3877', '3878', '3879', '388', '3880', '3881', '3882', '3883', '3884', '3885', '3886', '3887', '3888', '3889', '389', '3890', '3891', '3892', '3893', '3894', '3895', '3896', '3897', '3898', '3899', '39', '390', '3900', '3901', '3902', '3903', '3904', '3905', '3906', '3907', '3908', '3909', '391', '3910', '3911', '3912', '3913', '3914', '3915', '3916', '3917', '3918', '3919', '392', '3920', '3921', '3922', '3923', '3924', '3925', '3926', '3927', '3928', '3929', '393', '3930', '3931', '3932', '3933', '3934', '3935', '3936', '3937', '3938', '3939', '394', '3940', '3941', '3942', '3943', '3944', '3945', '3946', '3947', '3948', '3949', '395', '3950', '3951', '3952', '3953', '3954', '3955', '3956', '3957', '3958', '3959', '396', '3960', '3961', '3962', '3963', '3964', '3965', '3966', '3967', '3968', '3969', '397', '3970', '3971', '3972', '3973', '3974', '3975', '3976', '3977', '3978', '3979', '398', '3980', '3981', '3982', '3983', '3984', '3985', '3986', '3987', '3989', '399', '3990', '3991', '3992', '3993', '3994', '3995', '3996', '3997', '3998', '3999', '4', '40', '400', '4000', '4001', '4003', '4004', '4005', '4006', '4007', '4008', '4009', '401', '4010', '4011', '4012', '4013', '4014', '4015', '4016', '4017', '4018', '4019', '402', '4020', '4021', '4022', '4023', '4024', '4025', '4026', '4028', '4029', '403', '4030', '4031', '4032', '4033', '4034', '4035', '4036', '4037', '4038', '4039', '404', '4040', '4041', '4042', '4043', '4044', '4045', '4046', '4047', '4048', '4049', '405', '4050', '4051', '4052', '4053', '4054', '4055', '4056', '4057', '4058', '4059', '406', '4061', '4062', '4063', '4064', '4066', '4067', '4068', '4069', '407', '4070', '4071', '4072', '4073', '4074', '4075', '4076', '4077', '4078', '4079', '408', '4080', '4081', '4082', '4083', '4084', '4085', '4086', '4087', '4088', '4089', '409', '4090', '4091', '4092', '4093', '4094', '4095', '4096', '4097', '4098', '4099', '41', '410', '4100', '4101', '4102', '4103', '4104', '4105', '4106', '4107', '4108', '4109', '411', '4110', '4111', '4112', '4113', '4114', '4115', '4117', '4118', '4119', '412', '4120', '4121', '4122', '4123', '4124', '4125', '4127', '4128', '4129', '413', '4130', '4131', '4132', '4133', '4134', '4135', '4136', '4137', '4138', '4139', '414', '4140', '4141', '4142', '4143', '4144', '4145', '4146', '4147', '4148', '4149', '415', '4150', '4151', '4152', '4153', '4154', '4155', '4156', '4157', '4158', '416', '4160', '4161', '4162', '4163', '4164', '4165', '4166', '4167', '4168', '4169', '417', '4170', '4171', '4173', '4174', '4176', '4177', '4178', '4179', '418', '4180', '4181', '4182', '4183', '4184', '4185', '4186', '4187', '4188', '4189', '419', '4190', '4191', '4192', '4193', '4194', '4195', '4196', '4197', '4198', '4199', '42', '420', '4200', '4201', '4202', '4203', '4204', '4205', '4206', '4208', '4209', '421', '4210', '4211', '4212', '4213', '4214', '4215', '4216', '4217', '4218', '4219', '422', '4220', '4221', '4222', '4223', '4224', '4225', '4226', '4228', '4229', '423', '4230', '4231', '4232', '4233', '4234', '4235', '4236', '4237', '4238', '4239', '424', '4240', '4241', '4242', '4243', '4244', '4245', '4246', '4247', '4248', '4249', '425', '4250', '4251', '4252', '4253', '4254', '4255', '4256', '4257', '4258', '4259', '426', '4260', '4261', '4262', '4263', '4264', '4265', '4266', '4267', '4269', '427', '4270', '4271', '4272', '4273', '4274', '4275', '4276', '4277', '4279', '428', '4282', '4283', '4284', '4285', '4286', '4287', '4288', '4289', '429', '4290', '4291', '4292', '4293', '4294', '4295', '4296', '4297', '4298', '4299', '43', '430', '4300', '4301', '4302', '4303', '4304', '4305', '4306', '4307', '4308', '4309', '431', '4310', '4311', '4312', '4313', '4314', '4315', '4316', '4317', '4318', '4319', '432', '4320', '4321', '4322', '4323', '4324', '4325', '4326', '4327', '4328', '4329', '433', '4330', '4331', '4332', '4333', '4334', '4335', '4337', '4338', '4339', '434', '4340', '4341', '4342', '4343', '4344', '4346', '4348', '4349', '435', '4350', '4351', '4352', '4353', '4354', '4355', '4356', '4357', '4358', '4359', '436', '4360', '4361', '4362', '4363', '4364', '4365', '4366', '4367', '4368', '4369', '437', '4370', '4371', '4373', '4374', '4375', '4376', '4377', '4378', '4379', '438', '4380', '4381', '4382', '4383', '4384', '4385', '4386', '4387', '4388', '4389', '439', '4390', '4391', '4392', '4393', '4394', '4395', '4396', '4397', '4398', '4399', '44', '440', '4400', '4401', '4402', '4403', '4404', '4405', '4406', '4407', '4408', '4409', '441', '4410', '4411', '4413', '4414', '4415', '4417', '4418', '4419', '442', '4420', '4422', '4424', '4426', '4427', '4428', '4429', '443', '4430', '4431', '4432', '4433', '4434', '4435', '4436', '4437', '4438', '4439', '444', '4440', '4441', '4442', '4443', '4444', '4445', '4446', '4447', '4448', '4449', '445', '4450', '4451', '4452', '4453', '4454', '4455', '4456', '4457', '4458', '446', '4460', '4461', '4462', '4463', '4466', '4467', '4468', '4469', '447', '4470', '4471', '4472', '4473', '4474', '4475', '4476', '4477', '4478', '4479', '448', '4480', '4481', '4482', '4483', '4484', '4485', '4486', '4487', '4488', '4489', '449', '4490', '4491', '4492', '4493', '4494', '4495', '4496', '4497', '4498', '4499', '45', '450', '4500', '4501', '4502', '4503', '4504', '4505', '4506', '4507', '4508', '4509', '451', '4510', '4511', '4512', '4513', '4514', '4515', '4516', '4517', '4519', '452', '4521', '4522', '4523', '4524', '4525', '4526', '4527', '4528', '4529', '453', '4531', '4532', '4533', '4534', '4535', '4536', '4537', '4538', '4539', '454', '4540', '4541', '4542', '4543', '4544', '4545', '4546', '4547', '4548', '4549', '455', '4550', '4551', '4552', '4553', '4554', '4555', '4557', '4558', '4559', '456', '4560', '4561', '4562', '4563', '4564', '4565', '4566', '4567', '4568', '4569', '457', '4570', '4573', '4574', '4575', '4576', '4577', '4578', '4579', '458', '4580', '4581', '4582', '4583', '4584', '4586', '4587', '4588', '4589', '459', '4590', '4591', '4592', '4593', '4594', '4595', '4597', '4598', '4599', '46', '460', '4600', '4601', '4602', '4603', '4604', '4605', '4606', '4607', '4608', '4609', '461', '4610', '4612', '4613', '4614', '4615', '4616', '4617', '4618', '4619', '462', '4620', '4621', '4622', '4623', '4624', '4625', '4626', '4627', '4628', '4629', '463', '4630', '4631', '4632', '4633', '4634', '4635', '4636', '4637', '4638', '4639', '464', '4640', '4641', '4642', '4643', '4644', '4645', '4646', '4647', '4649', '465', '4650', '4651', '4652', '4653', '4654', '4655', '4656', '4658', '466', '4660', '4661', '4662', '4663', '4664', '4665', '4666', '4667', '4668', '4669', '467', '4670', '4671', '4672', '4673', '4675', '4676', '4677', '4678', '4679', '468', '4680', '4681', '4682', '4683', '4684', '4685', '4686', '4687', '4688', '4689', '469', '4690', '4691', '4692', '4693', '4694', '4696', '4697', '4698', '4699', '47', '470', '4700', '4701', '4702', '4703', '4704', '4705', '4706', '4707', '4708', '4709', '471', '4710', '4711', '4712', '4714', '4715', '4716', '4717', '4719', '472', '4720', '4721', '4722', '4723', '4724', '4725', '4726', '4727', '4728', '4729', '473', '4730', '4731', '4732', '4733', '4734', '4735', '4736', '4737', '4738', '4739', '474', '4740', '4741', '4742', '4743', '4744', '4745', '4746', '4747', '4748', '4749', '475', '4750', '4751', '4752', '4753', '4754', '4755', '4756', '4757', '4758', '4759', '476', '4760', '4761', '4762', '4763', '4764', '4765', '4766', '4767', '4768', '4769', '477', '4770', '4771', '4772', '4773', '4774', '4775', '4776', '4777', '4778', '4779', '478', '4780', '4781', '4783', '4784', '4785', '4786', '4787', '4788', '4789', '479', '4790', '4791', '4792', '4793', '4794', '4795', '4796', '4797', '4798', '4799', '48', '480', '4801', '4802', '4803', '4804', '4805', '4806', '4807', '4808', '4809', '481', '4810', '4811', '4812', '4813', '4814', '4815', '4816', '4817', '4818', '4819', '4820', '4821', '4822', '4823', '4824', '4825', '4826', '4827', '4828', '4829', '483', '4830', '4831', '4832', '4833', '4834', '4835', '4836', '4837', '4838', '4839', '484', '4840', '4841', '4842', '4843', '4844', '4845', '4846', '4847', '4848', '4849', '485', '4850', '4851', '4852', '4853', '4854', '4855', '4856', '4857', '4858', '4859', '486', '4860', '4861', '4862', '4864', '4865', '4866', '4867', '4868', '4869', '487', '4870', '4871', '4872', '4873', '4874', '4875', '4876', '4877', '4878', '4879', '488', '4880', '4881', '4883', '4884', '4885', '4886', '4887', '4888', '4889', '489', '4890', '4891', '4892', '4893', '4895', '4896', '4897', '4898', '4899', '49', '490', '4901', '4902', '4903', '4904', '4905', '4906', '4907', '4908', '4909', '491', '4910', '4911', '4912', '4913', '4914', '4915', '4916', '4918', '4919', '492', '4920', '4921', '4922', '4923', '4924', '4925', '4926', '4927', '4928', '4929', '493', '4930', '4931', '4932', '4933', '4934', '4935', '4936', '4937', '4938', '4939', '4940', '4941', '4942', '4943', '4944', '4945', '4946', '4947', '4948', '4949', '495', '4950', '4951', '4952', '4953', '4954', '4955', '4956', '4957', '4958', '4959', '496', '4960', '4961', '4962', '4964', '4965', '4967', '4968', '4969', '497', '4970', '4971', '4972', '4973', '4974', '4975', '4976', '4977', '4978', '4979', '498', '4980', '4981', '4982', '4984', '4985', '4986', '4987', '4988', '4989', '499', '4990', '4991', '4992', '4993', '4994', '4996', '4997', '4998', '4999', '5', '50', '500', '501', '5019', '502', '503', '504', '505', '506', '507', '508', '509', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '530', '531', '532', '533', '534', '535', '536', '537', '54', '55', '56', '57', '58', '59', '6', '60', '6001', '6002', '6005', '6008', '6009', '6013', '6014', '6016', '6018', '6021', '6022', '6024', '6025', '6026', '6027', '6028', '6030', '6033', '6036', '6039', '6040', '6043', '6044', '6047', '6050', '6052', '6053', '6054', '6055', '6056', '6057', '6059', '6060', '6061', '6062', '6063', '6065', '6066', '6067', '6072', '6073', '6074', '6076', '6077', '6078', '6079', '6082', '6083', '6084', '6085', '6086', '6094', '6095', '6098</t>
         </is>
@@ -578,18 +591,26 @@
       <c r="P3" t="n">
         <v>5</v>
       </c>
-      <c r="Q3" t="inlineStr">
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
+      <c r="R3" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S3" t="inlineStr">
         <is>
           <t>Private Hire Vehicle</t>
         </is>
       </c>
-      <c r="R3" t="n">
+      <c r="T3" t="n">
         <v>94255</v>
       </c>
-      <c r="S3" t="n">
+      <c r="U3" t="n">
         <v>5</v>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="V3" t="inlineStr">
         <is>
           <t>['Contract Vehicle Permit', 'Hackney Carriage Vehicle', 'Private Hire Executive Vehicle', 'Private Hire Novelty Vehicle', 'Private Hire Vehicle']</t>
         </is>
@@ -648,18 +669,26 @@
       <c r="P4" t="n">
         <v>4</v>
       </c>
-      <c r="Q4" t="inlineStr">
-        <is>
-          <t>Licence Suspended</t>
-        </is>
-      </c>
-      <c r="R4" t="n">
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
+      <c r="R4" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S4" t="inlineStr">
+        <is>
+          <t>Licence Issued</t>
+        </is>
+      </c>
+      <c r="T4" t="n">
         <v>64702</v>
       </c>
-      <c r="S4" t="n">
+      <c r="U4" t="n">
         <v>3</v>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="V4" t="inlineStr">
         <is>
           <t>['0', 'Licence Issued', 'Licence Suspended']</t>
         </is>
@@ -718,18 +747,26 @@
       <c r="P5" t="n">
         <v>7</v>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>9/12/15 0:00</t>
-        </is>
-      </c>
-      <c r="R5" t="n">
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S5" t="inlineStr">
+        <is>
+          <t>1/02/15 0:00</t>
+        </is>
+      </c>
+      <c r="T5" t="n">
         <v>57674</v>
       </c>
-      <c r="S5" t="n">
+      <c r="U5" t="n">
         <v>387</v>
       </c>
-      <c r="T5" t="inlineStr">
+      <c r="V5" t="inlineStr">
         <is>
           <t>['1/01/15 0:00', '1/02/15 0:00', '1/03/15 0:00', '1/04/15 0:00', '1/05/15 0:00', '1/06/15 0:00', '1/07/15 0:00', '1/08/15 0:00', '1/09/15 0:00', '1/10/15 0:00', '1/11/15 0:00', '1/12/14 0:00', '1/12/15 0:00', '10/01/15 0:00', '10/02/15 0:00', '10/03/15 0:00', '10/04/15 0:00', '10/05/15 0:00', '10/06/15 0:00', '10/07/15 0:00', '10/08/15 0:00', '10/09/15 0:00', '10/10/15 0:00', '10/11/14 0:00', '10/11/15 0:00', '10/12/14 0:00', '11/01/15 0:00', '11/02/15 0:00', '11/03/15 0:00', '11/04/15 0:00', '11/05/15 0:00', '11/06/15 0:00', '11/07/15 0:00', '11/08/15 0:00', '11/09/15 0:00', '11/10/15 0:00', '11/11/14 0:00', '11/11/15 0:00', '11/12/14 0:00', '11/12/15 0:00', '12/01/15 0:00', '12/02/15 0:00', '12/03/15 0:00', '12/04/15 0:00', '12/05/15 0:00', '12/06/15 0:00', '12/07/15 0:00', '12/08/15 0:00', '12/09/15 0:00', '12/10/15 0:00', '12/11/14 0:00', '12/11/15 0:00', '12/12/14 0:00', '12/12/15 0:00', '13/01/15 0:00', '13/02/15 0:00', '13/03/15 0:00', '13/04/15 0:00', '13/05/15 0:00', '13/06/15 0:00', '13/07/15 0:00', '13/08/15 0:00', '13/09/15 0:00', '13/10/15 0:00', '13/11/14 0:00', '13/12/14 0:00', '13/12/15 0:00', '14/01/15 0:00', '14/02/15 0:00', '14/03/15 0:00', '14/04/15 0:00', '14/05/15 0:00', '14/06/15 0:00', '14/07/15 0:00', '14/08/15 0:00', '14/09/15 0:00', '14/10/15 0:00', '14/11/14 0:00', '14/11/15 0:00', '14/12/14 0:00', '14/12/15 0:00', '15/01/15 0:00', '15/02/15 0:00', '15/03/15 0:00', '15/04/15 0:00', '15/05/15 0:00', '15/06/15 0:00', '15/07/15 0:00', '15/08/15 0:00', '15/10/15 0:00', '15/11/14 0:00', '15/11/15 0:00', '15/12/14 0:00', '16/01/15 0:00', '16/02/15 0:00', '16/03/15 0:00', '16/04/15 0:00', '16/05/15 0:00', '16/06/15 0:00', '16/07/15 0:00', '16/08/15 0:00', '16/09/15 0:00', '16/10/15 0:00', '16/11/14 0:00', '16/12/14 0:00', '17/01/15 0:00', '17/02/15 0:00', '17/03/15 0:00', '17/04/15 0:00', '17/05/15 0:00', '17/06/15 0:00', '17/07/15 0:00', '17/08/15 0:00', '17/09/15 0:00', '17/10/15 0:00', '17/12/14 0:00', '18/01/15 0:00', '18/02/15 0:00', '18/03/15 0:00', '18/04/15 0:00', '18/05/15 0:00', '18/06/15 0:00', '18/07/15 0:00', '18/08/15 0:00', '18/09/15 0:00', '18/10/15 0:00', '18/11/14 0:00', '18/11/15 0:00', '18/12/14 0:00', '19/01/15 0:00', '19/02/15 0:00', '19/03/15 0:00', '19/04/15 0:00', '19/05/15 0:00', '19/06/15 0:00', '19/07/15 0:00', '19/08/15 0:00', '19/09/15 0:00', '19/10/15 0:00', '19/11/14 0:00', '19/11/15 0:00', '19/12/14 0:00', '2/01/15 0:00', '2/02/15 0:00', '2/03/15 0:00', '2/04/15 0:00', '2/05/15 0:00', '2/06/15 0:00', '2/07/15 0:00', '2/08/15 0:00', '2/09/15 0:00', '2/10/15 0:00', '2/11/15 0:00', '2/12/14 0:00', '20/01/15 0:00', '20/02/15 0:00', '20/03/15 0:00', '20/04/15 0:00', '20/05/15 0:00', '20/06/15 0:00', '20/07/15 0:00', '20/08/15 0:00', '20/09/15 0:00', '20/10/15 0:00', '20/11/14 0:00', '20/11/15 0:00', '20/12/14 0:00', '21/01/15 0:00', '21/02/15 0:00', '21/03/15 0:00', '21/04/15 0:00', '21/05/15 0:00', '21/06/15 0:00', '21/07/15 0:00', '21/08/15 0:00', '21/09/15 0:00', '21/10/15 0:00', '21/11/14 0:00', '21/11/15 0:00', '21/12/14 0:00', '22/01/15 0:00', '22/02/15 0:00', '22/03/15 0:00', '22/04/15 0:00', '22/05/15 0:00', '22/06/15 0:00', '22/07/15 0:00', '22/08/15 0:00', '22/09/15 0:00', '22/10/15 0:00', '22/11/14 0:00', '22/11/15 0:00', '22/12/14 0:00', '23/01/15 0:00', '23/02/15 0:00', '23/03/15 0:00', '23/04/15 0:00', '23/05/15 0:00', '23/06/15 0:00', '23/07/15 0:00', '23/08/15 0:00', '23/09/15 0:00', '23/10/15 0:00', '23/11/14 0:00', '23/11/15 0:00', '23/12/14 0:00', '24/01/15 0:00', '24/03/15 0:00', '24/04/15 0:00', '24/05/15 0:00', '24/06/15 0:00', '24/07/15 0:00', '24/08/15 0:00', '24/09/15 0:00', '24/10/15 0:00', '24/11/14 0:00', '24/11/15 0:00', '24/12/14 0:00', '25/01/15 0:00', '25/02/15 0:00', '25/03/15 0:00', '25/04/15 0:00', '25/05/15 0:00', '25/06/15 0:00', '25/07/15 0:00', '25/09/15 0:00', '25/10/15 0:00', '25/11/14 0:00', '25/11/15 0:00', '26/01/15 0:00', '26/02/15 0:00', '26/03/15 0:00', '26/04/15 0:00', '26/05/15 0:00', '26/06/15 0:00', '26/07/15 0:00', '26/08/15 0:00', '26/09/15 0:00', '26/09/16 0:00', '26/10/15 0:00', '26/11/14 0:00', '26/11/15 0:00', '27/01/15 0:00', '27/02/15 0:00', '27/03/15 0:00', '27/04/15 0:00', '27/05/15 0:00', '27/06/15 0:00', '27/07/15 0:00', '27/08/15 0:00', '27/08/16 0:00', '27/09/15 0:00', '27/10/15 0:00', '27/11/14 0:00', '27/11/15 0:00', '28/01/15 0:00', '28/02/15 0:00', '28/03/15 0:00', '28/04/15 0:00', '28/05/15 0:00', '28/06/15 0:00', '28/07/15 0:00', '28/08/15 0:00', '28/09/15 0:00', '28/10/15 0:00', '28/11/14 0:00', '28/11/15 0:00', '29/01/15 0:00', '29/04/15 0:00', '29/05/15 0:00', '29/06/15 0:00', '29/07/15 0:00', '29/08/15 0:00', '29/09/15 0:00', '29/10/15 0:00', '29/11/14 0:00', '29/11/15 0:00', '29/6/0215 00:00:00', '3', '3/01/15 0:00', '3/02/15 0:00', '3/03/15 0:00', '3/04/15 0:00', '3/05/15 0:00', '3/06/15 0:00', '3/07/15 0:00', '3/08/15 0:00', '3/09/15 0:00', '3/10/15 0:00', '3/11/15 0:00', '3/12/14 0:00', '30/01/15 0:00', '30/03/15 0:00', '30/04/15 0:00', '30/05/15 0:00', '30/06/15 0:00', '30/07/15 0:00', '30/08/15 0:00', '30/09/15 0:00', '30/09/16 0:00', '30/10/15 0:00', '30/11/14 0:00', '31/01/15 0:00', '31/03/15 0:00', '31/05/15 0:00', '31/07/15 0:00', '31/08/15 0:00', '31/10/15 0:00', '4/01/15 0:00', '4/02/15 0:00', '4/03/15 0:00', '4/04/15 0:00', '4/05/15 0:00', '4/06/15 0:00', '4/07/15 0:00', '4/08/15 0:00', '4/09/15 0:00', '4/10/15 0:00', '4/11/15 0:00', '4/12/14 0:00', '5/01/15 0:00', '5/02/15 0:00', '5/03/15 0:00', '5/04/15 0:00', '5/05/15 0:00', '5/06/15 0:00', '5/07/15 0:00', '5/08/15 0:00', '5/09/15 0:00', '5/10/15 0:00', '5/11/15 0:00', '5/12/14 0:00', '5/12/15 0:00', '6/01/15 0:00', '6/02/15 0:00', '6/03/15 0:00', '6/05/15 0:00', '6/06/15 0:00', '6/07/15 0:00', '6/09/15 0:00', '6/10/15 0:00', '6/11/14 0:00', '6/11/15 0:00', '6/12/14 0:00', '6/12/15 0:00', '7/01/15 0:00', '7/02/15 0:00', '7/03/15 0:00', '7/04/15 0:00', '7/05/15 0:00', '7/06/15 0:00', '7/07/15 0:00', '7/08/15 0:00', '7/09/15 0:00', '7/10/15 0:00', '7/11/14 0:00', '7/11/15 0:00', '7/12/14 0:00', '7/12/15 0:00', '8/01/15 0:00', '8/02/12 0:00', '8/02/15 0:00', '8/03/15 0:00', '8/04/15 0:00', '8/05/15 0:00', '8/06/15 0:00', '8/07/15 0:00', '8/08/15 0:00', '8/09/15 0:00', '8/10/15 0:00', '8/11/14 0:00', '8/11/15 0:00', '8/12/14 0:00', '9/01/15 0:00', '9/02/15 0:00', '9/03/15 0:00', '9/04/15 0:00', '9/05/15 0:00', '9/06/15 0:00', '9/07/15 0:00', '9/08/15 0:00', '9/09/15 0:00', '9/10/15 0:00', '9/11/14 0:00', '9/11/15 0:00', '9/12/14 0:00', '9/12/15 0:00']</t>
         </is>
@@ -788,18 +825,26 @@
       <c r="P6" t="n">
         <v>6</v>
       </c>
-      <c r="Q6" t="inlineStr">
-        <is>
-          <t>9/12/15 0:00</t>
-        </is>
-      </c>
-      <c r="R6" t="n">
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
+      <c r="R6" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>31/01/16 0:00</t>
+        </is>
+      </c>
+      <c r="T6" t="n">
         <v>58660</v>
       </c>
-      <c r="S6" t="n">
+      <c r="U6" t="n">
         <v>386</v>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="V6" t="inlineStr">
         <is>
           <t>['1/01/16 0:00', '1/02/16 0:00', '1/03/16 0:00', '1/04/16 0:00', '1/05/16 0:00', '1/06/16 0:00', '1/07/16 0:00', '1/08/16 0:00', '1/09/16 0:00', '1/10/16 0:00', '1/11/16 0:00', '1/12/15 0:00', '10/01/16 0:00', '10/02/16 0:00', '10/03/16 0:00', '10/04/16 0:00', '10/05/16 0:00', '10/06/16 0:00', '10/07/16 0:00', '10/08/16 0:00', '10/09/16 0:00', '10/10/16 0:00', '10/11/15 0:00', '10/11/16 0:00', '10/12/15 0:00', '10/12/16 0:00', '11/01/16 0:00', '11/02/16 0:00', '11/03/16 0:00', '11/04/16 0:00', '11/05/16 0:00', '11/06/16 0:00', '11/07/16 0:00', '11/08/16 0:00', '11/09/16 0:00', '11/10/16 0:00', '11/11/15 0:00', '11/11/16 0:00', '11/12/15 0:00', '11/12/16 0:00', '12/01/16 0:00', '12/02/16 0:00', '12/03/16 0:00', '12/04/16 0:00', '12/05/16 0:00', '12/06/16 0:00', '12/07/16 0:00', '12/08/16 0:00', '12/09/16 0:00', '12/10/16 0:00', '12/11/15 0:00', '12/12/15 0:00', '12/12/16 0:00', '13/01/16 0:00', '13/02/16 0:00', '13/03/16 0:00', '13/04/16 0:00', '13/05/16 0:00', '13/06/16 0:00', '13/07/16 0:00', '13/08/16 0:00', '13/09/16 0:00', '13/10/16 0:00', '13/11/15 0:00', '13/11/16 0:00', '13/12/15 0:00', '13/12/16 0:00', '14/01/16 0:00', '14/02/16 0:00', '14/03/16 0:00', '14/04/16 0:00', '14/05/16 0:00', '14/06/16 0:00', '14/07/16 0:00', '14/08/16 0:00', '14/10/16 0:00', '14/11/15 0:00', '14/11/16 0:00', '14/12/15 0:00', '15/01/16 0:00', '15/02/16 0:00', '15/03/16 0:00', '15/04/16 0:00', '15/05/16 0:00', '15/05/17 0:00', '15/06/16 0:00', '15/07/16 0:00', '15/08/16 0:00', '15/09/16 0:00', '15/10/16 0:00', '15/11/15 0:00', '15/12/15 0:00', '16/01/16 0:00', '16/02/16 0:00', '16/03/16 0:00', '16/04/16 0:00', '16/05/16 0:00', '16/06/16 0:00', '16/07/16 0:00', '16/08/16 0:00', '16/09/16 0:00', '16/10/16 0:00', '16/12/15 0:00', '17/01/16 0:00', '17/02/16 0:00', '17/03/16 0:00', '17/04/16 0:00', '17/05/16 0:00', '17/06/16 0:00', '17/07/16 0:00', '17/08/16 0:00', '17/09/16 0:00', '17/10/16 0:00', '17/11/15 0:00', '17/11/16 0:00', '17/12/15 0:00', '18/01/16 0:00', '18/02/16 0:00', '18/03/16 0:00', '18/04/16 0:00', '18/05/16 0:00', '18/06/16 0:00', '18/07/16 0:00', '18/08/16 0:00', '18/09/16 0:00', '18/10/16 0:00', '18/11/15 0:00', '18/11/16 0:00', '18/12/15 0:00', '19/01/16 0:00', '19/02/16 0:00', '19/03/16 0:00', '19/04/16 0:00', '19/05/16 0:00', '19/06/16 0:00', '19/07/16 0:00', '19/08/16 0:00', '19/09/16 0:00', '19/10/16 0:00', '19/11/15 0:00', '19/11/16 0:00', '19/12/15 0:00', '2/01/16 0:00', '2/02/16 0:00', '2/03/16 0:00', '2/04/16 0:00', '2/05/16 0:00', '2/06/16 0:00', '2/07/16 0:00', '2/08/16 0:00', '2/09/16 0:00', '2/10/16 0:00', '2/11/16 0:00', '2/12/15 0:00', '20/01/16 0:00', '20/02/16 0:00', '20/03/16 0:00', '20/04/16 0:00', '20/05/16 0:00', '20/06/16 0:00', '20/07/16 0:00', '20/08/16 0:00', '20/09/16 0:00', '20/10/16 0:00', '20/11/15 0:00', '20/11/16 0:00', '20/12/15 0:00', '21/01/16 0:00', '21/02/16 0:00', '21/03/16 0:00', '21/04/16 0:00', '21/05/16 0:00', '21/06/16 0:00', '21/07/16 0:00', '21/08/16 0:00', '21/09/16 0:00', '21/10/16 0:00', '21/11/15 0:00', '21/11/16 0:00', '21/12/15 0:00', '22/01/16 0:00', '22/02/16 0:00', '22/03/16 0:00', '22/04/16 0:00', '22/05/16 0:00', '22/06/16 0:00', '22/07/16 0:00', '22/08/16 0:00', '22/09/16 0:00', '22/10/16 0:00', '22/11/15 0:00', '22/11/16 0:00', '22/12/15 0:00', '23/01/16 0:00', '23/03/16 0:00', '23/04/16 0:00', '23/05/16 0:00', '23/06/16 0:00', '23/07/16 0:00', '23/08/16 0:00', '23/09/16 0:00', '23/10/16 0:00', '23/11/15 0:00', '23/11/16 0:00', '23/12/15 0:00', '24/01/16 0:00', '24/02/16 0:00', '24/03/16 0:00', '24/04/16 0:00', '24/05/16 0:00', '24/06/16 0:00', '24/07/16 0:00', '24/09/16 0:00', '24/10/16 0:00', '24/11/15 0:00', '24/11/16 0:00', '25/01/16 0:00', '25/02/16 0:00', '25/03/16 0:00', '25/04/16 0:00', '25/05/16 0:00', '25/06/16 0:00', '25/07/16 0:00', '25/08/16 0:00', '25/09/16 0:00', '25/10/16 0:00', '25/11/15 0:00', '25/11/16 0:00', '26/01/16 0:00', '26/02/16 0:00', '26/03/16 0:00', '26/04/16 0:00', '26/05/16 0:00', '26/06/16 0:00', '26/07/16 0:00', '26/08/16 0:00', '26/09/16 0:00', '26/10/16 0:00', '26/11/15 0:00', '26/11/16 0:00', '27/01/16 0:00', '27/02/16 0:00', '27/03/16 0:00', '27/04/16 0:00', '27/05/16 0:00', '27/06/16 0:00', '27/07/16 0:00', '27/08/16 0:00', '27/09/16 0:00', '27/10/16 0:00', '27/11/15 0:00', '27/11/16 0:00', '28/01/16 0:00', '28/02/16 0:00', '28/04/16 0:00', '28/05/16 0:00', '28/06/16 0:00', '28/07/16 0:00', '28/08/16 0:00', '28/09/16 0:00', '28/10/16 0:00', '28/11/15 0:00', '28/11/16 0:00', '29/01/16 0:00', '29/02/16 0:00', '29/03/16 0:00', '29/04/16 0:00', '29/05/16 0:00', '29/06/16 0:00', '29/07/16 0:00', '29/08/16 0:00', '29/09/16 0:00', '29/09/17 0:00', '29/10/16 0:00', '29/11/15 0:00', '3', '3/01/16 0:00', '3/02/16 0:00', '3/03/16 0:00', '3/04/16 0:00', '3/05/16 0:00', '3/06/16 0:00', '3/07/16 0:00', '3/08/16 0:00', '3/09/16 0:00', '3/10/16 0:00', '3/11/16 0:00', '3/12/15 0:00', '30/01/16 0:00', '30/03/16 0:00', '30/04/16 0:00', '30/05/16 0:00', '30/06/16 0:00', '30/07/16 0:00', '30/08/16 0:00', '30/09/16 0:00', '30/10/16 0:00', '30/11/15 0:00', '30/11/16 0:00', '31/01/16 0:00', '31/03/16 0:00', '31/05/16 0:00', '31/07/16 0:00', '31/08/16 0:00', '31/10/16 0:00', '31/12/15 0:00', '4/01/16 0:00', '4/02/16 0:00', '4/03/16 0:00', '4/04/16 0:00', '4/05/16 0:00', '4/06/16 0:00', '4/07/16 0:00', '4/08/16 0:00', '4/09/16 0:00', '4/10/16 0:00', '4/11/16 0:00', '4/12/15 0:00', '4/12/16 0:00', '5/01/16 0:00', '5/02/16 0:00', '5/03/16 0:00', '5/05/16 0:00', '5/06/16 0:00', '5/07/16 0:00', '5/09/16 0:00', '5/10/16 0:00', '5/11/15 0:00', '5/11/16 0:00', '5/12/15 0:00', '5/12/16 0:00', '565711', '6/01/16 0:00', '6/02/16 0:00', '6/03/16 0:00', '6/04/16 0:00', '6/05/16 0:00', '6/06/16 0:00', '6/07/16 0:00', '6/08/16 0:00', '6/09/16 0:00', '6/10/16 0:00', '6/11/15 0:00', '6/11/16 0:00', '6/12/15 0:00', '6/12/16 0:00', '7/01/16 0:00', '7/02/16 0:00', '7/03/16 0:00', '7/04/16 0:00', '7/05/16 0:00', '7/06/16 0:00', '7/07/16 0:00', '7/08/16 0:00', '7/09/16 0:00', '7/10/16 0:00', '7/11/15 0:00', '7/11/16 0:00', '7/12/15 0:00', '8/01/16 0:00', '8/02/16 0:00', '8/03/16 0:00', '8/04/16 0:00', '8/05/16 0:00', '8/06/16 0:00', '8/07/16 0:00', '8/08/16 0:00', '8/09/16 0:00', '8/10/16 0:00', '8/11/15 0:00', '8/11/16 0:00', '8/12/15 0:00', '8/12/16 0:00', '9/01/16 0:00', '9/02/16 0:00', '9/03/16 0:00', '9/04/16 0:00', '9/05/16 0:00', '9/06/16 0:00', '9/07/16 0:00', '9/08/16 0:00', '9/09/16 0:00', '9/10/16 0:00', '9/11/15 0:00', '9/11/16 0:00', '9/12/15 0:00']</t>
         </is>
@@ -858,18 +903,26 @@
       <c r="P7" t="n">
         <v>4</v>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>Volvo V70</t>
-        </is>
-      </c>
-      <c r="R7" t="n">
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Skoda Octavia</t>
+        </is>
+      </c>
+      <c r="T7" t="n">
         <v>62425</v>
       </c>
-      <c r="S7" t="n">
+      <c r="U7" t="n">
         <v>147</v>
       </c>
-      <c r="T7" t="inlineStr">
+      <c r="V7" t="inlineStr">
         <is>
           <t>['0', 'Audi A3', 'Audi A4', 'Audi A6', 'BMW 316', 'BMW 318', 'BMW 320D', 'BMW 520', 'BMW 530D', 'Chevrolet Cruze', 'Chevrolet EPICA', 'Chevrolet Lacetti', 'Chevrolet Orlando', 'Chrysler Grand Voyager', 'Chrysler Voyager', 'Citroen Berlingo', 'Citroen Berlingo MSP', 'Citroen C3', 'Citroen C4', 'Citroen C5', 'Citroen C8', 'Citroen Dispatch', 'Citroen Picasso', 'Citroen Relay', 'Citroen Xsara', 'Dacia Logan', 'Dacia Sandero', 'Dacia Sandero Ambiance 1.5 dCi 90', 'Fiat Doblo', 'Fiat Doblo Automot Grp', 'Fiat Ducato', 'Fiat Eurocab', 'Fiat Scudo Panor MPV', 'Fiat TW 200', 'Ford C-Max', 'Ford Focus', 'Ford Galaxy', 'Ford Minibus', 'Ford Mondeo', 'Ford S-Max', 'Ford Tourneo', 'Ford Transit', 'Ford Transit 130', 'Honda Accord', 'Honda Civic', 'Hyundai 130', 'Hyundai 1800', 'Hyundai I40', 'Infiniti Q50 SE D', 'Jaguar X Type', 'Kia Ceed', 'Kia Optima', 'Kia Sedona', 'LDV 400', 'LDV 400 Convoy', 'LDV Maxus 120 LWB', 'LTI TXII', 'LTI TXIV', 'Lexus IS220D', 'Mazda 3TS2D', 'Mazda 6 S', 'Mazda 6TS2', 'Mercedes 208 Traveliner', 'Mercedes 220', 'Mercedes 515', 'Mercedes Ambiente', 'Mercedes C180', 'Mercedes C200', 'Mercedes C250', 'Mercedes E200', 'Mercedes E250D', 'Mercedes Sprinter', 'Mercedes Viano', 'Mercedes Vito', 'Mitsubishi Grandis', 'Mitsubishi Lancer', 'Nissan Almera', 'Nissan Note', 'Nissan Primera', 'Nissan Tiida', 'Peugeot 3008', 'Peugeot 307', 'Peugeot 308', 'Peugeot 407', 'Peugeot 508', 'Peugeot 807', 'Peugeot Bipper Tepee', 'Peugeot Boxer', 'Peugeot E7', 'Peugeot Euro 7', 'Peugeot Eurobus Plus', 'Peugeot European', 'Peugeot G9 E7 Euro', 'Peugeot Partner Combi', 'Peugeot Premier', 'Proton  Impian', 'Proton  Persona', 'Proton GLS', 'Proton Gen', 'Renault Espace', 'Renault Laguna', 'Renault Master', 'Renault Master T35', 'Renault Megane', 'Renault Scenic', 'Renault Traffic', 'Saab 9-5 VECTOR', 'Saab 93', 'Saab 95', 'Seat Alhambra', 'Seat Altea', 'Seat Exeo', 'Seat Leon', 'Seat Toledo', 'Skoda Fabia', 'Skoda Octavia', 'Skoda Rapid', 'Skoda Rooster', 'Skoda Superb', 'Skoda Yeti', 'Toyota Auris', 'Toyota Avensis', 'Toyota Avensis Verso', 'Toyota Corolla', 'Toyota Hiace', 'Toyota Prius', 'Vauxhall Astra', 'Vauxhall Insignia', 'Vauxhall Movano', 'Vauxhall Vectra', 'Vauxhall Vivaro', 'Volkswagen Caddy Maxi', 'Volkswagen Crafter', 'Volkswagen Golf', 'Volkswagen Jetta', 'Volkswagen LT35', 'Volkswagen Passat', 'Volkswagen Sharan', 'Volkswagen Shuttle', 'Volkswagen T-Sporter T30', 'Volkswagen Transporter', 'VolkswagenPhaeton', 'Volvo S40', 'Volvo S60', 'Volvo S80', 'Volvo V50', 'Volvo V70']</t>
         </is>
@@ -928,18 +981,22 @@
       <c r="P8" t="n">
         <v>4</v>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>YY64UMK</t>
-        </is>
-      </c>
-      <c r="R8" t="n">
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
+      <c r="T8" t="n">
         <v>32021</v>
       </c>
-      <c r="S8" t="n">
+      <c r="U8" t="n">
         <v>4599</v>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="V8" t="inlineStr">
         <is>
           <t>['0', '0Y60TGK', '24YAN', '579ASM', 'A17FLK', 'A17RYF', 'A17THR', 'A19BFR', 'A2AAR', 'A3YSX', 'A51FAD', 'A5EMK', 'A5YHA', 'A8BYD', 'A8KRM', 'AA08DPU', 'AA08HXW', 'AA54RRR', 'AA58GAR', 'AAH11L', 'AB08CWK', 'AB08NHH', 'AB08OWA', 'AB10BOS', 'AB10DUK', 'AB10SSS', 'AC08EHV', 'AC08ESV', 'AC08UKO', 'AC08VJP', 'AC08XSA', 'AD07BFF', 'AD07UFS', 'AD09FZJ', 'AD09KTF', 'AD09UXC', 'AD09ZDH', 'AD11CZX', 'AD59GZA', 'AD59GZH', 'AD59THK', 'AD59XKJ', 'AD59XNX', 'AE08AEH', 'AE08HUD', 'AE10MHM', 'AE55XYG', 'AE56DFY', 'AE56ECN', 'AE56RLY', 'AE57RYK', 'AE58YZH', 'AE58ZCK', 'AF02ALL', 'AF07XZD', 'AF09SGY', 'AF09UPY', 'AF09URW', 'AF09UTB', 'AF10JVU', 'AF10JWJ', 'AF10UDB', 'AF10XHS', 'AF11KNA', 'AF12GPV', 'AF12GPX', 'AF14SOA', 'AF55XMD', 'AF57VHL', 'AF57WPN', 'AF58EEZ', 'AF58EYJ', 'AF58MVO', 'AF58OWZ', 'AF58PCV', 'AF58ZKL', 'AF58ZLN', 'AF58ZWC', 'AF59OCE', 'AF59WWR', 'AF59XWZ', 'AF59XXL', 'AF59XYE', 'AF59YAU', 'AF59YBE', 'AF59YDL', 'AF59YEK', 'AF59YFD', 'AF59YFU', 'AF59YFX', 'AF59YOG', 'AF59YSD', 'AF59YUW', 'AF59YWB', 'AF59YWS', 'AF60TXS', 'AF60VCM', 'AF61HBC', 'AF63NTN', 'AFZ9811', 'AG07UPV', 'AG08HTJ', 'AG09BYC', 'AG09CXJ', 'AG09FMX', 'AG09FNH', 'AG09FTX', 'AG10XVE', 'AG58FTK', 'AG58OEV', 'AJ06ZYZ', 'AJ07KCE', 'AJ08AMC', 'AJ09GXG', 'AJ09GYY', 'AJ09SSO', 'AJ09SVW', 'AJ09TFX', 'AJ09WEU', 'AJ09XWL', 'AJ10RPX', 'AJ10UJO', 'AJ10UMV', 'AJ55AEZ', 'AJ55AFN', 'AJ56AFF', 'AJ57EUW', 'AJ57VPY', 'AJ58CPY', 'AJ58CVN', 'AJ59WPT', 'AJ59WYO', 'AK06NHD', 'AK06ZNS', 'AK07FNR', 'AK07NVC', 'AK09MWY', 'AK09MXG', 'AK09MXR', 'AK09NAE', 'AK09NFX', 'AK09NJU', 'AK09NKZ', 'AK09RWZ', 'AK09YJV', 'AK10CYV', 'AK10HNA', 'AK10NCN', 'AK10NCY', 'AK10WSN', 'AK10WSV', 'AK10WTE', 'AK11MBX', 'AK11XEM', 'AK11XWV', 'AK12MKF', 'AK14HTP', 'AK56FYM', 'AK58EDC', 'AK58EET', 'AK58EKW', 'AK58EMF', 'AK58HBB', 'AK58HBE', 'AK58HDO', 'AK58HFB', 'AK58HJU', 'AK59DLV', 'AK59DOJ', 'AK59VKL', 'AK60AEG', 'AK60FPT', 'AK60FPU', 'AK60WLZ', 'AK61RHZ', 'AL52STU', 'AM58HHX', 'AM58HWC', 'AM58JGX', 'AMA8N', 'AN57ARM', 'ANS333R', 'AO10FZW', 'AO10KCN', 'AO10TZN', 'AO11ABU', 'AO12XDT', 'AO55CFX', 'AO60KWV', 'AO61TXS', 'AP07DJX', 'AP08SOJ', 'AP63GRX', 'AR05HHH', 'AR07OVL', 'AT57MWX', 'AU07OAL', 'AV09UKR', 'AV11BVN', 'AV11EWM', 'AV11HTG', 'AV56LHF', 'AV58MYT', 'AV58OCE', 'AV61CXD', 'AV61DJO', 'AV61KTF', 'AX12HZK', 'AX60DVL', 'AY11XXD', 'AY56XNE', 'AY61WBU', 'B14NRS', 'B17NEE', 'B2LUS', 'B4TUO', 'B9YNP', 'BA04LAA', 'BAZ 2450', 'BD06WPN', 'BD07FFA', 'BD07PXJ', 'BD08XWA', 'BD10UFB', 'BD11URV', 'BD15SZJ', 'BD55KEU', 'BD57RNE', 'BD57VSJ', 'BD58BWL', 'BD58BWM', 'BD58DXW', 'BD58LKY', 'BD58UAK', 'BD59NWM', 'BD61BXF', 'BD62HZH', 'BEZ8249', 'BF08SKZ', 'BF08XFO', 'BF10FHA', 'BF10HBA', 'BF10HGO', 'BF12KYU', 'BF58HCV', 'BF58XMJ', 'BF60OJC', 'BF61HDX', 'BF61NWL', 'BG06KHY', 'BG07LGD', 'BG08GZC', 'BG08HRZ', 'BG08NXD', 'BG08YKB', 'BG09KJF', 'BG10ARU', 'BG10AYA', 'BG11EDU', 'BG11HMH', 'BG12FXU', 'BG14GVY', 'BG15XAO', 'BG55CYJ', 'BG56FSL', 'BG57RVU', 'BG58EDP', 'BG58KLE', 'BG60UOU', 'BG61ODX', 'BG62AAY', 'BH04BAR', 'BJ07FHF', 'BJ09TUU', 'BJ10AZN', 'BJ10CEA', 'BJ10JHU', 'BJ10UTP', 'BJ10WVY', 'BJ10ZNO', 'BJ11UKV', 'BJ11WYB', 'BJ12BVC', 'BJ57DDU', 'BJ58DMY', 'BJ58ECY', 'BJ58EFY', 'BJ58EMV', 'BJ58VKP', 'BJ58WYH', 'BJ59LRZ', 'BJ59PZB', 'BJ59XTO', 'BJ59ZGN', 'BJ59ZVF', 'BJ61DXB', 'BK07LBL', 'BK07XHF', 'BK08TXF', 'BK09KWB', 'BK10LMY', 'BK10TMY', 'BK10ZWF', 'BK11BVY', 'BK12WBE', 'BK57UPW', 'BK58DYC', 'BK58DZR', 'BK58YVZ', 'BK59BWM', 'BK60GZB', 'BK60GZE', 'BK60KBJ', 'BK60MYT', 'BK61ZXW', 'BK65YSG', 'BK65YSH', 'BL10EUV', 'BL10KSU', 'BL10MLF', 'BL11MHZ', 'BL11YMD', 'BL11ZHM', 'BL14EHE', 'BL14JXH', 'BL14YAV', 'BL15CCJ', 'BL55TXZ', 'BL56KVC', 'BL56VZT', 'BL57VLE', 'BN07GLF', 'BN09VTO', 'BN09YUL', 'BN10CUY', 'BN10GWX', 'BN10OTP', 'BN10OUL', 'BN10OWF', 'BN11NRE', 'BN57BVD', 'BN57FXD', 'BN57YJW', 'BN58ALU', 'BN58FAJ', 'BN58LCX', 'BN58XNT', 'BN59BGX', 'BN59NLX', 'BN59YLE', 'BN60DOA', 'BN60GDU', 'BN60JZA', 'BN60VPX', 'BN61KSK', 'BOO5SAG', 'BP07AHD', 'BP08EMK', 'BP08EXM', 'BP55XEM', 'BT07YMZ', 'BT08HJK', 'BT10CKV', 'BT11AJY', 'BT13ONU', 'BT57FMY', 'BT57HYX', 'BT57XKY', 'BT60HRE', 'BT60KWV', 'BT61HXM', 'BT61XTX', 'BU11TTZ', 'BU53UBW', 'BU63LDL', 'BV10CNU', 'BV10OYB', 'BV10OZE', 'BV10TKO', 'BV10XUN', 'BV10XZU', 'BV14KSY', 'BV53EMJ', 'BV56NBX', 'BV58NDG', 'BV58TKJ', 'BV58VGL', 'BV58YMW', 'BV60COH', 'BV60JNX', 'BV60MJX', 'BV60PZN', 'BV60ZWH', 'BV60ZWJ', 'BV60ZXR', 'BV60ZXT', 'BV61OYU', 'BW11AFY', 'BW11EWM', 'BW57GZP', 'BX08YEV', 'BX09MZG', 'BX09MZL', 'BX10ALO', 'BX10KMF', 'BX10LME', 'BX10LML', 'BX13YCF', 'BX58MUU', 'BX58OEK', 'BX58OEL', 'BX58OEP', 'BX58OHH', 'BX58OKJ', 'BX58ORA', 'BX58ORC', 'BX58PXY', 'BX59BZE', 'BX59CMY', 'BX59JLU', 'BX59PVT', 'BX59PWJ', 'BX60DVP', 'C18TCW', 'C5TTW', 'C654KEB', 'CA07OCS', 'CA10CKU', 'CA11SJK', 'CA58BYG', 'CA59FOU', 'CA59FPF', 'CA59FPP', 'CA59KGY', 'CE10LZN', 'CE12XTT', 'CE12ZHL', 'CE13XOX', 'CE58JNO', 'CE58NYD', 'CE58ULC', 'CE59YBN', 'CE60EVC', 'CE60EVW', 'CE60HPC', 'CE60YSN', 'CEZ786', 'CFZ6173', 'CH05JAT', 'CK06VKT', 'CK09WWV', 'CK57PWE', 'CK57SXJ', 'CK61KZT', 'CK61ZFS', 'CN57HVZ', 'CN58LWV', 'CN59ZCL', 'CP10OEC', 'CP15LVN', 'CP57OAD', 'CP61EFB', 'CRZ1871', 'CU09ZSP', 'CU58DWX', 'CV09DHM', 'CV10VMA', 'CV11UJZ', 'CV59EKZ', 'CV60NYY', 'CV61UCF', 'CV62MZE', 'CX59AJV', 'CY12FSG', 'CY60EWO', 'D17NYY', 'D17UDX', 'D1NYL', 'DA09MTK', 'DA10AAF', 'DA10EES', 'DA10GLY', 'DA10OHY', 'DA10VJY', 'DA10VJZ', 'DA10VKO', 'DA11GPZ', 'DA11JYR', 'DA13SXF', 'DA57AOV', 'DA59WCR', 'DA60NRN', 'DA61CPU', 'DA61ZCO', 'DAU400D', 'DC06CRF', 'DE07UUG', 'DE09ACV', 'DE09CLN', 'DE09TDU', 'DE10ECW', 'DE10GNZ', 'DE10OCV', 'DE10OCW', 'DE10ULA', 'DE10VZS', 'DE10YPP', 'DE10YXY', 'DE11EGK', 'DE12EHP', 'DE57WUB', 'DE58BAV', 'DE58HUP', 'DE58RKX', 'DE58YSF', 'DE59WYL', 'DE59WZB', 'DE60HCH', 'DE60KLJ', 'DE60OCX', 'DE60ONK', 'DE60PTZ', 'DE61DYC', 'DE61TFU', 'DF07LHG', 'DF09EKM', 'DF10FKT', 'DF11BXD', 'DF11HAA', 'DF11KSU', 'DF11LGO', 'DF11OHD', 'DF14KXT', 'DF61KFU', 'DF61PLZ', 'DG07EHD', 'DG07EZR', 'DG07FCO', 'DG07ZXJ', 'DG09MDO', 'DG09UEZ', 'DG09VGE', 'DG09YOE', 'DG09ZGK', 'DG10BSX', 'DG10OHC', 'DG10YFO', 'DG11AJU', 'DG11EHC', 'DG11KFT', 'DG12BHP', 'DG14XDE', 'DG55XFH', 'DG58AMV', 'DG58LVA', 'DG58VPV', 'DG59YFE', 'DG59YYT', 'DG60EDO', 'DG60EEH', 'DG60EEX', 'DG60EFR', 'DG60VMX', 'DG60VMY', 'DG60VUW', 'DG60ZDK', 'DG60ZFA', 'DG61ACX', 'DG61AEN', 'DG61CZW', 'DG61ZJO', 'DK09EKW', 'DK09WKE', 'DK09YOO', 'DK11ADO', 'DK12UVD', 'DK57YAH', 'DK58CPN', 'DK58UAY', 'DK58UWR', 'DK59XLS', 'DK60YZE', 'DK64KLM', 'DK64YDA', 'DL10GBU', 'DL10URY', 'DL10URZ', 'DL13ESV', 'DL63YVV', 'DN06EWH', 'DN07XRO', 'DN08AHO', 'DN08CCU', 'DN08MZF', 'DN09WTP', 'DN10JVH', 'DN12AXV', 'DN58DFX', 'DN58GOX', 'DN58PTU', 'DN62GWY', 'DN62GWZ', 'DO55SAJ', 'DP10NLN', 'DP10OCE', 'DP11PBV', 'DR54LYM', 'DRZ4161', 'DS08TWJ', 'DS09AKP', 'DS11AZC', 'DS56BAV', 'DS57JVH', 'DS57WMA', 'DS60HJD', 'DS60HTJ', 'DU08AZV', 'DU09PFE', 'DU10LRL', 'DU11FGV', 'DU11KLO', 'DU11VUT', 'DU12EFV', 'DU12NXZ', 'DU12RXV', 'DU13AOS', 'DU55TEO', 'DU56LSN', 'DU58FVX', 'DU58KJO', 'DU58KLJ', 'DU58TXH', 'DU58UOD', 'DU58YOG', 'DU60GYT', 'DU60HFN', 'DU60YMV', 'DU61EFN', 'DV05FYB', 'DV08NZU', 'DV10DTY', 'DV10KFC', 'DV11DVB', 'DV11TXY', 'DV11XUT', 'DV55UEK', 'DV56TSU', 'DV57NLO', 'DV57OAU', 'DV58TNF', 'DV58TVO', 'DV58UST', 'DV58UZG', 'DV58VJX', 'DV58XKB', 'DV58YVK', 'DV59CFY', 'DV59LNK', 'DV59NFT', 'DV59NWM', 'DV59WWL', 'DV60KCU', 'DX56SOE', 'DY05WMD', 'DY08SVO', 'DY09NUE', 'DY10AXO', 'DY10BUO', 'DY11EXV', 'DY11FKB', 'DY12VFL', 'DY57WRO', 'DY58GCZ', 'DY58GDV', 'DY58OFU', 'DY58SBV', 'DY60WPO', 'DY61HBZ', 'DY61MYV', 'DY62SZE', 'E2EET', 'E5TFA', 'EA07WVE', 'EA08OZX', 'EA10NMZ', 'EA10OKZ', 'EA11FNC', 'EA11WGO', 'EA59JZC', 'EA60AKG', 'EA60UPW', 'EA61NMK', 'EA62XGJ', 'EBR411M', 'EF10GSO', 'EF10GSV', 'EF10LUY', 'EF11AOC', 'EF11VRX', 'EF12EFL', 'EF12FNA', 'EF12FNC', 'EF12FNV', 'EF12FNW', 'EF56XKP', 'EF57FBY', 'EF57YVO', 'EF59DJV', 'EF59HKW', 'EF59OVM', 'EF59WGM', 'EF62VTD', 'EF62VTJ', 'EFZ7169', 'EJ07UCT', 'EJ07WPE', 'EJ10LBP', 'EJ11HXF', 'EJ11XHD', 'EJ12TGN', 'EJ58KRU', 'EJ60RYN', 'EJ60YFZ', 'EJ61FWY', 'EJ61HSL', 'EK07AHJ', 'EK07ERX', 'EK08ZVJ', 'EK08ZVX', 'EK11SPU', 'EK58LVJ', 'EK58RWY', 'EK59KZM', 'EK61YWS', 'EN10YTR', 'EN11JNL', 'EO05XWK', 'EO06WZJ', 'EO08UMY', 'EO08UNU', 'EO08UOE', 'EO09AOG', 'EO09AVX', 'EO10ETD', 'EO11LFM', 'EO11YLW', 'EO59GJG', 'EO59HLV', 'EO61AOS', 'EO62UEX', 'ET06GMG', 'ET07NYW', 'ET57JJF', 'EU09GDJ', 'EX07MJV', 'EX08SBU', 'EX09BXW', 'EX10AWZ', 'EX10UHK', 'EX10WTR', 'EX10ZXV', 'EX11GNU', 'EX13OXJ', 'EX13OXK', 'EX13OXR', 'EX13XER', 'EX13XFG', 'EX13XFH', 'EX57NPO', 'EX57OJL', 'EX58AOO', 'EX58EFJ', 'EX58FYS', 'EX60HFS', 'EX60LWJ', 'EX60ZVT', 'EX61LNF', 'EX61ZTP', 'EX62EDK', 'EX62VYW', 'EY08YDA', 'EY09PFO', 'EY11NJO', 'EY11UVH', 'EY13AOG', 'EY13AOJ', 'EY13JCZ', 'EY58LSL', 'EY58OGU', 'EY58UZW', 'EY59WXL', 'EY62HTE', 'EY62HTF', 'EY62HTG', 'EY62HTJ', 'F13RHN', 'F3LUR', 'F4ROK', 'FA06BZB', 'FA07AVK', 'FA11EYM', 'FAZ7186', 'FB57FLG', 'FD05TZM', 'FD06BUP', 'FD07RHO', 'FD08KYS', 'FD08KYY', 'FD08RVU', 'FD08YLX', 'FD08YVP', 'FD08ZBU', 'FD10 UTZ', 'FD10NAO', 'FD10RWE', 'FD10WWU', 'FD10YYT', 'FD11GOK', 'FD11MVW', 'FD11SVU', 'FD11UGP', 'FD11VUY', 'FD12BSX', 'FD12CJX', 'FD12KUY', 'FD12LFX', 'FD57JNO', 'FD57NUO', 'FD59DKK', 'FD59EWA', 'FD59OZH', 'FD59WNB', 'FD59ZFW', 'FD60GJG', 'FD60NCY', 'FD60UCU', 'FD61BXZ', 'FD61CEX', 'FD61LVK', 'FE06UPF', 'FE08JMX', 'FE08TZP', 'FE08WEP', 'FE08XFX', 'FE09EBP', 'FE09MZP', 'FE09MZX', 'FE09TXO', 'FE09XFT', 'FE10ABV', 'FE10LZC', 'FE10PYT', 'FE11SWJ', 'FE11XAY', 'FE11XRX', 'FE11ZXF', 'FE12 DYU', 'FE56FZN', 'FE56MHZ', 'FE57BOV', 'FE57HDZ', 'FE57HKN', 'FE57RSU', 'FE57YXN', 'FE58AOL', 'FE58BJV', 'FE58FMJ', 'FE58KNB', 'FE59LVF', 'FE59WOC', 'FE60KFR', 'FE60KNJ', 'FE60KZM', 'FE60NXG', 'FE60SZY', 'FE61AOB', 'FE61CWW', 'FE61DVU', 'FE61FFK', 'FE61VRT', 'FE61XRG', 'FE64TSX', 'FG06FHS', 'FG06LMO', 'FG07GHO', 'FG07KDJ', 'FG07KXL', 'FG08COJ', 'FG08YON', 'FG09CVK', 'FG09FFO', 'FG09JUO', 'FG09KVZ', 'FG09YBM', 'FG10 HNZ', 'FG10ERK', 'FG10OPL', 'FG10TVK', 'FG10UUT', 'FG11HXN', 'FG11MDY', 'FG11UPP', 'FG11UUH', 'FG12LGN', 'FG55VLW', 'FG56MWD', 'FG57KNF', 'FG57VZY', 'FG58CKY', 'FG58DVW', 'FG58EHT', 'FG58GJV', 'FG58JLU', 'FG58JOH', 'FG58JTV', 'FG58MXC', 'FG58MXV', 'FG58MZP', 'FG58NEU', 'FG58NHB', 'FG58NJJ', 'FG58OCA', 'FG58OPF', 'FG58UAA', 'FG58UFA', 'FG58UHN', 'FG58XCP', 'FG58XEH', 'FG58XGO', 'FG58XMW', 'FG58XTA', 'FG58XYR', 'FG59AJO', 'FG59JXE', 'FG59TJU', 'FG59UCX', 'FG59UTJ', 'FG60EHO', 'FG60JGZ', 'FG60OTM', 'FG60XBC', 'FG60ZFA', 'FG61CLZ', 'FG61UJX', 'FG61VLS', 'FG61WHZ', 'FG61YJE', 'FG62VXB', 'FG62XHN', 'FG62XPH', 'FG65HYN', 'FH06KXE', 'FH07CMU', 'FH07XAF', 'FH08RTX', 'FH10NOU', 'FH10VBZ', 'FH11BZY', 'FH11PKU', 'FH12NJU', 'FH12NWJ', 'FH12NWS', 'FH13BWB', 'FH13XYM', 'FH13YJP', 'FH57EEY', 'FH57KXM', 'FH64ZSJ', 'FH64ZSP', 'FH64ZST', 'FJ09HYO', 'FJ09WGY', 'FJ11VDR', 'FJ59EUM', 'FJ59MKA', 'FJ59YKP', 'FJ63ZHN', 'FL06VGT', 'FL06XGO', 'FL08HPE', 'FL08UYB', 'FL09MZG', 'FL09WCT', 'FL10DPN', 'FL10JWY', 'FL10OLJ', 'FL10ORH', 'FL11BFO', 'FL11LWP', 'FL11NZE', 'FL11TZA', 'FL11YON', 'FL12OGU', 'FL12OJV', 'FL57SXX', 'FL57THF', 'FL58DDU', 'FL58EAO', 'FL58EWJ', 'FL58EYG', 'FL58FAJ', 'FL58JHY', 'FL58KYY', 'FL58MTF', 'FL58PRX', 'FL58RMZ', 'FL58TFV', 'FL58UAU', 'FL58UKC', 'FL58WEK', 'FL58YLC', 'FL58YMR', 'FL58YRJ', 'FL59BAO', 'FL59BZS', 'FL59DYA', 'FL59ENP', 'FL59FDC', 'FL59KXP', 'FL59UBJ', 'FL60CXT', 'FL60DVM', 'FL60EUH', 'FL60LUY', 'FL60LVC', 'FL60ONN', 'FL60XKY', 'FL60ZYR', 'FL61JPX', 'FL61KBJ', 'FL61KCY', 'FL61VCZ', 'FM07CYG', 'FM08LCF', 'FM08PYO', 'FM08RXZ', 'FM10CPN', 'FM57CSX', 'FM64YVB', 'FN07LYG', 'FN08GZM', 'FN08UEL', 'FN08UZR', 'FN08VEA', 'FN08VTZ', 'FN08WBJ', 'FN08WDS', 'FN09JXA', 'FN09WYX', 'FN09XOZ', 'FN09YFY', 'FN09YLH', 'FN10HFC', 'FN10NHE', 'FN10OER', 'FN10OXG', 'FN11GVY', 'FN11LBF', 'FN11RUR', 'FN12KVV', 'FN12OTX', 'FN13ZDL', 'FN57ZGF', 'FN57ZKF', 'FN58HLH', 'FN58ZGU', 'FN59LHJ', 'FN59TYA', 'FN59VBB', 'FN59YSE', 'FN60UVU', 'FN60UWU', 'FN61KTF', 'FN61MKE', 'FN61ZFJ', 'FP06AXW', 'FP06HLX', 'FP06UAW', 'FP07LDD', 'FP08AZB', 'FP08RLO', 'FP08VRM', 'FP09EUD', 'FP09NUA', 'FP09VHR', 'FP09VPA', 'FP09ZPD', 'FP10BTO', 'FP10CAA', 'FP10EJV', 'FP10TDU', 'FP11BJO', 'FP11CAV', 'FP11EWX', 'FP11RZY', 'FP11TWA', 'FP11UVU', 'FP11XGS', 'FP12LJA', 'FP12WZB', 'FP55YWJ', 'FP56GSZ', 'FP58FEH', 'FP58GXU', 'FP58OGX', 'FP59DVJ', 'FP59UMS', 'FP59URH', 'FP59UZJ', 'FP60FGC', 'FP60OTA', 'FP60RZK', 'FP60VXC', 'FP60YHD', 'FP60ZPL', 'FP61EPF', 'FP62RHZ', 'FP62YRS', 'FR10EOK', 'FR10FVU', 'FR10FWT', 'FR10JDF', 'FR10JDJ', 'FR11CYS', 'FR11EZH', 'FR11HZC', 'FR11LYO', 'FR12VWU', 'FR13AAK', 'FR13AUL', 'FR13DVL', 'FR13JOA', 'FR13JRO', 'FR13OED', 'FR13OEY', 'FR13OFB', 'FR13OHV', 'FR13WVY', 'FR13XGS', 'FR13XGW', 'FR13XGZ', 'FR13XHC', 'FR13XHD', 'FR13XHE', 'FR13XHM', 'FR13XHU', 'FR13XJA', 'FR13XJF', 'FR13XJJ', 'FR13YPE', 'FR13YPL', 'FR13YSH', 'FR13YSN', 'FR13YSO', 'FR13YSP', 'FR13YSW', 'FRZ6836', 'FRZ6840', 'FRZ6841', 'FT08APV', 'FT10CVU', 'FT10GNF', 'FT10HVS', 'FT10HVW', 'FT10JSU', 'FT10JSV', 'FT10JSZ', 'FT10OCS', 'FT10ODC', 'FT10OEA', 'FT10OEB', 'FT10ZWW', 'FT11BHK', 'FT11FFU', 'FT11JUF', 'FT11TKE', 'FT12XDC', 'FT13WHD', 'FT13ZZR', 'FT60AOH', 'FT60PRX', 'FT60TCJ', 'FT61FVK', 'FT61FVL', 'FT61FVM', 'FT62CBU', 'FT62CBY', 'FT62CFG', 'FT62CFL', 'FT62CFM', 'FT62CFN', 'FT62CGO', 'FT62CKF', 'FT62CKG', 'FT62CKJ', 'FT62EYD', 'FT62EYF', 'FT62EYG', 'FT62EYH', 'FT62EYK', 'FT62EYM', 'FT62EYS', 'FT62EYU', 'FT62KFC', 'FT62KFF', 'FT62KFG', 'FT62KFJ', 'FT62KFK', 'FT62KFV', 'FT62KFY', 'FT62KGA', 'FT62KGE', 'FT62KGF', 'FT62KGJ', 'FT62KGK', 'FT62KGN', 'FT62KGP', 'FT62KGU', 'FT62KGZ', 'FT62KHA', 'FT62KHU', 'FT62KHW', 'FT62KHX', 'FT62KHZ', 'FT62KJA', 'FT62KJJ', 'FT62KMJ', 'FT62NPV', 'FT62NVY', 'FT62RUA', 'FT62RUO', 'FT62RUW', 'FT62RUY', 'FT63JDF', 'FT63PJY', 'FV07KMK', 'FV08CUY', 'FV08TFU', 'FV09HFN', 'FV09VSO', 'FV10DUH', 'FV10GUO', 'FV10GUW', 'FV10JCU', 'FV10JFN', 'FV10LVZ', 'FV10NXT', 'FV10WUM', 'FV10WWK', 'FV10XGB', 'FV10XMT', 'FV10XVW', 'FV10XWA', 'FV10XWD', 'FV10XXS', 'FV10XZX', 'FV10YPG', 'FV11YLF', 'FV12HKZ', 'FV12TXW', 'FV13WBD', 'FV13XWZ', 'FV15UVN', 'FV55NWS', 'FV56NXF', 'FV56OML', 'FV56RKJ', 'FV56WME', 'FV57LXG', 'FV58JSZ', 'FV59EOZ', 'FV59HZD', 'FV60LHY', 'FV60XWT', 'FV60XYE', 'FV60YCG', 'FV60YCH', 'FV60YCJ', 'FV60YCL', 'FV60YCM', 'FV61BZW', 'FV61CAX', 'FV61CFP', 'FV61CKU', 'FV61CKX', 'FV61CLU', 'FV61CLX', 'FV61DBO', 'FV61FDD', 'FV61FND', 'FV61SYX', 'FV61SZT', 'FV61THX', 'FV61TLJ', 'FV61TLN', 'FV61TOH', 'FV61TPZ', 'FV61TRZ', 'FV61TSX', 'FV61UJD', 'FV61UJG', 'FV61VBF', 'FV61XMD', 'FV62JWF', 'FV63AXY', 'FV63AYT', 'FV63MZE', 'FV63MZZ', 'FV63NBD', 'FV63WTY', 'FV63WUO', 'FV63WYS', 'FV63ZKB', 'FW13ACJ', 'FW13ACZ', 'FW13CZY', 'FW13FDU', 'FW13JOU', 'FX09GZZ', 'FX09ZFC', 'FX10GVR', 'FX10GVT', 'FX12EHN', 'FX57CYL', 'FX63BHF', 'FX63BKN', 'FX63DFN', 'FX63DLJ', 'FX63FAK', 'FX63MWY', 'FX65YJT', 'FY08LPF', 'FY09VOM', 'FY09WLP', 'FY09ZCU', 'FY10ZYE', 'FY11CPN', 'FY11GCF', 'FY11MVL', 'FY12OMS', 'FY12OZD', 'FY12OZK', 'FY12OZL', 'FY12OZM', 'FY12XAW', 'FY13WJK', 'FY13XPJ', 'FY15OPM', 'FY15OPW', 'FY55UFG', 'FY57LFZ', 'FY57PGU', 'FY58FOH', 'FY58KVM', 'FY59NLM', 'FY60NHC', 'FY60NHF', 'FY60PYD', 'FY60TNK', 'FY61KKX', 'FY61XHL', 'FY61XHP', 'FY62RGO', 'FY62UJM', 'FY62UJT', 'FY62USW', 'FY62UTT', 'FY62UTU', 'FY62UWK', 'FY62VJE', 'FY63EGX', 'FY63EHH', 'FY63EHP', 'FY63EJJ', 'FY63EJZ', 'FY63EVK', 'FY63EVL', 'FY63EVM', 'FY63EVV', 'FY63EWC', 'FY63FFT', 'G114FOR', 'G11CSC', 'G12ALY', 'G12EBS', 'G12JAR', 'G4HAK', 'GA04OOR', 'GC14AXX', 'GC14AYT', 'GC14EYX', 'GC14KAO', 'GC14KAU', 'GC14KAX', 'GC14OCS', 'GD07MLY', 'GD08TFE', 'GD10BHZ', 'GD14OLC', 'GD59HKX', 'GF06ELX', 'GF09XDV', 'GF10LHB', 'GF14DFG', 'GF14TEJ', 'GF14YLW', 'GF57OZO', 'GF59URG', 'GFZ5949', 'GJ08WXV', 'GJ09NOH', 'GJ10VNV', 'GJ12TZW', 'GJ14HNF', 'GJ14WMZ', 'GJ14WPK', 'GJ55FBC', 'GJ60BHY', 'GJ60PDX', 'GJ61BVG', 'GJ62LSY', 'GJ64HUZ', 'GK08WTR', 'GK09TXD', 'GK10XZX', 'GK11TFY', 'GK14GWP', 'GK14GZA', 'GK14GZD', 'GK14GZM', 'GK14LFM', 'GK14PTX', 'GK14PUH', 'GK14PVO', 'GK58UHT', 'GK61 SNJ', 'GL07FUH', 'GL08KTO', 'GL10ECF', 'GL12AHZ', 'GL14OSX', 'GL14OUH', 'GL14VTM', 'GL14VYO', 'GL14WXX', 'GL14XBM', 'GL14XDZ', 'GL14XFK', 'GL14XGY', 'GL55ARO', 'GL56SVG', 'GL59ETZ', 'GL59EUJ', 'GL59KYP', 'GL59ZKP', 'GL60EKC', 'GM14JHU', 'GM14XJC', 'GM14ZMO', 'GN07WGO', 'GN08EXE', 'GN08UTL', 'GN11KFL', 'GN12KSX', 'GN57AYC', 'GN57KWR', 'GN63HZB', 'GP08BVO', 'GP08VBL', 'GP56PEO', 'GP57JVV', 'GR07CWD', 'GU07BWM', 'GU07OAO', 'GU08KVO', 'GU09VRF', 'GU10OJK', 'GU10OMD', 'GU11FRZ', 'GU11LEE', 'GU11XEC', 'GU59JNJ', 'GU59XUJ', 'GV06EXR', 'GV06HNH', 'GV07EMJ', 'GV08BFA', 'GV08BGX', 'GV11GPU', 'GV11JVU', 'GV11LPE', 'GV11WBN', 'GV12AHZ', 'GV12KWH', 'GV13EES', 'GV58NMK', 'GV58ORG', 'GV59AEE', 'GV59GYD', 'GV60FRK', 'GV60OVM', 'GX63 GWZ', 'GY09YGE', 'GY11YSD', 'GY14OSD', 'GY56UTP', 'GY56ZYU', 'GY58FVD', 'GY59FXX', 'GY59ZPB', 'GY60ARU', 'GY60EOF', 'GY60YUW', 'GY61GPO', 'H13 LAA', 'H14AYN', 'H14UOK', 'H4NFF', 'H8CSC', 'HD06EJU', 'HF63BZW', 'HG07ZKN', 'HG09HTV', 'HG09XHR', 'HG10LFT', 'HG10WFR', 'HG11PSX', 'HG55SVJ', 'HG57FPJ', 'HG58OAO', 'HG58UGY', 'HG59OVF', 'HG59YWN', 'HG61NVV', 'HJ08VHM', 'HJ10HNC', 'HJ10VDO', 'HJ10ZSU', 'HJ57XUF', 'HJ58MVS', 'HJ58YFM', 'HJ59UUN', 'HJ60HKD', 'HJ60UNZ', 'HJ61VMH', 'HK10GRU', 'HK60HYZ', 'HK62GXR', 'HN08YWR', 'HN09DNV', 'HN09ETR', 'HN10OPV', 'HN10VNZ', 'HN56MJF', 'HN57ZTZ', 'HN58EFV', 'HN59NGV', 'HN59VLS', 'HN60KNP', 'HN60RZG', 'HN62MDZ', 'HN63YMR', 'HN63YYD', 'HT08HLR', 'HV06NDC', 'HV09LCL', 'HV10LBE', 'HV10XFR', 'HV11UME', 'HV11VEH', 'HV57ULP', 'HV58KMU', 'HV58UFB', 'HV58VPJ', 'HV58YBH', 'HV59FXU', 'HV59HFC', 'HV60LXK', 'HV63GZA', 'HW10HGN', 'HX06EZZ', 'HX57VGR', 'HY08SUA', 'HY08SXB', 'HY09OBH', 'HY09OBR', 'HY09OBW', 'HY11VLJ', 'HY60WHG', 'IEZ3184', 'J17 LYL', 'J2FMJ', 'J40VAD', 'J444VEO', 'J4VOD', 'J7RFY', 'J8NGK', 'J8WDD', 'JAV3D', 'JU03ARE', 'K12ERW', 'K15WJA', 'K18CSC', 'K19FAL', 'K1FYT', 'K1LYX', 'K20MRN', 'K44LYO', 'K4ESR', 'K4YAR', 'K786JRC', 'KA55EAM', 'KA57WJE', 'KC05NBX', 'KC57OCL', 'KE14KXY', 'KE55ARC', 'KE61WLD', 'KJ08YUF', 'KJ57WTF', 'KM07LTU', 'KM07MWJ', 'KM09KYV', 'KM09YVN', 'KM09YWA', 'KM11CZP', 'KM11OTV', 'KM11OTW', 'KM12WFZ', 'KM13OEY', 'KM13TWV', 'KM13WTT', 'KM57ELH', 'KM58KCV', 'KM58LYF', 'KM59OTW', 'KM60HFT', 'KM60VNF', 'KM61EZJ', 'KN09TZS', 'KN10FKV', 'KN11BHX', 'KN11FMJ', 'KN11LUL', 'KN55OXU', 'KN57BCO', 'KN58UEF', 'KN59NPZ', 'KN60XUZ', 'KN60XVA', 'KN61OUP', 'KP08DLY', 'KP09VYF', 'KP10ETF', 'KP10JGX', 'KP11AVU', 'KP11GKZ', 'KP11OCE', 'KP11XXF', 'KP13SYZ', 'KP13WCR', 'KP55WFC', 'KP58AXN', 'KP58KOD', 'KP58MKF', 'KP58OKN', 'KP60FPD', 'KP61YPV', 'KP62MYW', 'KR07YGP', 'KR08VUV', 'KR08YUT', 'KR10BDF', 'KR10KFA', 'KR10KFV', 'KR11FNU', 'KR11PPZ', 'KR12GJG', 'KR12MPY', 'KR13DTV', 'KR56OCW', 'KR57FHG', 'KR58FPG', 'KR58LTU', 'KR58LWY', 'KR59OPG', 'KS07OHU', 'KS08KJV', 'KS10KLA', 'KS56DMF', 'KS58JWC', 'KS58SGZ', 'KS59XTT', 'KS62WWT', 'KT08JYZ', 'KT08SYA', 'KU07USB', 'KU09KYS', 'KU09LJV', 'KU09TLN', 'KU09TPY', 'KU09TYV', 'KU09UWH', 'KU09WXV', 'KU10GDO', 'KU10HJO', 'KU10LLE', 'KU10RFF', 'KU11VXC', 'KU12KRV', 'KU12XTZ', 'KU12XVH', 'KU51HBU', 'KU59HKX', 'KU60HZT', 'KU60RYO', 'KU60RZB', 'KU60RZT', 'KU61UOO', 'KU61VMO', 'KV08XVZ', 'KV09MHK', 'KV09YZN', 'KV10WFP', 'KV10XVF', 'KV11LWS', 'KV11YHK', 'KV13XLU', 'KV13XLW', 'KV13XLX', 'KV13XLY', 'KV13XLZ', 'KV13XMA', 'KV13XMC', 'KV55JGO', 'KV55WTF', 'KV57UWX', 'KV57XCR', 'KV58WKC', 'KV59CKU', 'KV59EOL', 'KV59JJY', 'KV59JLX', 'KV59YAO', 'KV59YDP', 'KV59YKC', 'KV59ZDE', 'KV60GSO', 'KV61ATU', 'KV61EZH', 'KV61FHM', 'KV61FHN', 'KV61ZDF', 'KW08LSL', 'KW10 UKL', 'KW56CRJ', 'KX08SXE', 'KX12XUG', 'KX13YMR', 'KX13YNT', 'KX57BFP', 'KX57WFA', 'KX59BWA', 'KX59YFO', 'KX61WKU', 'KX61WTC', 'KX63NNW', 'KX63NNZ', 'KY09WFC', 'KY10HFV', 'KY10UFP', 'KY11MPF', 'KY12MKE', 'KY13YHA', 'KY14VLC', 'KY58EVX', 'KY58GKV', 'KY58OCP', 'KY58OFS', 'KY59VCO', 'KY61FSE', 'KY62MYW', 'KY64HMZ', 'KY64JWL', 'L12LAD', 'L17KKO', 'L19KRT', 'L33DSY', 'L44DAU', 'L5 LBA', 'LA07LZE', 'LA10FBF', 'LA12HYY', 'LB05FCD', 'LB07BMV', 'LB11RXC', 'LB11YMF', 'LB55BBU', 'LB57KZP', 'LB58GYX', 'LC06WHD', 'LC08ZDA', 'LC10EWM', 'LC10XYD', 'LC11FNT', 'LC58PMY', 'LC59YFG', 'LC60OXU', 'LC60ULA', 'LC61OGM', 'LD07URR', 'LD09ZDV', 'LD11 BRF', 'LD11DHV', 'LD11EDX', 'LD11VFN', 'LD55EPF', 'LD57 HVM', 'LD58TYH', 'LD59HWZ', 'LD60JVY', 'LD60TMZ', 'LD60TTE', 'LD61HGN', 'LE57JZU', 'LF11UZJ', 'LG05XYW', 'LG10KFL', 'LG11FGA', 'LG12KXN', 'LG59KNV', 'LG60BVP', 'LG61FKX', 'LG61OCM', 'LG61ZUC', 'LJ09HNX', 'LK06FXW', 'LK07AOX', 'LL08OGZ', 'LL09JHJ', 'LL10RDX', 'LL10VLP', 'LL10YMG', 'LL11ZRP', 'LL58FJZ', 'LL58RWJ', 'LL59JUE', 'LM06GNK', 'LM07EKF', 'LM07TZU', 'LM07VYP', 'LM09RKO', 'LM11HSL', 'LM11LXT', 'LM11ZNR', 'LM57BWW', 'LM57BYH', 'LM57CBF', 'LM57RBV', 'LM57TTU', 'LM58EFX', 'LM58UFN', 'LM59YKA', 'LM59ZYG', 'LN09OGT', 'LN09WPZ', 'LN11VJO', 'LN55OBM', 'LN58XSC', 'LN59XTK', 'LN60UEJ', 'LN60VPJ', 'LN60WML', 'LN60XWB', 'LN60XXM', 'LN61RBV', 'LN61WUK', 'LO10VKW', 'LO10VTZ', 'LO11FFW', 'LO12KTG', 'LO12UJG', 'LO59WNU', 'LO61DXZ', 'LO61NCZ', 'LO61OWC', 'LP10HGU', 'LP11BNN', 'LP11OJK', 'LP59OUD', 'LP60CKV', 'LP62HPK', 'LR07FGP', 'LR09JXT', 'LR09JYE', 'LR09NLX', 'LR09YUH', 'LR10LKG', 'LR10LXL', 'LR10SOA', 'LR12MEU', 'LR13ULC', 'LR56WUE', 'LR58CYS', 'LR59FRZ', 'LS05CXZ', 'LS06NRE', 'LS06NVA', 'LS07BTX', 'LS07CLV', 'LS07GJO', 'LS08NDC', 'LS09LXT', 'LS09VVM', 'LS09WKJ', 'LS10GNP', 'LS10NPV', 'LS10XVB', 'LS11DTX', 'LS11HFR', 'LS11HZW', 'LS11ONH', 'LS15FZP', 'LS55NMX', 'LS57AHP', 'LS57TGX', 'LS58KHD', 'LS58KHG', 'LS59ADV', 'LS59ADX', 'LS59WHC', 'LS60AFJ', 'LS60PGZ', 'LT05NUP', 'LT06UEM', 'LT10OMF', 'LT11RJU', 'LT12MPY', 'LT55GCU', 'LT56PJT', 'LT57SRZ', 'LT57TYA', 'LT57XVG', 'LT58TYG', 'LT59FDF', 'LT59JJZ', 'LT60AZF', 'LT61JJO', 'LT61LXY', 'LT61MKC', 'LT61ZPN', 'LV57UNY', 'LV60VJK', 'LV61XKP', 'LX09BHN', 'LX10BYC', 'LX11RKE', 'LX12XPH', 'LX57UYD', 'LY08FVD', 'LY59CXM', 'M111BUB', 'M11EHR', 'M12HAK', 'M14NRH', 'M16RAR', 'M17BBE', 'M22UBX', 'M3HWY', 'M444OLA', 'M600SEN', 'M777SAJ', 'M77GUL', 'M80ASF', 'M999NYX', 'MA07ZCK', 'MA08FMV', 'MA09KVD', 'MA09KVF', 'MA09RYB', 'MA09SYT', 'MA09SYU', 'MA09ZDY', 'MA10CZO', 'MA10LHN', 'MA10LKV', 'MA11VLU', 'MA11XLJ', 'MA11ZLU', 'MA11ZPO', 'MA12VZS', 'MA15YHJ', 'MA15YHL', 'MA15YHN', 'MA15YHO', 'MA15YHP', 'MA15YHR', 'MA55UDX', 'MA56AFY', 'MA57OKU', 'MA57WVO', 'MA58EYC', 'MA58KHR', 'MA58VRN', 'MA59ACF', 'MA59DYT', 'MA59FGD', 'MA59XDY', 'MA60BXE', 'MA60BXO', 'MA60NFF', 'MA60NVX', 'MA60WGV', 'MA60WWY', 'MA61NGJ', 'MA61OFD', 'MA61WYL', 'MA61ZSL', 'MA63FZP', 'MA63FZR', 'MA64VMZ', 'MAB5S', 'MC61AYU', 'MD06MXV', 'MD06MYG', 'MD14AUO', 'MD57YDN', 'MD64SGX', 'MD64SGY', 'MD64SGZ', 'MD64SJU', 'MD64SJX', 'MF08CGZ', 'MF08HUV', 'MF08UXZ', 'MF09BJE', 'MF09BKE', 'MF09RVO', 'MF10LFN', 'MF10LFP', 'MF11OJL', 'MF11OXH', 'MF11XFD', 'MF12BVU', 'MF12ROU', 'MF12SFE', 'MF12TXM', 'MF12UZB', 'MF56NBO', 'MF57FBG', 'MF58AOZ', 'MF59JHY', 'MF59UVT', 'MF59VAO', 'MF59WYZ', 'MF59WZC', 'MF59YBS', 'MF60HCK', 'MF60HNG', 'MF60MJX', 'MF60OEH', 'MF60TPV', 'MF60TTV', 'MF60TUH', 'MF63UCC', 'MF64ETT', 'MF64FSX', 'MF64SHJ', 'MF65GRK', 'MJ07OHH', 'MJ08WGC', 'MJ10MDE', 'MJ10WVZ', 'MJ10YYM', 'MJ11KKN', 'MJ11OUE', 'MJ11SJY', 'MJ11XCD', 'MJ12CPX', 'MJ12VJK', 'MJ14FRD', 'MJ15XVN', 'MJ58SWW', 'MJ58XET', 'MJ59ECN', 'MJ59UUE', 'MJ59UUZ', 'MJ60ECA', 'MJ60OSD', 'MJ60PUU', 'MJ60YGL', 'MJ62OTR', 'MJ62RYR', 'MJ64KKM', 'MJ64KKN', 'MJ64KLC', 'MJ64KLE', 'MK05UFP', 'MK08HGD', 'MK08JWC', 'MK08LKG', 'MK09BZS', 'MK09EFR', 'MK09KVA', 'MK09OFG', 'MK10XSR', 'MK11CUU', 'MK12BNX', 'MK13YEC', 'MK13YEF', 'MK13YEU', 'MK13YTU', 'MK55KTD', 'MK58VBE', 'MK58VHL', 'MK58WHJ', 'MK59AGU', 'MK59AHA', 'MK59ZPU', 'MK60GGA', 'MK60MBU', 'MK60OCX', 'MK61VGC', 'MK61YWT', 'ML08EPY', 'ML08FXE', 'ML08YPK', 'ML10ODK', 'ML10OKR', 'ML11EZH', 'ML11TBZ', 'ML11UZM', 'ML12UWD', 'ML13OXC', 'ML14TXY', 'ML14TXZ', 'ML14TYZ', 'ML56DKD', 'ML57XYR', 'ML58HGG', 'ML58WCR', 'ML58ZHB', 'ML59DZZ', 'ML59MTF', 'ML59UVS', 'ML60BUV', 'ML61FBX', 'ML61SUY', 'ML62AEA', 'ML63UJM', 'ML63UJN', 'ML63UJO', 'ML63UJP', 'ML63UJR', 'ML63UJS', 'ML63UJT', 'ML63UJU', 'ML63UJV', 'ML63UJW', 'ML63UJY', 'ML63UJZ', 'ML63UKA', 'ML63UKB', 'ML64BVJ', 'ML64BVR', 'ML64OTZ', 'ML64UMC', 'ML64UMK', 'MM06FFV', 'MM08LUL', 'MM08VLD', 'MM12OXL', 'MM14GYA', 'MM14GYB', 'MM14GZA', 'MM15BCU', 'MM15KPG', 'MM15KRN', 'MM15KUV', 'MM15KUW', 'MM15KUX', 'MM15KUY', 'MM15KVA', 'MM15KVB', 'MM15KVC', 'MM57AWH', 'MM63VDP', 'MM63VEP', 'MM63XTG', 'MM64KWB', 'MM64KXF', 'MM64ZDV', 'MM64ZGC', 'MR02NAS', 'MS08AAN', 'MT05JUX', 'MT07GOU', 'MT07HRN', 'MT08LRO', 'MT08TWK', 'MT08YTA', 'MT09CTE', 'MT09LNM', 'MT09UTV', 'MT09XKL', 'MT10KPU', 'MT11CWF', 'MT11EDK', 'MT11FPY', 'MT11RCO', 'MT12NVF', 'MT57MKE', 'MT57OKZ', 'MT58DWX', 'MT59ZRN', 'MT60XSC', 'MT61DBZ', 'MT61EOY', 'MT61OVL', 'MT61OVW', 'MT61OWC', 'MT62NUE', 'MT62NUF', 'MT62NUH', 'MT64RZC', 'MT64XCP', 'MV07OUY', 'MV07VHK', 'MV08FAF', 'MV08UGS', 'MV09YPR', 'MV09YTM', 'MV10HYN', 'MV10JBZ', 'MV10JFN', 'MV10JHF', 'MV10VTZ', 'MV10WEU', 'MV11UVP', 'MV11UWO', 'MV11VJC', 'MV11XVC', 'MV14UTO', 'MV14UTX', 'MV14UTY', 'MV53AKX', 'MV56MYG', 'MV58YCN', 'MV59KEK', 'MV59LHU', 'MV59SWU', 'MV59WOM', 'MV60KHJ', 'MV60ORX', 'MV60TSX', 'MV61HXA', 'MV61JBX', 'MV61JCU', 'MV61JZC', 'MW09CLO', 'MW10KNZ', 'MW10VYP', 'MW10YLF', 'MW10YPM', 'MW11UGO', 'MW15PWU', 'MW56ZVD', 'MW57HCJ', 'MW57OOG', 'MW60HNB', 'MW61RMY', 'MW62XTK', 'MX05XTT', 'MX07RNO', 'MX08HMJ', 'MX13VYT', 'MX13VYU', 'MX59HXE', 'MX61JDO', 'MX65XCH', 'N13DSY', 'N17BBA', 'N17DYN', 'N17VYD', 'N3HYM', 'N40EMJ', 'N44BYG', 'N4BYG', 'N800WAS', 'NA05VUT', 'NA08VLD', 'NA09FCU', 'NA09FSG', 'NA09FVC', 'NA09MHF', 'NA09UBH', 'NA09UEX', 'NA09VPW', 'NA10BNZ', 'NA10FZW', 'NA10HGE', 'NA10KCJ', 'NA10WHV', 'NA11EKP', 'NA11TJV', 'NA59ONM', 'NA60RWF', 'NA60RXN', 'NA60SGV', 'NA60VNT', 'NA60YYK', 'NA61FUO', 'NC08KGY', 'NC08XUT', 'NC55YFK', 'NC56WDP', 'NC56YMA', 'NC58BFU', 'NC58HYZ', 'NC58MLF', 'ND08PBU', 'ND08PGV', 'ND09KZB', 'ND09ULW', 'ND09ZNS', 'ND10BGF', 'ND10FFS', 'ND10FHS', 'ND10GWF', 'ND10KOV', 'ND10LJF', 'ND10NXG', 'ND10WTG', 'ND10XBR', 'ND11CHY', 'ND11EHG', 'ND11EHJ', 'ND11WKS', 'ND55PVT', 'ND59NVE', 'ND59SWY', 'ND59SXH', 'ND59TVX', 'ND59WUU', 'ND60MHM', 'ND60OGS', 'ND60OGT', 'ND60RSV', 'ND64CPF', 'NG07FYS', 'NG08WJX', 'NG09BHD', 'NG09GXV', 'NG09HUK', 'NG09LLD', 'NG09RCV', 'NG10DJD', 'NG10DZV', 'NG10LCF', 'NG11RHY', 'NG12DXP', 'NG12HFH', 'NG57TFA', 'NG57VXC', 'NG58KMA', 'NG58LWR', 'NG58NBE', 'NG58XHD', 'NG59RBV', 'NG60EHO', 'NG62GZV', 'NH07EUD', 'NH08OKO', 'NH57OVY', 'NH58AGV', 'NJ08AOO', 'NJ08AOP', 'NJ08ASV', 'NJ09OLE', 'NJ10GJG', 'NJ10XWO', 'NJ12KHP', 'NJ13DMU', 'NJ14WFB', 'NJ14WFC', 'NJ56PNF', 'NJ59NUP', 'NJ59RUV', 'NJ59XZG', 'NJ59XZU', 'NJ60LWL', 'NJ60YEB', 'NJ61KZA', 'NJ61PXG', 'NJ61XXE', 'NJ62HKO', 'NJ63HUY', 'NJ63HVA', 'NJ63HVB', 'NJ63HVF', 'NJ64WDV', 'NK08BZX', 'NK08HCZ', 'NK08KTN', 'NK09BAU', 'NK09DHN', 'NK10EBP', 'NK10FYA', 'NK57FZA', 'NK57FZF', 'NK58DXH', 'NK58EKC', 'NK58EKH', 'NK58GHD', 'NK59ATN', 'NK59AUN', 'NK59AUT', 'NK59AUU', 'NK59CDZ', 'NK59DZD', 'NK59FXL', 'NL07HXB', 'NL07JWG', 'NL07JXF', 'NL09DVR', 'NL09XHG', 'NL10WSJ', 'NL11VTG', 'NL12WMJ', 'NL13FXY', 'NL14AXS', 'NL14JCV', 'NL55CLF', 'NL58NWY', 'NL59HBH', 'NL59XUN', 'NL60BUU', 'NL60BVA', 'NL60KXP', 'NL60KXU', 'NL60KYB', 'NL60KYN', 'NL60OEV', 'NL60WTZ', 'NL60YOA', 'NL60YOE', 'NL60YOY', 'NL61DVY', 'NL61JZF', 'NL61XOH', 'NL61XOM', 'NL64LSN', 'NM07FUP', 'NM08LZP', 'NNZ3712', 'NU10DLK', 'NU11APX', 'NU11NMJ', 'NU11PYW', 'NU12FOM', 'NU12LHL', 'NU12UNV', 'NU57XKE', 'NU58WTM', 'NU59OBX', 'NU60AFJ', 'NU60FYH', 'NU60GXG', 'NU60JPX', 'NU60YKD', 'NU62DVP', 'NU62DVW`', 'NU62NZF', 'NU62NZX', 'NU62YJR', 'NV05OYS', 'NV05PKE', 'NV05UVG', 'NV08HME', 'NV09BNB', 'NV09MXG', 'NV10BDE', 'NV10VCA', 'NV11JUH', 'NV56AOH', 'NV56KVR', 'NV57LNW', 'NV59BKL', 'NV59PYL', 'NV61GUX', 'NV61KPX', 'NV61MDY', 'NV62DND', 'NX08GGY', 'NX10RVZ', 'NX12UST', 'NX13UFL', 'NX13UFU', 'NX58RMO', 'NX59RVY', 'NX62 UKG', 'NY05KDU', 'NY08DGZ', 'NY10FCZ', 'OE06AXD', 'OE07JUT', 'OE07OBV', 'OE08YSW', 'OE09LSD', 'OE09OCJ', 'OE09SNY', 'OE09USH', 'OE09YDJ', 'OE10DVW', 'OE10RFL', 'OE11AXW', 'OE11EKO', 'OE11HBH', 'OE11MHA', 'OE11OAZ', 'OE55KKC', 'OE57VPZ', 'OE60SLU', 'OFZ4157', 'OO04YAT', 'OU60WCE', 'OV06TZP', 'OV08UGO', 'OV09JYK', 'OV09JYT', 'OV09JZF', 'OV09JZJ', 'OV10AKN', 'OV10JUT', 'OV10LFU', 'OV10MWL', 'OV10NDF', 'OV10NMJ', 'OV11UZU', 'OV11XGP', 'OV11XGZ', 'OV11XHB', 'OV12NXW', 'OV12OAB', 'OV55NFF', 'OV57JYS', 'OV57PKY', 'OV57XUT', 'OV58LPJ', 'OV58LPU', 'OV59GVN', 'OV59KWE', 'OV60GEJ', 'OV60KDK', 'OV60NZP', 'OV60TXP', 'OV60TYA', 'OV60WWL', 'OV61KLU', 'OV61OZA', 'OY06VZE', 'OY07SOJ', 'OY08FKP', 'OY08TZX', 'OY08XVS', 'OY09BKV', 'OY09EWL', 'OY10AEA', 'OY10AOA', 'OY10HDL', 'OY10HWH', 'OY10OZB', 'OY10UFV', 'OY11NZM', 'OY11VHN', 'OY12LFV', 'OY12OHW', 'OY12SMU', 'OY13MYB', 'OY13NFK', 'OY14CWA', 'OY14UWB', 'OY56BLJ', 'OY57AOK', 'OY58NXP', 'OY58PXR', 'OY58PXS', 'OY59AVW', 'OY59KCZ', 'OY59TYS', 'OY60DWL', 'OY60DWX', 'OY60DYM', 'OY60EFH', 'OY60FLE', 'OY60LFN', 'OY60MZN', 'OY60PSX', 'OY60PVA', 'OY60TGE', 'OY60TKF', 'OY60TKJ', 'OY61BYH', 'OY62HWO', 'P14GAF', 'P999SOC', 'PE08GVD', 'PE08SXD', 'PE11HYS', 'PE11LHG', 'PE12UNS', 'PE14HRC', 'PE14NYG', 'PE58JKJ', 'PE58RCO', 'PE59PHF', 'PE60XGS', 'PEZ7364', 'PEZ7365', 'PF07MOU', 'PF07OJL', 'PF08HVN', 'PF08KVR', 'PF09UNU', 'PF10ZFE', 'PF57RWW', 'PF59LYJ', 'PF63TVC', 'PF63TVD', 'PF63TVE', 'PJ06WXE', 'PJ08KGP', 'PJ08ZTM', 'PJ09CKV', 'PJ09GEU', 'PJ10CMO', 'PJ10OLB', 'PJ10YTF', 'PJ13ZNZ', 'PJ55YRC', 'PJ56RYM', 'PJ57FHL', 'PJ58FLM', 'PJ58FSN', 'PJ60KCK', 'PK06SXL', 'PK09OSU', 'PK11BHW', 'PK11BHY', 'PK11KWD', 'PK11WXN', 'PK57BVP', 'PK58DWN', 'PK58LHU', 'PK58ULS', 'PK58WPJ', 'PK58YYE', 'PK59AXW', 'PK59EYO', 'PK59KFF', 'PK60OEE', 'PK60UCT', 'PK61JVG', 'PK62XTX', 'PL07FWG', 'PL08LHZ', 'PL09GXT', 'PN09FXL', 'PN11ZFM', 'PN12NLO', 'PN14CKL', 'PN14LJK', 'PN15BCU', 'PN57JUA', 'PN58NPZ', 'PN58YGG', 'PN59MVV', 'PN60XJP', 'PN60XNO', 'PN62LLK', 'PN62UNH', 'PO12ZVF', 'PO12ZVG', 'PO56YVW', 'PO58KMV', 'PO58PBZ', 'PO60BMY', 'PO60DYB', 'PO60JBY', 'PO61WSD', 'PX07PLN', 'PX08HTP', 'PX09YWU', 'PX09YWZ', 'PX11XMD', 'PX12PDY', 'PX13VUH', 'PX56VVT', 'PX57GXR', 'PX57UZD', 'PX58TCJ', 'PX59RBV', 'PX59RFN', 'PX59RGO', 'PX59XDC', 'PX60TEU', 'PX60WPK', 'PX64NKR', 'PY07KUB', 'PY09HFG', 'PY09MFK', 'PY10BHU', 'PY10FKM', 'PY58AGZ', 'PY58BZH', 'PY58CYA', 'PY58FVT', 'PY59AVT', 'PY59CVB', 'PY59JUU', 'PY59LWT', 'PY59NPV', 'PY60APU', 'PY60HTP', 'R100PYL', 'R22ULY', 'R2AMX', 'R444ESS', 'R444OUF', 'R4EDM', 'R9SHF', 'RA06HGE', 'RA08MDU', 'RA08TOU', 'RA57HWK', 'RA57PCO', 'RA57WGV', 'RA57YPC', 'RAM24N', 'RDC 349', 'RE07WVL', 'RE09AZL', 'RE09HFD', 'RE09YKX', 'RE10SLZ', 'RE10UTU', 'RE11HBL', 'RE12HGD', 'RE58AZV', 'RE58EZD', 'RE58NXO', 'RE58VKD', 'RE58VKV', 'RE58VNJ', 'RE58VNW', 'RE58VVR', 'RE59WKG', 'RE59XJV', 'RE60CLY', 'RE60DUY', 'RE60EKJ', 'RE60WFV', 'RE60WFY', 'RE60YYX', 'RE61AZP', 'RE61LPY', 'RE62UJS', 'RF08BXE', 'RF08XHD', 'RF09FZS', 'RF11DXB', 'RF57BGU', 'RF57SXW', 'RF58LUY', 'RF58WXD', 'RF59CEK', 'RF59UGN', 'RH51HAD', 'RJ07FUF', 'RJ07LZG', 'RJ08LGC', 'RJ08NRL', 'RJ08ZZA', 'RJ09WLU', 'RJ10CHY', 'RJ10EUD', 'RJ10NUY', 'RJ10USM', 'RJ10ZCO', 'RJ11NSV', 'RJ11PBF', 'RJ11RWY', 'RJ12PVN', 'RJ57NSK', 'RJ57PXF', 'RJ57XOH', 'RJ57XOK', 'RJ58DVR', 'RJ58GYZ', 'RJ59OZN', 'RJ59VLR', 'RJ60GXX', 'RJ60MXM', 'RJ60TRV', 'RJ60TSX', 'RJ62JXP', 'RK06VUD', 'RK06YMV', 'RK07SCX', 'RK08YML', 'RK09ULV', 'RK09UMS', 'RK09ZFC', 'RK10XKY', 'RK11URY', 'RK11UUG', 'RK11VTU', 'RK12PXH', 'RK55YGO', 'RK55YKN', 'RK55YMM', 'RK57ODR', 'RK57ODV', 'RK58WXS', 'RK59YUG', 'RK60YXV', 'RK60YXZ', 'RK61YYT', 'RK62UHP', 'RO09OAW', 'RO09OYK', 'RO10CJE', 'RO11MVX', 'RO11VBU', 'RO13SJU', 'RO13ZXK', 'RO56EDF', 'RO56HHJ', 'RO56HHS', 'RO56OUU', 'RO56YUW', 'RO60CCE', 'RO60GZZ', 'RO60RHV', 'RO60WGG', 'RO60ZBG', 'RO61RKX', 'RV09FKU', 'RV10RYU', 'RV10XZZ', 'RV14EGJ', 'RV60AWJ', 'RV60BZM', 'RV60UNP', 'RV60UXH', 'RV60YWT', 'RV61UVT', 'RX59HHS', 'RY57GZZ', 'S11FKT', 'S11LDD', 'S11YDM', 'S12BPD', 'S1MDV', 'S27CWY', 'S29SUR', 'S2LTN', 'S33 PJD', 'S40AFF', 'S4JVK', 'S6GHR', 'S77AYD', 'S7KYG', 'S999MRX', 'SA04RAZ', 'SA08KUY', 'SA08WCE', 'SA08WCF', 'SA09DXK', 'SA10WEC', 'SA11UDX', 'SA12UAY', 'SA57PKZ', 'SA57XCG', 'SA57YHK', 'SA58GPE', 'SA58GPF', 'SA58GPJ', 'SA58GPK', 'SA58KWS', 'SA58NVU', 'SA58UAB', 'SA58ZBJ', 'SA59FUV', 'SA60EOG', 'SA60MYX', 'SA61ZDM', 'SA62GJX', 'SA64AUY', 'SAB741N', 'SAG111R', 'SB05VKM', 'SB06NNC', 'SB06YCF', 'SB07FJA', 'SB07UDL', 'SB08KFX', 'SB08NPV', 'SB08NVV', 'SB08NVX', 'SB08OLM', 'SB09CKP', 'SB09JBV', 'SB09WTR', 'SB10CHL', 'SB10JYE', 'SB14AXT', 'SB14LXP', 'SB56DWK', 'SB56FZF', 'SB56TVX', 'SB57DZP', 'SB57LHO', 'SB57LYP', 'SB58JUA', 'SB59ZXD', 'SB60DFO', 'SB61LCU', 'SB61LCV', 'SB61UZE', 'SB61VLW', 'SB62VLY', 'SC08FFA', 'SC08KJA', 'SC08KJE', 'SC14EXE', 'SC15VLD', 'SC54GRK', 'SC55LLD', 'SC57BSX', 'SC57EBK', 'SC57FLG', 'SC60CSX', 'SC60CSZ', 'SD05HCU', 'SD07MYP', 'SD07NCX', 'SD08KGV', 'SD08UVN', 'SD09VKT', 'SD10EYU', 'SD10LZG', 'SD10LZV', 'SD11GUW', 'SD11VJJ', 'SD12MBY', 'SD13FLP', 'SD14UZV', 'SD56YBK', 'SD57LDZ', 'SD57XVL', 'SD57ZYJ', 'SD59GWX', 'SD59KYX', 'SD59RZX', 'SD59UWV', 'SD60DLF', 'SD60NHF', 'SD60OZU', 'SD60PBO', 'SD60YFK', 'SD61VTJ', 'SD63DPN', 'SD63EFC', 'SD63EHJ', 'SD63ENC', 'SD63EPK', 'SD63FTJ', 'SD63FTP', 'SD63FWZ', 'SE07ETR', 'SE07EUF', 'SE07MJF', 'SE07TOU', 'SE07UHD', 'SE07UZF', 'SE08EDX', 'SE08MWU', 'SE08MXG', 'SE08UHV', 'SE08UJB', 'S</t>
         </is>
@@ -998,18 +1055,26 @@
       <c r="P9" t="n">
         <v>29</v>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>white</t>
-        </is>
-      </c>
-      <c r="R9" t="n">
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr">
+        <is>
+          <t>BLACK</t>
+        </is>
+      </c>
+      <c r="T9" t="n">
         <v>23010</v>
       </c>
-      <c r="S9" t="n">
+      <c r="U9" t="n">
         <v>83</v>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="V9" t="inlineStr">
         <is>
           <t>['134', '197', '29', '64', 'ARCTIC STEEL', 'B &amp;  W', 'B &amp; W', 'B / W', 'B&amp; W', 'B&amp;W', 'B/ W', 'B/W', 'B/White', 'B/w', 'BEIGE', 'BKLACK/WHITE', 'BLACK', 'BLACK &amp; WHITE', 'BLACK &amp;WHITE', 'BLACK&amp; WHITE', 'BLACK&amp;WHITE', 'BLACK/BLUE', 'BLACK/WHITE', 'BLUE', 'BRONZE', 'BROWN', 'BW', 'Ba&amp;W', 'Balck/White', 'Beige', 'Black', 'Black &amp; White', 'Black And White', 'Black&amp;White', 'Black/White', 'BlackWhite', 'Blue', 'Brown', 'COSMIC GREY', 'GOLD', 'GRAY', 'GREEN', 'GREY', 'Green', 'Grey', 'MAROON', 'MAUVE/PURPLE', 'MOONDUST SILVER', 'MOONDUSTSILVER', 'Maroon', 'ORANGE', 'PURPLE', 'Pearl Black', 'RED', 'Red', 'Royal Blue', 'SB1ZS3JE10E117591', 'SIILVER', 'SILVER', 'SIVER', 'SilVER', 'Silver', 'TURQUOISE', 'Turquoise', 'WHIE', 'WHITE', 'White', 'White/b', 'White/black', 'YELLOW', 'Yellow', 'b&amp;w', 'b/w', 'black', 'black/white', 'blue', 'grey', 'red', 'sILVER', 'sillver', 'silver', 'wHITE', 'white']</t>
         </is>
@@ -1068,18 +1133,26 @@
       <c r="P10" t="n">
         <v>6</v>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>Yeadon Licensed Private Hire</t>
-        </is>
-      </c>
-      <c r="R10" t="n">
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="inlineStr">
+        <is>
+          <t>&lt;Unspecified&gt;</t>
+        </is>
+      </c>
+      <c r="S10" t="inlineStr">
+        <is>
+          <t>Amber Cars</t>
+        </is>
+      </c>
+      <c r="T10" t="n">
         <v>57630</v>
       </c>
-      <c r="S10" t="n">
+      <c r="U10" t="n">
         <v>80</v>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="V10" t="inlineStr">
         <is>
           <t>['1st Apollo / A Metro Cars', '2', 'A1 LEEDS', 'A1 Leeds', 'AB Cars', 'ASAP', 'Abbey Private Hire', 'Ace Cars Leeds Ltd', 'Aireline/Holbeck Line', 'Airport Services', 'Amber Cars', 'Apex Cars', 'Ardsley Cars', 'Arrow', 'Beeston Line', 'Blue Line', 'Bramham Private Hire', 'CSC Executive', 'Call A Car', 'Chevin Cars', 'City Cabs', 'Club Cars', 'Dees', 'Deighton Cars', 'Diamond Class Executive Chauffeur', 'Drive Time', 'Easy Travel', 'Eurocabs', 'First Lady And Homelinks', 'Fly Away', 'G And M Cars', 'Gee Gee Cars', 'Geo Cars 3 (HQ)', 'Highways Private Hire', 'ITS Roadrunners', 'Independent', 'Independent City Taxis', 'Independent Hackney Carriage', 'Independent Private Hire', 'Interline', 'Intime Private Hire', 'Jerome Private Hire', 'Just Bus', 'Kirkstall Cars', 'Ladyline / Phoenix Cars Leeds Ltd', 'Leeds Alternative Travel', 'Local Cars (Morley)', 'MBS Ltd Yorkshire Trikes Tours', 'MC Chauffeurs Executive', 'Morley Cars', 'Morley Central Line', 'NOT WORKING', 'Network Cars', 'New Armley Cars', 'New Furlongs', 'New Yellow Cars', 'Otley Private Hire', 'Premier Licensed Private Hire', 'Pudsey B Line', 'Rhodes Ahead', 'Rollinson Safeway Ltd', 'Rothwell Line', 'Royal Cars/New Royal Cars', 'SJK Travel2Airport.com', 'South Leeds', 'Speed Line', 'Stanningley Cars Ltd', 'Star Supreme Line', 'Station Taxis', 'Streamline - Telecars (PH Operation)', 'Streamline/Telecabs', 'T And T Travel', 'T Line', 'ThreeSixteen Aiport And Exec', 'Time Line', 'UBER', 'Wetherby Cars', 'Wheels', 'White Rose Cars', 'Yeadon Licensed Private Hire']</t>
         </is>

--- a/examples/UK OGD/hackney carriage/profile.xlsx
+++ b/examples/UK OGD/hackney carriage/profile.xlsx
@@ -450,15 +450,25 @@
       </c>
       <c r="T1" t="inlineStr">
         <is>
+          <t>most_frequent_count</t>
+        </is>
+      </c>
+      <c r="U1" t="inlineStr">
+        <is>
+          <t>csim</t>
+        </is>
+      </c>
+      <c r="V1" t="inlineStr">
+        <is>
           <t>memory_consumed_bytes</t>
         </is>
       </c>
-      <c r="U1" t="inlineStr">
+      <c r="W1" t="inlineStr">
         <is>
           <t>pattern_count</t>
         </is>
       </c>
-      <c r="V1" t="inlineStr">
+      <c r="X1" t="inlineStr">
         <is>
           <t>patterns</t>
         </is>
@@ -471,39 +481,39 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>int</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D2" t="n">
         <v>4604</v>
       </c>
       <c r="E2" t="n">
-        <v>4599</v>
+        <v>4604</v>
       </c>
       <c r="F2" t="n">
-        <v>15954672</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3469.16112198304</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>2863</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2524.999435984098</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6375622.151720012</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="L2" t="n">
-        <v>10500</v>
+        <v>-1</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -527,12 +537,18 @@
       </c>
       <c r="S2" t="inlineStr"/>
       <c r="T2" t="n">
+        <v>4</v>
+      </c>
+      <c r="U2" t="n">
+        <v>0</v>
+      </c>
+      <c r="V2" t="n">
         <v>18001</v>
       </c>
-      <c r="U2" t="n">
+      <c r="W2" t="n">
         <v>4597</v>
       </c>
-      <c r="V2" t="inlineStr">
+      <c r="X2" t="inlineStr">
         <is>
           <t>['0', '1', '10', '100', '1000', '10001', '10002', '10003', '10004', '10005', '10007', '10008', '10009', '10010', '10011', '10013', '10014', '10015', '10016', '10017', '10018', '1002', '10020', '10021', '10022', '10023', '10024', '10025', '10026', '10027', '10028', '10029', '1003', '10030', '10031', '10032', '10033', '10034', '10035', '10036', '10037', '10038', '10039', '1004', '10040', '10042', '10043', '10044', '10045', '10046', '10047', '10048', '10049', '1005', '10050', '10051', '10052', '10053', '10054', '10055', '10056', '10058', '1006', '10061', '10062', '10063', '10064', '10065', '10066', '10067', '10068', '10069', '1007', '10070', '10072', '10073', '10075', '10076', '1008', '10080', '10081', '10082', '10084', '10085', '10086', '10087', '10088', '10089', '1009', '10090', '10092', '10094', '10095', '10096', '101', '10101', '10105', '10107', '10108', '1011', '10110', '10111', '10112', '10113', '10115', '1012', '10124', '10126', '10129', '1013', '10130', '10136', '10137', '10138', '10139', '1014', '10140', '10141', '10142', '10148', '1015', '10156', '10159', '1016', '10161', '10162', '10163', '10164', '10166', '10169', '10170', '10173', '10174', '10175', '10176', '10178', '1018', '10180', '10186', '10187', '1019', '10190', '10199', '102', '1020', '10200', '10205', '10208', '1021', '10215', '10216', '1022', '10221', '10229', '1023', '10230', '10231', '10238', '10239', '1024', '10244', '10245', '10248', '1025', '10256', '10257', '10258', '10259', '1026', '10262', '10263', '10265', '10266', '10269', '1027', '10271', '10272', '10273', '10274', '10276', '1028', '10282', '10288', '10289', '1029', '10292', '10295', '10296', '10298', '1030', '10300', '10303', '10308', '1031', '10310', '10312', '10317', '10318', '1032', '10321', '10327', '1033', '10333', '10339', '1034', '1035', '10352', '10354', '10356', '10359', '10360', '10362', '10367', '10368', '1037', '1038', '10381', '10386', '10387', '10388', '10389', '1039', '10393', '10394', '10399', '104', '1040', '10400', '10404', '10408', '1041', '10411', '10412', '10413', '10414', '10415', '10416', '10417', '10418', '10419', '1042', '10420', '10421', '10424', '10425', '10429', '1043', '10430', '10434', '10436', '10437', '10438', '10439', '1044', '10443', '10449', '1045', '10452', '10455', '10458', '1046', '10465', '10466', '10467', '10468', '10469', '1047', '10470', '10471', '10472', '10473', '10474', '10475', '10476', '10477', '10478', '10479', '1048', '10480', '10481', '10482', '10483', '10484', '10485', '10486', '10487', '10488', '10489', '1049', '10490', '10491', '10492', '10493', '10494', '10495', '105', '1050', '10500', '1051', '1052', '1053', '1054', '1056', '1057', '1058', '1059', '106', '1060', '1061', '1062', '1063', '1064', '1065', '1066', '1067', '1068', '1069', '107', '1070', '1071', '1072', '1073', '1074', '1075', '1076', '1077', '1078', '1079', '108', '1080', '1081', '1082', '1083', '1084', '1085', '1086', '1087', '1088', '1089', '109', '1091', '1092', '1093', '1094', '1095', '1096', '1097', '1098', '1099', '11', '110', '1100', '1101', '1102', '1103', '1104', '1105', '1106', '1107', '1108', '1109', '111', '1110', '1111', '1112', '1113', '1114', '1115', '1116', '1117', '1118', '1119', '112', '1120', '1121', '1122', '1123', '1124', '1125', '1126', '1127', '1128', '113', '1130', '1131', '1132', '1133', '1134', '1135', '1136', '1138', '1139', '114', '1140', '1141', '1142', '1143', '1144', '1145', '1146', '1147', '1148', '1149', '115', '1150', '1151', '1152', '1153', '1154', '1155', '1156', '1157', '1158', '1159', '116', '1161', '1162', '1163', '1164', '1165', '1166', '1167', '1168', '1169', '117', '1170', '1171', '1172', '1173', '1174', '1175', '1176', '1177', '1178', '1179', '118', '1180', '1181', '1182', '1183', '1184', '1186', '1187', '1188', '1189', '119', '1190', '1191', '1192', '1193', '1194', '1195', '1196', '1197', '1198', '1199', '12', '120', '1200', '1201', '1202', '1203', '1204', '1205', '1206', '1207', '1208', '1209', '121', '1211', '1212', '1213', '1214', '1215', '1216', '1217', '1218', '1219', '122', '1220', '1221', '1222', '1223', '1224', '1225', '1226', '1227', '1228', '1229', '123', '1230', '1231', '1232', '1233', '1234', '1235', '1236', '1237', '1238', '1239', '124', '1240', '1241', '1242', '1243', '1244', '1245', '1246', '1247', '1248', '1249', '125', '1250', '1251', '1252', '1253', '1254', '1255', '1256', '1257', '1258', '1259', '126', '1260', '1261', '1262', '1263', '1264', '1265', '1266', '1267', '1268', '1269', '127', '1270', '1271', '1272', '1273', '1274', '1275', '1276', '1277', '1278', '1279', '128', '1280', '1281', '1282', '1283', '1284', '1285', '1287', '1288', '1289', '129', '1290', '1291', '1292', '1293', '1294', '1295', '1296', '1297', '1298', '1299', '13', '130', '1300', '1301', '1302', '1304', '1305', '1306', '1307', '1308', '1309', '131', '1310', '1311', '1312', '1313', '1314', '1315', '1316', '1317', '1318', '1319', '132', '1320', '1321', '1322', '1324', '1325', '1326', '1327', '1328', '1329', '133', '1330', '1331', '1332', '1333', '1334', '1335', '1336', '1337', '1338', '1339', '134', '1340', '1341', '1342', '1344', '1345', '1346', '1347', '1348', '1349', '135', '1350', '1351', '1352', '1353', '1354', '1355', '1356', '1357', '1358', '1359', '136', '1360', '1361', '1362', '1363', '1364', '1365', '1366', '1367', '1368', '1369', '137', '1370', '1371', '1372', '1373', '1374', '1375', '1376', '1377', '1378', '1379', '138', '1380', '1381', '1382', '1383', '1384', '1385', '1386', '1387', '1388', '1389', '139', '1390', '1391', '1392', '1393', '1395', '1396', '1397', '1398', '1399', '14', '140', '1400', '1401', '1402', '1403', '1404', '1405', '1406', '1407', '1408', '1409', '141', '1410', '1411', '1412', '1413', '1414', '1415', '1416', '1417', '1419', '142', '1420', '1421', '1422', '1423', '1424', '1425', '1426', '1428', '1429', '143', '1431', '1432', '1433', '1434', '1435', '1436', '1437', '1438', '144', '1440', '1443', '1444', '1445', '1446', '1447', '1448', '1449', '145', '1450', '1451', '1453', '1454', '1455', '1456', '1458', '1459', '146', '1460', '1461', '1462', '1463', '1464', '1465', '1466', '1467', '1468', '1469', '147', '1470', '1471', '1472', '1473', '1474', '1475', '1476', '1477', '1478', '1479', '148', '1480', '1481', '1482', '1483', '1484', '1486', '1487', '1488', '1489', '149', '1490', '1491', '1492', '1493', '1494', '1495', '1496', '1497', '1498', '1499', '15', '150', '1500', '1501', '1503', '1504', '1505', '1506', '1507', '1508', '1509', '151', '1510', '1511', '1512', '1513', '1514', '1515', '1516', '1517', '1518', '1519', '152', '1520', '1521', '1522', '1523', '1524', '1525', '1526', '1527', '1528', '1529', '153', '1530', '1531', '1532', '1533', '1534', '1535', '1536', '1537', '1538', '1539', '154', '1540', '1541', '1542', '1543', '1544', '1545', '1546', '1547', '1548', '1549', '155', '1550', '1553', '1554', '1555', '1556', '1557', '1558', '1559', '156', '1560', '1561', '1562', '1563', '1564', '1565', '1566', '1567', '1568', '1569', '157', '1570', '1571', '1572', '1573', '1574', '1575', '1576', '1577', '1578', '1579', '158', '1580', '1581', '1582', '1584', '1585', '1586', '1587', '1588', '1589', '159', '1590', '1591', '1592', '1593', '1595', '1596', '1597', '1598', '1599', '16', '160', '1600', '1601', '1602', '1604', '1605', '1606', '1607', '1608', '1609', '161', '1610', '1611', '1613', '1614', '1615', '1616', '1617', '1618', '1619', '162', '1620', '1621', '1622', '1623', '1624', '1625', '1626', '1628', '1629', '163', '1630', '1631', '1632', '1633', '1634', '1635', '1636', '1637', '1638', '1639', '164', '1640', '1641', '1642', '1644', '1645', '1646', '1647', '1648', '1649', '165', '1650', '1651', '1652', '1654', '1655', '1656', '1657', '1658', '1659', '166', '1660', '1661', '1662', '1663', '1664', '1665', '1666', '1667', '1668', '1669', '167', '1670', '1671', '1672', '1673', '1674', '1675', '1676', '1677', '1678', '1679', '168', '1680', '1681', '1682', '1683', '1684', '1685', '1686', '1687', '1688', '1689', '169', '1690', '1691', '1692', '1693', '1694', '1695', '1697', '1698', '1699', '17', '170', '1700', '1701', '1702', '1703', '1704', '1705', '1706', '1707', '1708', '1709', '171', '1710', '1711', '1712', '1713', '1714', '1715', '1716', '1717', '1718', '1719', '172', '1720', '1721', '1722', '1723', '1724', '1725', '1727', '1728', '1729', '173', '1730', '1731', '1732', '1733', '1734', '1735', '1736', '1737', '1738', '1739', '174', '1740', '1741', '1742', '1743', '1744', '1745', '1746', '1747', '1748', '1749', '175', '1750', '1751', '1752', '1753', '1754', '1756', '1757', '1758', '1759', '176', '1760', '1761', '1762', '1763', '1764', '1765', '1766', '1768', '1769', '177', '1770', '1772', '1773', '1774', '1775', '1776', '1777', '1778', '1779', '178', '1780', '1781', '1782', '1783', '1784', '1785', '1786', '1787', '1788', '1789', '179', '1790', '1791', '1792', '1793', '1794', '1795', '1796', '1797', '1798', '1799', '18', '180', '1800', '1801', '1802', '1803', '1804', '1805', '1806', '1807', '1808', '1809', '181', '1810', '1811', '1812', '1813', '1814', '1815', '1816', '1819', '182', '1820', '1821', '1822', '1824', '1825', '1826', '1827', '1828', '1829', '183', '1830', '1831', '1832', '1833', '1834', '1835', '1836', '1837', '1838', '1839', '184', '1840', '1841', '1842', '1843', '1844', '1845', '1846', '1847', '1848', '1849', '185', '1850', '1851', '1852', '1853', '1855', '1856', '1857', '1858', '1859', '186', '1860', '1861', '1862', '1863', '1864', '1866', '1867', '1868', '1869', '187', '1870', '1871', '1872', '1873', '1874', '1875', '1876', '1877', '1878', '1879', '188', '1880', '1881', '1882', '1883', '1884', '1885', '1886', '1887', '1888', '1889', '189', '1890', '1891', '1892', '1893', '1894', '1895', '1896', '1897', '1898', '1899', '19', '190', '1900', '1901', '1902', '1903', '1904', '1905', '1906', '1907', '1908', '1909', '191', '1910', '1911', '1912', '1913', '1914', '1915', '1916', '1917', '1918', '1919', '192', '1920', '1921', '1922', '1923', '1924', '1925', '1926', '1928', '1929', '193', '1930', '1931', '1932', '1933', '1934', '1935', '1937', '1938', '1939', '194', '1940', '1941', '1942', '1943', '1944', '1945', '1946', '1947', '1948', '1949', '195', '1950', '1951', '1952', '1953', '1954', '1955', '1956', '1957', '1958', '1959', '196', '1960', '1961', '1962', '1964', '1965', '1966', '1967', '1969', '197', '1971', '1972', '1973', '1974', '1975', '1976', '1977', '1978', '198', '1980', '1981', '1982', '1983', '1984', '1985', '1986', '1987', '1988', '199', '1990', '1991', '1992', '1993', '1994', '1995', '1996', '1997', '1998', '1999', '2', '20', '200', '2000', '2001', '2002', '2003', '2004', '2005', '2006', '2007', '2008', '2009', '201', '2010', '2011', '2012', '2013', '2014', '2015', '2016', '2017', '2018', '2019', '202', '2020', '2021', '2022', '2023', '2024', '2025', '2026', '2027', '2028', '2029', '203', '2030', '2031', '2032', '2033', '2034', '2035', '2036', '2037', '2038', '2039', '204', '2041', '2042', '2043', '2044', '2045', '2046', '2047', '2049', '205', '2050', '2051', '2052', '2053', '2054', '2055', '2056', '2057', '2058', '2059', '206', '2060', '2061', '2062', '2063', '2064', '2065', '2067', '2068', '2069', '207', '2070', '2072', '2073', '2074', '2075', '2077', '2078', '2079', '208', '2080', '2081', '2082', '2083', '2084', '2085', '2086', '2087', '2088', '2089', '209', '2090', '2091', '2092', '2093', '2094', '2095', '2096', '2097', '2098', '2099', '21', '210', '2100', '2101', '2102', '2103', '2104', '2105', '2106', '2107', '2108', '2109', '211', '2110', '2111', '2112', '2113', '2114', '2115', '2116', '2118', '2119', '212', '2120', '2121', '2122', '2123', '2124', '2127', '2128', '2129', '213', '2130', '2131', '2132', '2133', '2134', '2135', '2136', '2137', '2138', '2139', '214', '2140', '2141', '2142', '2143', '2144', '2145', '2146', '2147', '2148', '2149', '215', '2150', '2151', '2152', '2154', '2156', '2157', '2158', '2159', '216', '2160', '2161', '2162', '2163', '2164', '2165', '2166', '2167', '2168', '2169', '217', '2170', '2171', '2172', '2173', '2174', '2175', '2176', '2177', '2178', '2179', '218', '2180', '2181', '2182', '2184', '2185', '2186', '2187', '2188', '2189', '219', '2190', '2191', '2192', '2193', '2194', '2195', '2196', '2197', '2198', '2199', '22', '220', '2200', '2201', '2202', '2203', '2204', '2205', '2206', '2207', '2208', '2209', '221', '2210', '2211', '2212', '2213', '2214', '2215', '2216', '2217', '2218', '2219', '222', '2220', '2221', '2222', '2223', '2224', '2225', '2226', '2227', '2228', '2229', '223', '2230', '2231', '2233', '2234', '2235', '2236', '2237', '2238', '2239', '224', '2240', '2241', '2243', '2244', '2246', '2247', '2248', '2249', '225', '2250', '2251', '2252', '2253', '2254', '2255', '2256', '2257', '2258', '2259', '226', '2260', '2261', '2262', '2263', '2264', '2265', '2266', '2267', '2269', '227', '2270', '2271', '2272', '2273', '2274', '2275', '2276', '2277', '2278', '2279', '228', '2280', '2281', '2282', '2283', '2284', '2285', '2286', '2287', '2289', '229', '2290', '2292', '2293', '2294', '2295', '2296', '2297', '2298', '2299', '23', '230', '2300', '2301', '2302', '2303', '2304', '2305', '2306', '2307', '2308', '2309', '231', '2310', '2311', '2312', '2313', '2314', '2315', '2316', '2317', '2318', '2319', '232', '2320', '2321', '2322', '2323', '2324', '2325', '2326', '2327', '2328', '2329', '233', '2330', '2331', '2332', '2333', '2334', '2335', '2336', '2337', '2338', '2339', '234', '2340', '2341', '2342', '2343', '2344', '2345', '2346', '2347', '2348', '2349', '235', '2350', '2351', '2352', '2353', '2354', '2355', '2356', '2357', '2358', '2359', '236', '2360', '2361', '2362', '2363', '2364', '2365', '2366', '2367', '2368', '2369', '237', '2370', '2371', '2372', '2373', '2374', '2375', '2376', '2377', '2378', '2379', '238', '2380', '2381', '2382', '2383', '2384', '2385', '2386', '2387', '2388', '2389', '239', '2390', '2391', '2392', '2393', '2394', '2395', '2397', '2398', '2399', '24', '2400', '2401', '2402', '2403', '2404', '2405', '2406', '2407', '2409', '241', '2410', '2411', '2412', '2413', '2415', '2416', '2417', '2418', '2419', '242', '2420', '2421', '2422', '2423', '2424', '2425', '2427', '2428', '2429', '243', '2430', '2431', '2432', '2433', '2434', '2435', '2436', '2437', '2438', '2439', '244', '2440', '2442', '2443', '2444', '2445', '2446', '2447', '2448', '2449', '245', '2450', '2451', '2452', '2453', '2454', '2455', '2456', '2458', '2459', '246', '2460', '2461', '2462', '2463', '2464', '2465', '2466', '2467', '2468', '2469', '247', '2470', '2471', '2472', '2473', '2474', '2475', '2476', '2477', '2478', '2479', '248', '2480', '2481', '2482', '2483', '2484', '2485', '2486', '2487', '2488', '2489', '249', '2490', '2493', '2494', '2495', '2496', '2497', '2499', '25', '250', '2500', '2501', '2502', '2503', '2504', '2505', '2506', '2507', '2508', '2509', '2510', '2511', '2513', '2514', '2515', '2516', '2517', '2518', '2519', '252', '2520', '2521', '2522', '2523', '2524', '2525', '2526', '2527', '2528', '2529', '253', '2530', '2531', '2532', '2533', '2534', '2535', '2536', '2537', '2538', '2539', '254', '2540', '2541', '2542', '2543', '2545', '2546', '2547', '2548', '2549', '255', '2550', '2551', '2552', '2553', '2554', '2555', '2556', '2557', '2558', '2559', '256', '2561', '2562', '2563', '2564', '2565', '2566', '2568', '2569', '257', '2570', '2571', '2573', '2574', '2575', '2576', '2577', '2578', '2579', '258', '2580', '2581', '2582', '2583', '2584', '2585', '2586', '2587', '2588', '2589', '259', '2590', '2591', '2592', '2593', '2594', '2595', '2596', '2597', '2598', '2599', '26', '260', '2600', '2601', '2602', '2603', '2604', '2605', '2606', '2607', '2608', '2609', '261', '2610', '2611', '2612', '2613', '2614', '2615', '2616', '2618', '2619', '262', '2620', '2621', '2622', '2623', '2624', '2625', '2627', '2628', '2629', '263', '2630', '2631', '2632', '2633', '2634', '2635', '2636', '2637', '2639', '264', '2640', '2641', '2642', '2643', '2644', '2645', '2646', '2647', '2648', '2649', '265', '2650', '2651', '2652', '2653', '2654', '2655', '2656', '2657', '2659', '266', '2660', '2661', '2662', '2663', '2664', '2666', '2667', '2668', '2669', '267', '2670', '2671', '2672', '2673', '2674', '2675', '2676', '2677', '2679', '268', '2680', '2681', '2682', '2683', '2684', '2685', '2686', '2687', '2688', '2689', '269', '2690', '2691', '2692', '2693', '2694', '2695', '2696', '2697', '2698', '2699', '27', '270', '2700', '2701', '2702', '2703', '2704', '2705', '2706', '2707', '2708', '2709', '271', '2710', '2711', '2712', '2713', '2715', '2716', '2717', '2719', '272', '2720', '2721', '2722', '2723', '2724', '2726', '2727', '2728', '2729', '273', '2730', '2731', '2732', '2733', '2734', '2735', '2736', '2737', '2738', '2739', '274', '2740', '2741', '2743', '2744', '2745', '2747', '2748', '2749', '275', '2750', '2751', '2752', '2753', '2754', '2755', '2756', '2758', '2759', '276', '2760', '2761', '2762', '2763', '2764', '2765', '2766', '2767', '2768', '2769', '277', '2770', '2771', '2772', '2773', '2774', '2775', '2776', '2777', '2778', '2779', '278', '2780', '2781', '2782', '2783', '2784', '2785', '2786', '2787', '2788', '2789', '279', '2790', '2791', '2792', '2793', '2794', '2795', '2796', '2797', '2798', '2799', '28', '280', '2800', '2801', '2802', '2803', '2804', '2805', '2806', '2807', '2808', '2809', '281', '2810', '2811', '2812', '2813', '2814', '2815', '2816', '2817', '2818', '2819', '282', '2820', '2821', '2822', '2823', '2824', '2825', '2826', '2827', '2828', '2829', '283', '2830', '2831', '2832', '2833', '2834', '2835', '2836', '2837', '2838', '2839', '284', '2840', '2841', '2842', '2843', '2844', '2845', '2846', '2847', '2849', '285', '2850', '2851', '2852', '2853', '2854', '2855', '2856', '2857', '2858', '286', '2860', '2861', '2862', '2863', '2864', '2865', '2866', '2867', '2868', '2869', '287', '2870', '2871', '2872', '2873', '2874', '2875', '2876', '2877', '2878', '2879', '288', '2880', '2881', '2882', '2883', '2884', '2885', '2886', '2887', '2888', '2889', '289', '2890', '2891', '2892', '2893', '2894', '2895', '2896', '2897', '2898', '2899', '29', '290', '2900', '2901', '2903', '2904', '2905', '2907', '2908', '2909', '291', '2910', '2911', '2912', '2913', '2914', '2915', '2916', '2918', '2919', '292', '2920', '2921', '2922', '2923', '2924', '2925', '2926', '2927', '2928', '2929', '293', '2931', '2932', '2933', '2934', '2935', '2936', '2937', '2938', '2939', '294', '2940', '2941', '2942', '2943', '2944', '2945', '2946', '2947', '2948', '2949', '295', '2950', '2951', '2952', '2953', '2954', '2955', '2956', '2957', '2958', '2959', '296', '2960', '2961', '2962', '2963', '2964', '2965', '2966', '2967', '2968', '2969', '297', '2970', '2971', '2973', '2974', '2975', '2976', '2977', '2978', '2979', '298', '2980', '2981', '2982', '2983', '2984', '2985', '2986', '2987', '2988', '2989', '299', '2990', '2991', '2992', '2993', '2994', '2995', '2997', '2998', '2999', '3', '30', '300', '3001', '3004', '3006', '3007', '301', '3010', '3011', '3012', '3013', '3014', '3015', '3016', '3017', '3018', '3019', '302', '303', '304', '3046', '305', '3050', '306', '307', '308', '309', '31', '310', '311', '3115', '312', '3128', '313', '3134', '314', '3142', '3143', '315', '316', '317', '318', '319', '32', '320', '321', '323', '324', '3245', '325', '326', '327', '328', '329', '33', '330', '331', '332', '3326', '333', '3337', '3338', '334', '335', '336', '337', '3373', '3376', '338', '3384', '339', '3397', '34', '340', '341', '342', '343', '344', '345', '346', '347', '349', '35', '350', '3500', '3501', '3503', '3504', '3505', '3506', '3507', '3508', '351', '3510', '3511', '3512', '3513', '3514', '3515', '3516', '3517', '3518', '3519', '352', '3521', '3523', '3525', '3526', '3527', '3529', '353', '3530', '3531', '3532', '3533', '3534', '3535', '3536', '3537', '3538', '3539', '354', '3540', '3541', '3542', '3543', '3544', '3545', '3546', '3547', '3548', '3549', '355', '3550', '3551', '3552', '3553', '3554', '3555', '3556', '3557', '3558', '3559', '356', '3560', '3561', '3562', '3563', '3564', '3565', '3566', '3567', '3568', '3569', '357', '3570', '3571', '3572', '3573', '3574', '3575', '3576', '3577', '3578', '3579', '358', '3580', '3581', '3582', '3583', '3584', '3585', '3586', '3587', '3588', '3589', '359', '3590', '3591', '3592', '3593', '3594', '3595', '3596', '3597', '3598', '3599', '36', '360', '3600', '3601', '3602', '3603', '3604', '3605', '3606', '3607', '3608', '3609', '361', '3610', '3611', '3612', '3613', '3614', '3615', '3616', '3617', '3618', '3619', '362', '3620', '3621', '3622', '3623', '3624', '3625', '3626', '3627', '3628', '3629', '363', '3630', '3632', '3633', '3634', '3636', '3637', '3638', '3639', '364', '3640', '3641', '3642', '3643', '3644', '3645', '3646', '3647', '3648', '3649', '365', '3651', '3652', '3653', '3654', '3656', '3657', '3658', '3659', '366', '3660', '3661', '3662', '3663', '3664', '3665', '3666', '3667', '3668', '3669', '367', '3670', '3671', '3672', '3673', '3674', '3675', '3676', '3678', '368', '3680', '3681', '3682', '3683', '3684', '3685', '3686', '3687', '3688', '3689', '369', '3690', '3691', '3692', '3693', '3694', '3696', '3697', '3698', '37', '370', '3700', '3701', '3702', '3703', '3704', '3705', '3706', '3707', '3709', '371', '3710', '3711', '3712', '3713', '3714', '3715', '3716', '3717', '3718', '3719', '372', '3720', '3722', '3724', '3725', '3726', '3727', '3728', '3729', '373', '3730', '3731', '3732', '3733', '3734', '3735', '3736', '3737', '3738', '3739', '374', '3740', '3741', '3742', '3743', '3744', '3745', '3746', '3747', '3748', '3749', '375', '3750', '3751', '3752', '3753', '3754', '3755', '3756', '3757', '3758', '376', '3760', '3761', '3762', '3763', '3764', '3765', '3766', '3767', '3768', '3769', '377', '3770', '3771', '3773', '3774', '3775', '3776', '3777', '3778', '3779', '378', '3780', '3781', '3782', '3783', '3784', '3785', '3786', '3787', '3788', '3789', '379', '3790', '3791', '3792', '3793', '3794', '3795', '3796', '3797', '3798', '3799', '38', '380', '3800', '3801', '3803', '3804', '3805', '3806', '3807', '3808', '3809', '381', '3810', '3812', '3813', '3814', '3815', '3816', '3817', '3818', '3819', '382', '3820', '3821', '3822', '3823', '3824', '3825', '3826', '3827', '3828', '3829', '383', '3830', '3831', '3832', '3833', '3835', '3836', '3837', '3838', '3839', '384', '3840', '3841', '3842', '3843', '3844', '3845', '3846', '3847', '3848', '3849', '385', '3850', '3851', '3852', '3853', '3854', '3855', '3856', '3857', '3858', '3859', '386', '3861', '3862', '3863', '3864', '3865', '3866', '3867', '3868', '3869', '387', '3870', '3871', '3872', '3873', '3874', '3875', '3876', '3877', '3878', '3879', '388', '3880', '3881', '3882', '3883', '3884', '3885', '3886', '3887', '3888', '3889', '389', '3890', '3891', '3892', '3893', '3894', '3895', '3896', '3897', '3898', '3899', '39', '390', '3900', '3901', '3902', '3903', '3904', '3905', '3906', '3907', '3908', '3909', '391', '3910', '3911', '3912', '3913', '3914', '3915', '3916', '3917', '3918', '3919', '392', '3920', '3921', '3922', '3923', '3924', '3925', '3926', '3927', '3928', '3929', '393', '3930', '3931', '3932', '3933', '3934', '3935', '3936', '3937', '3938', '3939', '394', '3940', '3941', '3942', '3943', '3944', '3945', '3946', '3947', '3948', '3949', '395', '3950', '3951', '3952', '3953', '3954', '3955', '3956', '3957', '3958', '3959', '396', '3960', '3961', '3962', '3963', '3964', '3965', '3966', '3967', '3968', '3969', '397', '3970', '3971', '3972', '3973', '3974', '3975', '3976', '3977', '3978', '3979', '398', '3980', '3981', '3982', '3983', '3984', '3985', '3986', '3987', '3989', '399', '3990', '3991', '3992', '3993', '3994', '3995', '3996', '3997', '3998', '3999', '4', '40', '400', '4000', '4001', '4003', '4004', '4005', '4006', '4007', '4008', '4009', '401', '4010', '4011', '4012', '4013', '4014', '4015', '4016', '4017', '4018', '4019', '402', '4020', '4021', '4022', '4023', '4024', '4025', '4026', '4028', '4029', '403', '4030', '4031', '4032', '4033', '4034', '4035', '4036', '4037', '4038', '4039', '404', '4040', '4041', '4042', '4043', '4044', '4045', '4046', '4047', '4048', '4049', '405', '4050', '4051', '4052', '4053', '4054', '4055', '4056', '4057', '4058', '4059', '406', '4061', '4062', '4063', '4064', '4066', '4067', '4068', '4069', '407', '4070', '4071', '4072', '4073', '4074', '4075', '4076', '4077', '4078', '4079', '408', '4080', '4081', '4082', '4083', '4084', '4085', '4086', '4087', '4088', '4089', '409', '4090', '4091', '4092', '4093', '4094', '4095', '4096', '4097', '4098', '4099', '41', '410', '4100', '4101', '4102', '4103', '4104', '4105', '4106', '4107', '4108', '4109', '411', '4110', '4111', '4112', '4113', '4114', '4115', '4117', '4118', '4119', '412', '4120', '4121', '4122', '4123', '4124', '4125', '4127', '4128', '4129', '413', '4130', '4131', '4132', '4133', '4134', '4135', '4136', '4137', '4138', '4139', '414', '4140', '4141', '4142', '4143', '4144', '4145', '4146', '4147', '4148', '4149', '415', '4150', '4151', '4152', '4153', '4154', '4155', '4156', '4157', '4158', '416', '4160', '4161', '4162', '4163', '4164', '4165', '4166', '4167', '4168', '4169', '417', '4170', '4171', '4173', '4174', '4176', '4177', '4178', '4179', '418', '4180', '4181', '4182', '4183', '4184', '4185', '4186', '4187', '4188', '4189', '419', '4190', '4191', '4192', '4193', '4194', '4195', '4196', '4197', '4198', '4199', '42', '420', '4200', '4201', '4202', '4203', '4204', '4205', '4206', '4208', '4209', '421', '4210', '4211', '4212', '4213', '4214', '4215', '4216', '4217', '4218', '4219', '422', '4220', '4221', '4222', '4223', '4224', '4225', '4226', '4228', '4229', '423', '4230', '4231', '4232', '4233', '4234', '4235', '4236', '4237', '4238', '4239', '424', '4240', '4241', '4242', '4243', '4244', '4245', '4246', '4247', '4248', '4249', '425', '4250', '4251', '4252', '4253', '4254', '4255', '4256', '4257', '4258', '4259', '426', '4260', '4261', '4262', '4263', '4264', '4265', '4266', '4267', '4269', '427', '4270', '4271', '4272', '4273', '4274', '4275', '4276', '4277', '4279', '428', '4282', '4283', '4284', '4285', '4286', '4287', '4288', '4289', '429', '4290', '4291', '4292', '4293', '4294', '4295', '4296', '4297', '4298', '4299', '43', '430', '4300', '4301', '4302', '4303', '4304', '4305', '4306', '4307', '4308', '4309', '431', '4310', '4311', '4312', '4313', '4314', '4315', '4316', '4317', '4318', '4319', '432', '4320', '4321', '4322', '4323', '4324', '4325', '4326', '4327', '4328', '4329', '433', '4330', '4331', '4332', '4333', '4334', '4335', '4337', '4338', '4339', '434', '4340', '4341', '4342', '4343', '4344', '4346', '4348', '4349', '435', '4350', '4351', '4352', '4353', '4354', '4355', '4356', '4357', '4358', '4359', '436', '4360', '4361', '4362', '4363', '4364', '4365', '4366', '4367', '4368', '4369', '437', '4370', '4371', '4373', '4374', '4375', '4376', '4377', '4378', '4379', '438', '4380', '4381', '4382', '4383', '4384', '4385', '4386', '4387', '4388', '4389', '439', '4390', '4391', '4392', '4393', '4394', '4395', '4396', '4397', '4398', '4399', '44', '440', '4400', '4401', '4402', '4403', '4404', '4405', '4406', '4407', '4408', '4409', '441', '4410', '4411', '4413', '4414', '4415', '4417', '4418', '4419', '442', '4420', '4422', '4424', '4426', '4427', '4428', '4429', '443', '4430', '4431', '4432', '4433', '4434', '4435', '4436', '4437', '4438', '4439', '444', '4440', '4441', '4442', '4443', '4444', '4445', '4446', '4447', '4448', '4449', '445', '4450', '4451', '4452', '4453', '4454', '4455', '4456', '4457', '4458', '446', '4460', '4461', '4462', '4463', '4466', '4467', '4468', '4469', '447', '4470', '4471', '4472', '4473', '4474', '4475', '4476', '4477', '4478', '4479', '448', '4480', '4481', '4482', '4483', '4484', '4485', '4486', '4487', '4488', '4489', '449', '4490', '4491', '4492', '4493', '4494', '4495', '4496', '4497', '4498', '4499', '45', '450', '4500', '4501', '4502', '4503', '4504', '4505', '4506', '4507', '4508', '4509', '451', '4510', '4511', '4512', '4513', '4514', '4515', '4516', '4517', '4519', '452', '4521', '4522', '4523', '4524', '4525', '4526', '4527', '4528', '4529', '453', '4531', '4532', '4533', '4534', '4535', '4536', '4537', '4538', '4539', '454', '4540', '4541', '4542', '4543', '4544', '4545', '4546', '4547', '4548', '4549', '455', '4550', '4551', '4552', '4553', '4554', '4555', '4557', '4558', '4559', '456', '4560', '4561', '4562', '4563', '4564', '4565', '4566', '4567', '4568', '4569', '457', '4570', '4573', '4574', '4575', '4576', '4577', '4578', '4579', '458', '4580', '4581', '4582', '4583', '4584', '4586', '4587', '4588', '4589', '459', '4590', '4591', '4592', '4593', '4594', '4595', '4597', '4598', '4599', '46', '460', '4600', '4601', '4602', '4603', '4604', '4605', '4606', '4607', '4608', '4609', '461', '4610', '4612', '4613', '4614', '4615', '4616', '4617', '4618', '4619', '462', '4620', '4621', '4622', '4623', '4624', '4625', '4626', '4627', '4628', '4629', '463', '4630', '4631', '4632', '4633', '4634', '4635', '4636', '4637', '4638', '4639', '464', '4640', '4641', '4642', '4643', '4644', '4645', '4646', '4647', '4649', '465', '4650', '4651', '4652', '4653', '4654', '4655', '4656', '4658', '466', '4660', '4661', '4662', '4663', '4664', '4665', '4666', '4667', '4668', '4669', '467', '4670', '4671', '4672', '4673', '4675', '4676', '4677', '4678', '4679', '468', '4680', '4681', '4682', '4683', '4684', '4685', '4686', '4687', '4688', '4689', '469', '4690', '4691', '4692', '4693', '4694', '4696', '4697', '4698', '4699', '47', '470', '4700', '4701', '4702', '4703', '4704', '4705', '4706', '4707', '4708', '4709', '471', '4710', '4711', '4712', '4714', '4715', '4716', '4717', '4719', '472', '4720', '4721', '4722', '4723', '4724', '4725', '4726', '4727', '4728', '4729', '473', '4730', '4731', '4732', '4733', '4734', '4735', '4736', '4737', '4738', '4739', '474', '4740', '4741', '4742', '4743', '4744', '4745', '4746', '4747', '4748', '4749', '475', '4750', '4751', '4752', '4753', '4754', '4755', '4756', '4757', '4758', '4759', '476', '4760', '4761', '4762', '4763', '4764', '4765', '4766', '4767', '4768', '4769', '477', '4770', '4771', '4772', '4773', '4774', '4775', '4776', '4777', '4778', '4779', '478', '4780', '4781', '4783', '4784', '4785', '4786', '4787', '4788', '4789', '479', '4790', '4791', '4792', '4793', '4794', '4795', '4796', '4797', '4798', '4799', '48', '480', '4801', '4802', '4803', '4804', '4805', '4806', '4807', '4808', '4809', '481', '4810', '4811', '4812', '4813', '4814', '4815', '4816', '4817', '4818', '4819', '4820', '4821', '4822', '4823', '4824', '4825', '4826', '4827', '4828', '4829', '483', '4830', '4831', '4832', '4833', '4834', '4835', '4836', '4837', '4838', '4839', '484', '4840', '4841', '4842', '4843', '4844', '4845', '4846', '4847', '4848', '4849', '485', '4850', '4851', '4852', '4853', '4854', '4855', '4856', '4857', '4858', '4859', '486', '4860', '4861', '4862', '4864', '4865', '4866', '4867', '4868', '4869', '487', '4870', '4871', '4872', '4873', '4874', '4875', '4876', '4877', '4878', '4879', '488', '4880', '4881', '4883', '4884', '4885', '4886', '4887', '4888', '4889', '489', '4890', '4891', '4892', '4893', '4895', '4896', '4897', '4898', '4899', '49', '490', '4901', '4902', '4903', '4904', '4905', '4906', '4907', '4908', '4909', '491', '4910', '4911', '4912', '4913', '4914', '4915', '4916', '4918', '4919', '492', '4920', '4921', '4922', '4923', '4924', '4925', '4926', '4927', '4928', '4929', '493', '4930', '4931', '4932', '4933', '4934', '4935', '4936', '4937', '4938', '4939', '4940', '4941', '4942', '4943', '4944', '4945', '4946', '4947', '4948', '4949', '495', '4950', '4951', '4952', '4953', '4954', '4955', '4956', '4957', '4958', '4959', '496', '4960', '4961', '4962', '4964', '4965', '4967', '4968', '4969', '497', '4970', '4971', '4972', '4973', '4974', '4975', '4976', '4977', '4978', '4979', '498', '4980', '4981', '4982', '4984', '4985', '4986', '4987', '4988', '4989', '499', '4990', '4991', '4992', '4993', '4994', '4996', '4997', '4998', '4999', '5', '50', '500', '501', '5019', '502', '503', '504', '505', '506', '507', '508', '509', '51', '510', '511', '512', '513', '514', '515', '516', '517', '518', '519', '52', '520', '521', '522', '523', '524', '525', '526', '527', '528', '529', '53', '530', '531', '532', '533', '534', '535', '536', '537', '54', '55', '56', '57', '58', '59', '6', '60', '6001', '6002', '6005', '6008', '6009', '6013', '6014', '6016', '6018', '6021', '6022', '6024', '6025', '6026', '6027', '6028', '6030', '6033', '6036', '6039', '6040', '6043', '6044', '6047', '6050', '6052', '6053', '6054', '6055', '6056', '6057', '6059', '6060', '6061', '6062', '6063', '6065', '6066', '6067', '6072', '6073', '6074', '6076', '6077', '6078', '6079', '6082', '6083', '6084', '6085', '6086', '6094', '6095', '6098</t>
         </is>
@@ -545,11 +561,11 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -605,12 +621,18 @@
         </is>
       </c>
       <c r="T3" t="n">
+        <v>4033</v>
+      </c>
+      <c r="U3" t="n">
+        <v>0</v>
+      </c>
+      <c r="V3" t="n">
         <v>94255</v>
       </c>
-      <c r="U3" t="n">
+      <c r="W3" t="n">
         <v>5</v>
       </c>
-      <c r="V3" t="inlineStr">
+      <c r="X3" t="inlineStr">
         <is>
           <t>['Contract Vehicle Permit', 'Hackney Carriage Vehicle', 'Private Hire Executive Vehicle', 'Private Hire Novelty Vehicle', 'Private Hire Vehicle']</t>
         </is>
@@ -623,11 +645,11 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -683,12 +705,18 @@
         </is>
       </c>
       <c r="T4" t="n">
+        <v>4494</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>64702</v>
       </c>
-      <c r="U4" t="n">
+      <c r="W4" t="n">
         <v>3</v>
       </c>
-      <c r="V4" t="inlineStr">
+      <c r="X4" t="inlineStr">
         <is>
           <t>['0', 'Licence Issued', 'Licence Suspended']</t>
         </is>
@@ -701,11 +729,11 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -761,12 +789,18 @@
         </is>
       </c>
       <c r="T5" t="n">
+        <v>144</v>
+      </c>
+      <c r="U5" t="n">
+        <v>1</v>
+      </c>
+      <c r="V5" t="n">
         <v>57674</v>
       </c>
-      <c r="U5" t="n">
+      <c r="W5" t="n">
         <v>387</v>
       </c>
-      <c r="V5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>['1/01/15 0:00', '1/02/15 0:00', '1/03/15 0:00', '1/04/15 0:00', '1/05/15 0:00', '1/06/15 0:00', '1/07/15 0:00', '1/08/15 0:00', '1/09/15 0:00', '1/10/15 0:00', '1/11/15 0:00', '1/12/14 0:00', '1/12/15 0:00', '10/01/15 0:00', '10/02/15 0:00', '10/03/15 0:00', '10/04/15 0:00', '10/05/15 0:00', '10/06/15 0:00', '10/07/15 0:00', '10/08/15 0:00', '10/09/15 0:00', '10/10/15 0:00', '10/11/14 0:00', '10/11/15 0:00', '10/12/14 0:00', '11/01/15 0:00', '11/02/15 0:00', '11/03/15 0:00', '11/04/15 0:00', '11/05/15 0:00', '11/06/15 0:00', '11/07/15 0:00', '11/08/15 0:00', '11/09/15 0:00', '11/10/15 0:00', '11/11/14 0:00', '11/11/15 0:00', '11/12/14 0:00', '11/12/15 0:00', '12/01/15 0:00', '12/02/15 0:00', '12/03/15 0:00', '12/04/15 0:00', '12/05/15 0:00', '12/06/15 0:00', '12/07/15 0:00', '12/08/15 0:00', '12/09/15 0:00', '12/10/15 0:00', '12/11/14 0:00', '12/11/15 0:00', '12/12/14 0:00', '12/12/15 0:00', '13/01/15 0:00', '13/02/15 0:00', '13/03/15 0:00', '13/04/15 0:00', '13/05/15 0:00', '13/06/15 0:00', '13/07/15 0:00', '13/08/15 0:00', '13/09/15 0:00', '13/10/15 0:00', '13/11/14 0:00', '13/12/14 0:00', '13/12/15 0:00', '14/01/15 0:00', '14/02/15 0:00', '14/03/15 0:00', '14/04/15 0:00', '14/05/15 0:00', '14/06/15 0:00', '14/07/15 0:00', '14/08/15 0:00', '14/09/15 0:00', '14/10/15 0:00', '14/11/14 0:00', '14/11/15 0:00', '14/12/14 0:00', '14/12/15 0:00', '15/01/15 0:00', '15/02/15 0:00', '15/03/15 0:00', '15/04/15 0:00', '15/05/15 0:00', '15/06/15 0:00', '15/07/15 0:00', '15/08/15 0:00', '15/10/15 0:00', '15/11/14 0:00', '15/11/15 0:00', '15/12/14 0:00', '16/01/15 0:00', '16/02/15 0:00', '16/03/15 0:00', '16/04/15 0:00', '16/05/15 0:00', '16/06/15 0:00', '16/07/15 0:00', '16/08/15 0:00', '16/09/15 0:00', '16/10/15 0:00', '16/11/14 0:00', '16/12/14 0:00', '17/01/15 0:00', '17/02/15 0:00', '17/03/15 0:00', '17/04/15 0:00', '17/05/15 0:00', '17/06/15 0:00', '17/07/15 0:00', '17/08/15 0:00', '17/09/15 0:00', '17/10/15 0:00', '17/12/14 0:00', '18/01/15 0:00', '18/02/15 0:00', '18/03/15 0:00', '18/04/15 0:00', '18/05/15 0:00', '18/06/15 0:00', '18/07/15 0:00', '18/08/15 0:00', '18/09/15 0:00', '18/10/15 0:00', '18/11/14 0:00', '18/11/15 0:00', '18/12/14 0:00', '19/01/15 0:00', '19/02/15 0:00', '19/03/15 0:00', '19/04/15 0:00', '19/05/15 0:00', '19/06/15 0:00', '19/07/15 0:00', '19/08/15 0:00', '19/09/15 0:00', '19/10/15 0:00', '19/11/14 0:00', '19/11/15 0:00', '19/12/14 0:00', '2/01/15 0:00', '2/02/15 0:00', '2/03/15 0:00', '2/04/15 0:00', '2/05/15 0:00', '2/06/15 0:00', '2/07/15 0:00', '2/08/15 0:00', '2/09/15 0:00', '2/10/15 0:00', '2/11/15 0:00', '2/12/14 0:00', '20/01/15 0:00', '20/02/15 0:00', '20/03/15 0:00', '20/04/15 0:00', '20/05/15 0:00', '20/06/15 0:00', '20/07/15 0:00', '20/08/15 0:00', '20/09/15 0:00', '20/10/15 0:00', '20/11/14 0:00', '20/11/15 0:00', '20/12/14 0:00', '21/01/15 0:00', '21/02/15 0:00', '21/03/15 0:00', '21/04/15 0:00', '21/05/15 0:00', '21/06/15 0:00', '21/07/15 0:00', '21/08/15 0:00', '21/09/15 0:00', '21/10/15 0:00', '21/11/14 0:00', '21/11/15 0:00', '21/12/14 0:00', '22/01/15 0:00', '22/02/15 0:00', '22/03/15 0:00', '22/04/15 0:00', '22/05/15 0:00', '22/06/15 0:00', '22/07/15 0:00', '22/08/15 0:00', '22/09/15 0:00', '22/10/15 0:00', '22/11/14 0:00', '22/11/15 0:00', '22/12/14 0:00', '23/01/15 0:00', '23/02/15 0:00', '23/03/15 0:00', '23/04/15 0:00', '23/05/15 0:00', '23/06/15 0:00', '23/07/15 0:00', '23/08/15 0:00', '23/09/15 0:00', '23/10/15 0:00', '23/11/14 0:00', '23/11/15 0:00', '23/12/14 0:00', '24/01/15 0:00', '24/03/15 0:00', '24/04/15 0:00', '24/05/15 0:00', '24/06/15 0:00', '24/07/15 0:00', '24/08/15 0:00', '24/09/15 0:00', '24/10/15 0:00', '24/11/14 0:00', '24/11/15 0:00', '24/12/14 0:00', '25/01/15 0:00', '25/02/15 0:00', '25/03/15 0:00', '25/04/15 0:00', '25/05/15 0:00', '25/06/15 0:00', '25/07/15 0:00', '25/09/15 0:00', '25/10/15 0:00', '25/11/14 0:00', '25/11/15 0:00', '26/01/15 0:00', '26/02/15 0:00', '26/03/15 0:00', '26/04/15 0:00', '26/05/15 0:00', '26/06/15 0:00', '26/07/15 0:00', '26/08/15 0:00', '26/09/15 0:00', '26/09/16 0:00', '26/10/15 0:00', '26/11/14 0:00', '26/11/15 0:00', '27/01/15 0:00', '27/02/15 0:00', '27/03/15 0:00', '27/04/15 0:00', '27/05/15 0:00', '27/06/15 0:00', '27/07/15 0:00', '27/08/15 0:00', '27/08/16 0:00', '27/09/15 0:00', '27/10/15 0:00', '27/11/14 0:00', '27/11/15 0:00', '28/01/15 0:00', '28/02/15 0:00', '28/03/15 0:00', '28/04/15 0:00', '28/05/15 0:00', '28/06/15 0:00', '28/07/15 0:00', '28/08/15 0:00', '28/09/15 0:00', '28/10/15 0:00', '28/11/14 0:00', '28/11/15 0:00', '29/01/15 0:00', '29/04/15 0:00', '29/05/15 0:00', '29/06/15 0:00', '29/07/15 0:00', '29/08/15 0:00', '29/09/15 0:00', '29/10/15 0:00', '29/11/14 0:00', '29/11/15 0:00', '29/6/0215 00:00:00', '3', '3/01/15 0:00', '3/02/15 0:00', '3/03/15 0:00', '3/04/15 0:00', '3/05/15 0:00', '3/06/15 0:00', '3/07/15 0:00', '3/08/15 0:00', '3/09/15 0:00', '3/10/15 0:00', '3/11/15 0:00', '3/12/14 0:00', '30/01/15 0:00', '30/03/15 0:00', '30/04/15 0:00', '30/05/15 0:00', '30/06/15 0:00', '30/07/15 0:00', '30/08/15 0:00', '30/09/15 0:00', '30/09/16 0:00', '30/10/15 0:00', '30/11/14 0:00', '31/01/15 0:00', '31/03/15 0:00', '31/05/15 0:00', '31/07/15 0:00', '31/08/15 0:00', '31/10/15 0:00', '4/01/15 0:00', '4/02/15 0:00', '4/03/15 0:00', '4/04/15 0:00', '4/05/15 0:00', '4/06/15 0:00', '4/07/15 0:00', '4/08/15 0:00', '4/09/15 0:00', '4/10/15 0:00', '4/11/15 0:00', '4/12/14 0:00', '5/01/15 0:00', '5/02/15 0:00', '5/03/15 0:00', '5/04/15 0:00', '5/05/15 0:00', '5/06/15 0:00', '5/07/15 0:00', '5/08/15 0:00', '5/09/15 0:00', '5/10/15 0:00', '5/11/15 0:00', '5/12/14 0:00', '5/12/15 0:00', '6/01/15 0:00', '6/02/15 0:00', '6/03/15 0:00', '6/05/15 0:00', '6/06/15 0:00', '6/07/15 0:00', '6/09/15 0:00', '6/10/15 0:00', '6/11/14 0:00', '6/11/15 0:00', '6/12/14 0:00', '6/12/15 0:00', '7/01/15 0:00', '7/02/15 0:00', '7/03/15 0:00', '7/04/15 0:00', '7/05/15 0:00', '7/06/15 0:00', '7/07/15 0:00', '7/08/15 0:00', '7/09/15 0:00', '7/10/15 0:00', '7/11/14 0:00', '7/11/15 0:00', '7/12/14 0:00', '7/12/15 0:00', '8/01/15 0:00', '8/02/12 0:00', '8/02/15 0:00', '8/03/15 0:00', '8/04/15 0:00', '8/05/15 0:00', '8/06/15 0:00', '8/07/15 0:00', '8/08/15 0:00', '8/09/15 0:00', '8/10/15 0:00', '8/11/14 0:00', '8/11/15 0:00', '8/12/14 0:00', '9/01/15 0:00', '9/02/15 0:00', '9/03/15 0:00', '9/04/15 0:00', '9/05/15 0:00', '9/06/15 0:00', '9/07/15 0:00', '9/08/15 0:00', '9/09/15 0:00', '9/10/15 0:00', '9/11/14 0:00', '9/11/15 0:00', '9/12/14 0:00', '9/12/15 0:00']</t>
         </is>
@@ -779,11 +813,11 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>date</t>
+          <t>string</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -839,12 +873,18 @@
         </is>
       </c>
       <c r="T6" t="n">
+        <v>145</v>
+      </c>
+      <c r="U6" t="n">
+        <v>1</v>
+      </c>
+      <c r="V6" t="n">
         <v>58660</v>
       </c>
-      <c r="U6" t="n">
+      <c r="W6" t="n">
         <v>386</v>
       </c>
-      <c r="V6" t="inlineStr">
+      <c r="X6" t="inlineStr">
         <is>
           <t>['1/01/16 0:00', '1/02/16 0:00', '1/03/16 0:00', '1/04/16 0:00', '1/05/16 0:00', '1/06/16 0:00', '1/07/16 0:00', '1/08/16 0:00', '1/09/16 0:00', '1/10/16 0:00', '1/11/16 0:00', '1/12/15 0:00', '10/01/16 0:00', '10/02/16 0:00', '10/03/16 0:00', '10/04/16 0:00', '10/05/16 0:00', '10/06/16 0:00', '10/07/16 0:00', '10/08/16 0:00', '10/09/16 0:00', '10/10/16 0:00', '10/11/15 0:00', '10/11/16 0:00', '10/12/15 0:00', '10/12/16 0:00', '11/01/16 0:00', '11/02/16 0:00', '11/03/16 0:00', '11/04/16 0:00', '11/05/16 0:00', '11/06/16 0:00', '11/07/16 0:00', '11/08/16 0:00', '11/09/16 0:00', '11/10/16 0:00', '11/11/15 0:00', '11/11/16 0:00', '11/12/15 0:00', '11/12/16 0:00', '12/01/16 0:00', '12/02/16 0:00', '12/03/16 0:00', '12/04/16 0:00', '12/05/16 0:00', '12/06/16 0:00', '12/07/16 0:00', '12/08/16 0:00', '12/09/16 0:00', '12/10/16 0:00', '12/11/15 0:00', '12/12/15 0:00', '12/12/16 0:00', '13/01/16 0:00', '13/02/16 0:00', '13/03/16 0:00', '13/04/16 0:00', '13/05/16 0:00', '13/06/16 0:00', '13/07/16 0:00', '13/08/16 0:00', '13/09/16 0:00', '13/10/16 0:00', '13/11/15 0:00', '13/11/16 0:00', '13/12/15 0:00', '13/12/16 0:00', '14/01/16 0:00', '14/02/16 0:00', '14/03/16 0:00', '14/04/16 0:00', '14/05/16 0:00', '14/06/16 0:00', '14/07/16 0:00', '14/08/16 0:00', '14/10/16 0:00', '14/11/15 0:00', '14/11/16 0:00', '14/12/15 0:00', '15/01/16 0:00', '15/02/16 0:00', '15/03/16 0:00', '15/04/16 0:00', '15/05/16 0:00', '15/05/17 0:00', '15/06/16 0:00', '15/07/16 0:00', '15/08/16 0:00', '15/09/16 0:00', '15/10/16 0:00', '15/11/15 0:00', '15/12/15 0:00', '16/01/16 0:00', '16/02/16 0:00', '16/03/16 0:00', '16/04/16 0:00', '16/05/16 0:00', '16/06/16 0:00', '16/07/16 0:00', '16/08/16 0:00', '16/09/16 0:00', '16/10/16 0:00', '16/12/15 0:00', '17/01/16 0:00', '17/02/16 0:00', '17/03/16 0:00', '17/04/16 0:00', '17/05/16 0:00', '17/06/16 0:00', '17/07/16 0:00', '17/08/16 0:00', '17/09/16 0:00', '17/10/16 0:00', '17/11/15 0:00', '17/11/16 0:00', '17/12/15 0:00', '18/01/16 0:00', '18/02/16 0:00', '18/03/16 0:00', '18/04/16 0:00', '18/05/16 0:00', '18/06/16 0:00', '18/07/16 0:00', '18/08/16 0:00', '18/09/16 0:00', '18/10/16 0:00', '18/11/15 0:00', '18/11/16 0:00', '18/12/15 0:00', '19/01/16 0:00', '19/02/16 0:00', '19/03/16 0:00', '19/04/16 0:00', '19/05/16 0:00', '19/06/16 0:00', '19/07/16 0:00', '19/08/16 0:00', '19/09/16 0:00', '19/10/16 0:00', '19/11/15 0:00', '19/11/16 0:00', '19/12/15 0:00', '2/01/16 0:00', '2/02/16 0:00', '2/03/16 0:00', '2/04/16 0:00', '2/05/16 0:00', '2/06/16 0:00', '2/07/16 0:00', '2/08/16 0:00', '2/09/16 0:00', '2/10/16 0:00', '2/11/16 0:00', '2/12/15 0:00', '20/01/16 0:00', '20/02/16 0:00', '20/03/16 0:00', '20/04/16 0:00', '20/05/16 0:00', '20/06/16 0:00', '20/07/16 0:00', '20/08/16 0:00', '20/09/16 0:00', '20/10/16 0:00', '20/11/15 0:00', '20/11/16 0:00', '20/12/15 0:00', '21/01/16 0:00', '21/02/16 0:00', '21/03/16 0:00', '21/04/16 0:00', '21/05/16 0:00', '21/06/16 0:00', '21/07/16 0:00', '21/08/16 0:00', '21/09/16 0:00', '21/10/16 0:00', '21/11/15 0:00', '21/11/16 0:00', '21/12/15 0:00', '22/01/16 0:00', '22/02/16 0:00', '22/03/16 0:00', '22/04/16 0:00', '22/05/16 0:00', '22/06/16 0:00', '22/07/16 0:00', '22/08/16 0:00', '22/09/16 0:00', '22/10/16 0:00', '22/11/15 0:00', '22/11/16 0:00', '22/12/15 0:00', '23/01/16 0:00', '23/03/16 0:00', '23/04/16 0:00', '23/05/16 0:00', '23/06/16 0:00', '23/07/16 0:00', '23/08/16 0:00', '23/09/16 0:00', '23/10/16 0:00', '23/11/15 0:00', '23/11/16 0:00', '23/12/15 0:00', '24/01/16 0:00', '24/02/16 0:00', '24/03/16 0:00', '24/04/16 0:00', '24/05/16 0:00', '24/06/16 0:00', '24/07/16 0:00', '24/09/16 0:00', '24/10/16 0:00', '24/11/15 0:00', '24/11/16 0:00', '25/01/16 0:00', '25/02/16 0:00', '25/03/16 0:00', '25/04/16 0:00', '25/05/16 0:00', '25/06/16 0:00', '25/07/16 0:00', '25/08/16 0:00', '25/09/16 0:00', '25/10/16 0:00', '25/11/15 0:00', '25/11/16 0:00', '26/01/16 0:00', '26/02/16 0:00', '26/03/16 0:00', '26/04/16 0:00', '26/05/16 0:00', '26/06/16 0:00', '26/07/16 0:00', '26/08/16 0:00', '26/09/16 0:00', '26/10/16 0:00', '26/11/15 0:00', '26/11/16 0:00', '27/01/16 0:00', '27/02/16 0:00', '27/03/16 0:00', '27/04/16 0:00', '27/05/16 0:00', '27/06/16 0:00', '27/07/16 0:00', '27/08/16 0:00', '27/09/16 0:00', '27/10/16 0:00', '27/11/15 0:00', '27/11/16 0:00', '28/01/16 0:00', '28/02/16 0:00', '28/04/16 0:00', '28/05/16 0:00', '28/06/16 0:00', '28/07/16 0:00', '28/08/16 0:00', '28/09/16 0:00', '28/10/16 0:00', '28/11/15 0:00', '28/11/16 0:00', '29/01/16 0:00', '29/02/16 0:00', '29/03/16 0:00', '29/04/16 0:00', '29/05/16 0:00', '29/06/16 0:00', '29/07/16 0:00', '29/08/16 0:00', '29/09/16 0:00', '29/09/17 0:00', '29/10/16 0:00', '29/11/15 0:00', '3', '3/01/16 0:00', '3/02/16 0:00', '3/03/16 0:00', '3/04/16 0:00', '3/05/16 0:00', '3/06/16 0:00', '3/07/16 0:00', '3/08/16 0:00', '3/09/16 0:00', '3/10/16 0:00', '3/11/16 0:00', '3/12/15 0:00', '30/01/16 0:00', '30/03/16 0:00', '30/04/16 0:00', '30/05/16 0:00', '30/06/16 0:00', '30/07/16 0:00', '30/08/16 0:00', '30/09/16 0:00', '30/10/16 0:00', '30/11/15 0:00', '30/11/16 0:00', '31/01/16 0:00', '31/03/16 0:00', '31/05/16 0:00', '31/07/16 0:00', '31/08/16 0:00', '31/10/16 0:00', '31/12/15 0:00', '4/01/16 0:00', '4/02/16 0:00', '4/03/16 0:00', '4/04/16 0:00', '4/05/16 0:00', '4/06/16 0:00', '4/07/16 0:00', '4/08/16 0:00', '4/09/16 0:00', '4/10/16 0:00', '4/11/16 0:00', '4/12/15 0:00', '4/12/16 0:00', '5/01/16 0:00', '5/02/16 0:00', '5/03/16 0:00', '5/05/16 0:00', '5/06/16 0:00', '5/07/16 0:00', '5/09/16 0:00', '5/10/16 0:00', '5/11/15 0:00', '5/11/16 0:00', '5/12/15 0:00', '5/12/16 0:00', '565711', '6/01/16 0:00', '6/02/16 0:00', '6/03/16 0:00', '6/04/16 0:00', '6/05/16 0:00', '6/06/16 0:00', '6/07/16 0:00', '6/08/16 0:00', '6/09/16 0:00', '6/10/16 0:00', '6/11/15 0:00', '6/11/16 0:00', '6/12/15 0:00', '6/12/16 0:00', '7/01/16 0:00', '7/02/16 0:00', '7/03/16 0:00', '7/04/16 0:00', '7/05/16 0:00', '7/06/16 0:00', '7/07/16 0:00', '7/08/16 0:00', '7/09/16 0:00', '7/10/16 0:00', '7/11/15 0:00', '7/11/16 0:00', '7/12/15 0:00', '8/01/16 0:00', '8/02/16 0:00', '8/03/16 0:00', '8/04/16 0:00', '8/05/16 0:00', '8/06/16 0:00', '8/07/16 0:00', '8/08/16 0:00', '8/09/16 0:00', '8/10/16 0:00', '8/11/15 0:00', '8/11/16 0:00', '8/12/15 0:00', '8/12/16 0:00', '9/01/16 0:00', '9/02/16 0:00', '9/03/16 0:00', '9/04/16 0:00', '9/05/16 0:00', '9/06/16 0:00', '9/07/16 0:00', '9/08/16 0:00', '9/09/16 0:00', '9/10/16 0:00', '9/11/15 0:00', '9/11/16 0:00', '9/12/15 0:00']</t>
         </is>
@@ -857,11 +897,11 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>-1</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -917,12 +957,18 @@
         </is>
       </c>
       <c r="T7" t="n">
+        <v>1185</v>
+      </c>
+      <c r="U7" t="n">
+        <v>0</v>
+      </c>
+      <c r="V7" t="n">
         <v>62425</v>
       </c>
-      <c r="U7" t="n">
+      <c r="W7" t="n">
         <v>147</v>
       </c>
-      <c r="V7" t="inlineStr">
+      <c r="X7" t="inlineStr">
         <is>
           <t>['0', 'Audi A3', 'Audi A4', 'Audi A6', 'BMW 316', 'BMW 318', 'BMW 320D', 'BMW 520', 'BMW 530D', 'Chevrolet Cruze', 'Chevrolet EPICA', 'Chevrolet Lacetti', 'Chevrolet Orlando', 'Chrysler Grand Voyager', 'Chrysler Voyager', 'Citroen Berlingo', 'Citroen Berlingo MSP', 'Citroen C3', 'Citroen C4', 'Citroen C5', 'Citroen C8', 'Citroen Dispatch', 'Citroen Picasso', 'Citroen Relay', 'Citroen Xsara', 'Dacia Logan', 'Dacia Sandero', 'Dacia Sandero Ambiance 1.5 dCi 90', 'Fiat Doblo', 'Fiat Doblo Automot Grp', 'Fiat Ducato', 'Fiat Eurocab', 'Fiat Scudo Panor MPV', 'Fiat TW 200', 'Ford C-Max', 'Ford Focus', 'Ford Galaxy', 'Ford Minibus', 'Ford Mondeo', 'Ford S-Max', 'Ford Tourneo', 'Ford Transit', 'Ford Transit 130', 'Honda Accord', 'Honda Civic', 'Hyundai 130', 'Hyundai 1800', 'Hyundai I40', 'Infiniti Q50 SE D', 'Jaguar X Type', 'Kia Ceed', 'Kia Optima', 'Kia Sedona', 'LDV 400', 'LDV 400 Convoy', 'LDV Maxus 120 LWB', 'LTI TXII', 'LTI TXIV', 'Lexus IS220D', 'Mazda 3TS2D', 'Mazda 6 S', 'Mazda 6TS2', 'Mercedes 208 Traveliner', 'Mercedes 220', 'Mercedes 515', 'Mercedes Ambiente', 'Mercedes C180', 'Mercedes C200', 'Mercedes C250', 'Mercedes E200', 'Mercedes E250D', 'Mercedes Sprinter', 'Mercedes Viano', 'Mercedes Vito', 'Mitsubishi Grandis', 'Mitsubishi Lancer', 'Nissan Almera', 'Nissan Note', 'Nissan Primera', 'Nissan Tiida', 'Peugeot 3008', 'Peugeot 307', 'Peugeot 308', 'Peugeot 407', 'Peugeot 508', 'Peugeot 807', 'Peugeot Bipper Tepee', 'Peugeot Boxer', 'Peugeot E7', 'Peugeot Euro 7', 'Peugeot Eurobus Plus', 'Peugeot European', 'Peugeot G9 E7 Euro', 'Peugeot Partner Combi', 'Peugeot Premier', 'Proton  Impian', 'Proton  Persona', 'Proton GLS', 'Proton Gen', 'Renault Espace', 'Renault Laguna', 'Renault Master', 'Renault Master T35', 'Renault Megane', 'Renault Scenic', 'Renault Traffic', 'Saab 9-5 VECTOR', 'Saab 93', 'Saab 95', 'Seat Alhambra', 'Seat Altea', 'Seat Exeo', 'Seat Leon', 'Seat Toledo', 'Skoda Fabia', 'Skoda Octavia', 'Skoda Rapid', 'Skoda Rooster', 'Skoda Superb', 'Skoda Yeti', 'Toyota Auris', 'Toyota Avensis', 'Toyota Avensis Verso', 'Toyota Corolla', 'Toyota Hiace', 'Toyota Prius', 'Vauxhall Astra', 'Vauxhall Insignia', 'Vauxhall Movano', 'Vauxhall Vectra', 'Vauxhall Vivaro', 'Volkswagen Caddy Maxi', 'Volkswagen Crafter', 'Volkswagen Golf', 'Volkswagen Jetta', 'Volkswagen LT35', 'Volkswagen Passat', 'Volkswagen Sharan', 'Volkswagen Shuttle', 'Volkswagen T-Sporter T30', 'Volkswagen Transporter', 'VolkswagenPhaeton', 'Volvo S40', 'Volvo S60', 'Volvo S80', 'Volvo V50', 'Volvo V70']</t>
         </is>
@@ -935,11 +981,11 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>-1</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -991,12 +1037,18 @@
       </c>
       <c r="S8" t="inlineStr"/>
       <c r="T8" t="n">
+        <v>4</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
         <v>32021</v>
       </c>
-      <c r="U8" t="n">
+      <c r="W8" t="n">
         <v>4599</v>
       </c>
-      <c r="V8" t="inlineStr">
+      <c r="X8" t="inlineStr">
         <is>
           <t>['0', '0Y60TGK', '24YAN', '579ASM', 'A17FLK', 'A17RYF', 'A17THR', 'A19BFR', 'A2AAR', 'A3YSX', 'A51FAD', 'A5EMK', 'A5YHA', 'A8BYD', 'A8KRM', 'AA08DPU', 'AA08HXW', 'AA54RRR', 'AA58GAR', 'AAH11L', 'AB08CWK', 'AB08NHH', 'AB08OWA', 'AB10BOS', 'AB10DUK', 'AB10SSS', 'AC08EHV', 'AC08ESV', 'AC08UKO', 'AC08VJP', 'AC08XSA', 'AD07BFF', 'AD07UFS', 'AD09FZJ', 'AD09KTF', 'AD09UXC', 'AD09ZDH', 'AD11CZX', 'AD59GZA', 'AD59GZH', 'AD59THK', 'AD59XKJ', 'AD59XNX', 'AE08AEH', 'AE08HUD', 'AE10MHM', 'AE55XYG', 'AE56DFY', 'AE56ECN', 'AE56RLY', 'AE57RYK', 'AE58YZH', 'AE58ZCK', 'AF02ALL', 'AF07XZD', 'AF09SGY', 'AF09UPY', 'AF09URW', 'AF09UTB', 'AF10JVU', 'AF10JWJ', 'AF10UDB', 'AF10XHS', 'AF11KNA', 'AF12GPV', 'AF12GPX', 'AF14SOA', 'AF55XMD', 'AF57VHL', 'AF57WPN', 'AF58EEZ', 'AF58EYJ', 'AF58MVO', 'AF58OWZ', 'AF58PCV', 'AF58ZKL', 'AF58ZLN', 'AF58ZWC', 'AF59OCE', 'AF59WWR', 'AF59XWZ', 'AF59XXL', 'AF59XYE', 'AF59YAU', 'AF59YBE', 'AF59YDL', 'AF59YEK', 'AF59YFD', 'AF59YFU', 'AF59YFX', 'AF59YOG', 'AF59YSD', 'AF59YUW', 'AF59YWB', 'AF59YWS', 'AF60TXS', 'AF60VCM', 'AF61HBC', 'AF63NTN', 'AFZ9811', 'AG07UPV', 'AG08HTJ', 'AG09BYC', 'AG09CXJ', 'AG09FMX', 'AG09FNH', 'AG09FTX', 'AG10XVE', 'AG58FTK', 'AG58OEV', 'AJ06ZYZ', 'AJ07KCE', 'AJ08AMC', 'AJ09GXG', 'AJ09GYY', 'AJ09SSO', 'AJ09SVW', 'AJ09TFX', 'AJ09WEU', 'AJ09XWL', 'AJ10RPX', 'AJ10UJO', 'AJ10UMV', 'AJ55AEZ', 'AJ55AFN', 'AJ56AFF', 'AJ57EUW', 'AJ57VPY', 'AJ58CPY', 'AJ58CVN', 'AJ59WPT', 'AJ59WYO', 'AK06NHD', 'AK06ZNS', 'AK07FNR', 'AK07NVC', 'AK09MWY', 'AK09MXG', 'AK09MXR', 'AK09NAE', 'AK09NFX', 'AK09NJU', 'AK09NKZ', 'AK09RWZ', 'AK09YJV', 'AK10CYV', 'AK10HNA', 'AK10NCN', 'AK10NCY', 'AK10WSN', 'AK10WSV', 'AK10WTE', 'AK11MBX', 'AK11XEM', 'AK11XWV', 'AK12MKF', 'AK14HTP', 'AK56FYM', 'AK58EDC', 'AK58EET', 'AK58EKW', 'AK58EMF', 'AK58HBB', 'AK58HBE', 'AK58HDO', 'AK58HFB', 'AK58HJU', 'AK59DLV', 'AK59DOJ', 'AK59VKL', 'AK60AEG', 'AK60FPT', 'AK60FPU', 'AK60WLZ', 'AK61RHZ', 'AL52STU', 'AM58HHX', 'AM58HWC', 'AM58JGX', 'AMA8N', 'AN57ARM', 'ANS333R', 'AO10FZW', 'AO10KCN', 'AO10TZN', 'AO11ABU', 'AO12XDT', 'AO55CFX', 'AO60KWV', 'AO61TXS', 'AP07DJX', 'AP08SOJ', 'AP63GRX', 'AR05HHH', 'AR07OVL', 'AT57MWX', 'AU07OAL', 'AV09UKR', 'AV11BVN', 'AV11EWM', 'AV11HTG', 'AV56LHF', 'AV58MYT', 'AV58OCE', 'AV61CXD', 'AV61DJO', 'AV61KTF', 'AX12HZK', 'AX60DVL', 'AY11XXD', 'AY56XNE', 'AY61WBU', 'B14NRS', 'B17NEE', 'B2LUS', 'B4TUO', 'B9YNP', 'BA04LAA', 'BAZ 2450', 'BD06WPN', 'BD07FFA', 'BD07PXJ', 'BD08XWA', 'BD10UFB', 'BD11URV', 'BD15SZJ', 'BD55KEU', 'BD57RNE', 'BD57VSJ', 'BD58BWL', 'BD58BWM', 'BD58DXW', 'BD58LKY', 'BD58UAK', 'BD59NWM', 'BD61BXF', 'BD62HZH', 'BEZ8249', 'BF08SKZ', 'BF08XFO', 'BF10FHA', 'BF10HBA', 'BF10HGO', 'BF12KYU', 'BF58HCV', 'BF58XMJ', 'BF60OJC', 'BF61HDX', 'BF61NWL', 'BG06KHY', 'BG07LGD', 'BG08GZC', 'BG08HRZ', 'BG08NXD', 'BG08YKB', 'BG09KJF', 'BG10ARU', 'BG10AYA', 'BG11EDU', 'BG11HMH', 'BG12FXU', 'BG14GVY', 'BG15XAO', 'BG55CYJ', 'BG56FSL', 'BG57RVU', 'BG58EDP', 'BG58KLE', 'BG60UOU', 'BG61ODX', 'BG62AAY', 'BH04BAR', 'BJ07FHF', 'BJ09TUU', 'BJ10AZN', 'BJ10CEA', 'BJ10JHU', 'BJ10UTP', 'BJ10WVY', 'BJ10ZNO', 'BJ11UKV', 'BJ11WYB', 'BJ12BVC', 'BJ57DDU', 'BJ58DMY', 'BJ58ECY', 'BJ58EFY', 'BJ58EMV', 'BJ58VKP', 'BJ58WYH', 'BJ59LRZ', 'BJ59PZB', 'BJ59XTO', 'BJ59ZGN', 'BJ59ZVF', 'BJ61DXB', 'BK07LBL', 'BK07XHF', 'BK08TXF', 'BK09KWB', 'BK10LMY', 'BK10TMY', 'BK10ZWF', 'BK11BVY', 'BK12WBE', 'BK57UPW', 'BK58DYC', 'BK58DZR', 'BK58YVZ', 'BK59BWM', 'BK60GZB', 'BK60GZE', 'BK60KBJ', 'BK60MYT', 'BK61ZXW', 'BK65YSG', 'BK65YSH', 'BL10EUV', 'BL10KSU', 'BL10MLF', 'BL11MHZ', 'BL11YMD', 'BL11ZHM', 'BL14EHE', 'BL14JXH', 'BL14YAV', 'BL15CCJ', 'BL55TXZ', 'BL56KVC', 'BL56VZT', 'BL57VLE', 'BN07GLF', 'BN09VTO', 'BN09YUL', 'BN10CUY', 'BN10GWX', 'BN10OTP', 'BN10OUL', 'BN10OWF', 'BN11NRE', 'BN57BVD', 'BN57FXD', 'BN57YJW', 'BN58ALU', 'BN58FAJ', 'BN58LCX', 'BN58XNT', 'BN59BGX', 'BN59NLX', 'BN59YLE', 'BN60DOA', 'BN60GDU', 'BN60JZA', 'BN60VPX', 'BN61KSK', 'BOO5SAG', 'BP07AHD', 'BP08EMK', 'BP08EXM', 'BP55XEM', 'BT07YMZ', 'BT08HJK', 'BT10CKV', 'BT11AJY', 'BT13ONU', 'BT57FMY', 'BT57HYX', 'BT57XKY', 'BT60HRE', 'BT60KWV', 'BT61HXM', 'BT61XTX', 'BU11TTZ', 'BU53UBW', 'BU63LDL', 'BV10CNU', 'BV10OYB', 'BV10OZE', 'BV10TKO', 'BV10XUN', 'BV10XZU', 'BV14KSY', 'BV53EMJ', 'BV56NBX', 'BV58NDG', 'BV58TKJ', 'BV58VGL', 'BV58YMW', 'BV60COH', 'BV60JNX', 'BV60MJX', 'BV60PZN', 'BV60ZWH', 'BV60ZWJ', 'BV60ZXR', 'BV60ZXT', 'BV61OYU', 'BW11AFY', 'BW11EWM', 'BW57GZP', 'BX08YEV', 'BX09MZG', 'BX09MZL', 'BX10ALO', 'BX10KMF', 'BX10LME', 'BX10LML', 'BX13YCF', 'BX58MUU', 'BX58OEK', 'BX58OEL', 'BX58OEP', 'BX58OHH', 'BX58OKJ', 'BX58ORA', 'BX58ORC', 'BX58PXY', 'BX59BZE', 'BX59CMY', 'BX59JLU', 'BX59PVT', 'BX59PWJ', 'BX60DVP', 'C18TCW', 'C5TTW', 'C654KEB', 'CA07OCS', 'CA10CKU', 'CA11SJK', 'CA58BYG', 'CA59FOU', 'CA59FPF', 'CA59FPP', 'CA59KGY', 'CE10LZN', 'CE12XTT', 'CE12ZHL', 'CE13XOX', 'CE58JNO', 'CE58NYD', 'CE58ULC', 'CE59YBN', 'CE60EVC', 'CE60EVW', 'CE60HPC', 'CE60YSN', 'CEZ786', 'CFZ6173', 'CH05JAT', 'CK06VKT', 'CK09WWV', 'CK57PWE', 'CK57SXJ', 'CK61KZT', 'CK61ZFS', 'CN57HVZ', 'CN58LWV', 'CN59ZCL', 'CP10OEC', 'CP15LVN', 'CP57OAD', 'CP61EFB', 'CRZ1871', 'CU09ZSP', 'CU58DWX', 'CV09DHM', 'CV10VMA', 'CV11UJZ', 'CV59EKZ', 'CV60NYY', 'CV61UCF', 'CV62MZE', 'CX59AJV', 'CY12FSG', 'CY60EWO', 'D17NYY', 'D17UDX', 'D1NYL', 'DA09MTK', 'DA10AAF', 'DA10EES', 'DA10GLY', 'DA10OHY', 'DA10VJY', 'DA10VJZ', 'DA10VKO', 'DA11GPZ', 'DA11JYR', 'DA13SXF', 'DA57AOV', 'DA59WCR', 'DA60NRN', 'DA61CPU', 'DA61ZCO', 'DAU400D', 'DC06CRF', 'DE07UUG', 'DE09ACV', 'DE09CLN', 'DE09TDU', 'DE10ECW', 'DE10GNZ', 'DE10OCV', 'DE10OCW', 'DE10ULA', 'DE10VZS', 'DE10YPP', 'DE10YXY', 'DE11EGK', 'DE12EHP', 'DE57WUB', 'DE58BAV', 'DE58HUP', 'DE58RKX', 'DE58YSF', 'DE59WYL', 'DE59WZB', 'DE60HCH', 'DE60KLJ', 'DE60OCX', 'DE60ONK', 'DE60PTZ', 'DE61DYC', 'DE61TFU', 'DF07LHG', 'DF09EKM', 'DF10FKT', 'DF11BXD', 'DF11HAA', 'DF11KSU', 'DF11LGO', 'DF11OHD', 'DF14KXT', 'DF61KFU', 'DF61PLZ', 'DG07EHD', 'DG07EZR', 'DG07FCO', 'DG07ZXJ', 'DG09MDO', 'DG09UEZ', 'DG09VGE', 'DG09YOE', 'DG09ZGK', 'DG10BSX', 'DG10OHC', 'DG10YFO', 'DG11AJU', 'DG11EHC', 'DG11KFT', 'DG12BHP', 'DG14XDE', 'DG55XFH', 'DG58AMV', 'DG58LVA', 'DG58VPV', 'DG59YFE', 'DG59YYT', 'DG60EDO', 'DG60EEH', 'DG60EEX', 'DG60EFR', 'DG60VMX', 'DG60VMY', 'DG60VUW', 'DG60ZDK', 'DG60ZFA', 'DG61ACX', 'DG61AEN', 'DG61CZW', 'DG61ZJO', 'DK09EKW', 'DK09WKE', 'DK09YOO', 'DK11ADO', 'DK12UVD', 'DK57YAH', 'DK58CPN', 'DK58UAY', 'DK58UWR', 'DK59XLS', 'DK60YZE', 'DK64KLM', 'DK64YDA', 'DL10GBU', 'DL10URY', 'DL10URZ', 'DL13ESV', 'DL63YVV', 'DN06EWH', 'DN07XRO', 'DN08AHO', 'DN08CCU', 'DN08MZF', 'DN09WTP', 'DN10JVH', 'DN12AXV', 'DN58DFX', 'DN58GOX', 'DN58PTU', 'DN62GWY', 'DN62GWZ', 'DO55SAJ', 'DP10NLN', 'DP10OCE', 'DP11PBV', 'DR54LYM', 'DRZ4161', 'DS08TWJ', 'DS09AKP', 'DS11AZC', 'DS56BAV', 'DS57JVH', 'DS57WMA', 'DS60HJD', 'DS60HTJ', 'DU08AZV', 'DU09PFE', 'DU10LRL', 'DU11FGV', 'DU11KLO', 'DU11VUT', 'DU12EFV', 'DU12NXZ', 'DU12RXV', 'DU13AOS', 'DU55TEO', 'DU56LSN', 'DU58FVX', 'DU58KJO', 'DU58KLJ', 'DU58TXH', 'DU58UOD', 'DU58YOG', 'DU60GYT', 'DU60HFN', 'DU60YMV', 'DU61EFN', 'DV05FYB', 'DV08NZU', 'DV10DTY', 'DV10KFC', 'DV11DVB', 'DV11TXY', 'DV11XUT', 'DV55UEK', 'DV56TSU', 'DV57NLO', 'DV57OAU', 'DV58TNF', 'DV58TVO', 'DV58UST', 'DV58UZG', 'DV58VJX', 'DV58XKB', 'DV58YVK', 'DV59CFY', 'DV59LNK', 'DV59NFT', 'DV59NWM', 'DV59WWL', 'DV60KCU', 'DX56SOE', 'DY05WMD', 'DY08SVO', 'DY09NUE', 'DY10AXO', 'DY10BUO', 'DY11EXV', 'DY11FKB', 'DY12VFL', 'DY57WRO', 'DY58GCZ', 'DY58GDV', 'DY58OFU', 'DY58SBV', 'DY60WPO', 'DY61HBZ', 'DY61MYV', 'DY62SZE', 'E2EET', 'E5TFA', 'EA07WVE', 'EA08OZX', 'EA10NMZ', 'EA10OKZ', 'EA11FNC', 'EA11WGO', 'EA59JZC', 'EA60AKG', 'EA60UPW', 'EA61NMK', 'EA62XGJ', 'EBR411M', 'EF10GSO', 'EF10GSV', 'EF10LUY', 'EF11AOC', 'EF11VRX', 'EF12EFL', 'EF12FNA', 'EF12FNC', 'EF12FNV', 'EF12FNW', 'EF56XKP', 'EF57FBY', 'EF57YVO', 'EF59DJV', 'EF59HKW', 'EF59OVM', 'EF59WGM', 'EF62VTD', 'EF62VTJ', 'EFZ7169', 'EJ07UCT', 'EJ07WPE', 'EJ10LBP', 'EJ11HXF', 'EJ11XHD', 'EJ12TGN', 'EJ58KRU', 'EJ60RYN', 'EJ60YFZ', 'EJ61FWY', 'EJ61HSL', 'EK07AHJ', 'EK07ERX', 'EK08ZVJ', 'EK08ZVX', 'EK11SPU', 'EK58LVJ', 'EK58RWY', 'EK59KZM', 'EK61YWS', 'EN10YTR', 'EN11JNL', 'EO05XWK', 'EO06WZJ', 'EO08UMY', 'EO08UNU', 'EO08UOE', 'EO09AOG', 'EO09AVX', 'EO10ETD', 'EO11LFM', 'EO11YLW', 'EO59GJG', 'EO59HLV', 'EO61AOS', 'EO62UEX', 'ET06GMG', 'ET07NYW', 'ET57JJF', 'EU09GDJ', 'EX07MJV', 'EX08SBU', 'EX09BXW', 'EX10AWZ', 'EX10UHK', 'EX10WTR', 'EX10ZXV', 'EX11GNU', 'EX13OXJ', 'EX13OXK', 'EX13OXR', 'EX13XER', 'EX13XFG', 'EX13XFH', 'EX57NPO', 'EX57OJL', 'EX58AOO', 'EX58EFJ', 'EX58FYS', 'EX60HFS', 'EX60LWJ', 'EX60ZVT', 'EX61LNF', 'EX61ZTP', 'EX62EDK', 'EX62VYW', 'EY08YDA', 'EY09PFO', 'EY11NJO', 'EY11UVH', 'EY13AOG', 'EY13AOJ', 'EY13JCZ', 'EY58LSL', 'EY58OGU', 'EY58UZW', 'EY59WXL', 'EY62HTE', 'EY62HTF', 'EY62HTG', 'EY62HTJ', 'F13RHN', 'F3LUR', 'F4ROK', 'FA06BZB', 'FA07AVK', 'FA11EYM', 'FAZ7186', 'FB57FLG', 'FD05TZM', 'FD06BUP', 'FD07RHO', 'FD08KYS', 'FD08KYY', 'FD08RVU', 'FD08YLX', 'FD08YVP', 'FD08ZBU', 'FD10 UTZ', 'FD10NAO', 'FD10RWE', 'FD10WWU', 'FD10YYT', 'FD11GOK', 'FD11MVW', 'FD11SVU', 'FD11UGP', 'FD11VUY', 'FD12BSX', 'FD12CJX', 'FD12KUY', 'FD12LFX', 'FD57JNO', 'FD57NUO', 'FD59DKK', 'FD59EWA', 'FD59OZH', 'FD59WNB', 'FD59ZFW', 'FD60GJG', 'FD60NCY', 'FD60UCU', 'FD61BXZ', 'FD61CEX', 'FD61LVK', 'FE06UPF', 'FE08JMX', 'FE08TZP', 'FE08WEP', 'FE08XFX', 'FE09EBP', 'FE09MZP', 'FE09MZX', 'FE09TXO', 'FE09XFT', 'FE10ABV', 'FE10LZC', 'FE10PYT', 'FE11SWJ', 'FE11XAY', 'FE11XRX', 'FE11ZXF', 'FE12 DYU', 'FE56FZN', 'FE56MHZ', 'FE57BOV', 'FE57HDZ', 'FE57HKN', 'FE57RSU', 'FE57YXN', 'FE58AOL', 'FE58BJV', 'FE58FMJ', 'FE58KNB', 'FE59LVF', 'FE59WOC', 'FE60KFR', 'FE60KNJ', 'FE60KZM', 'FE60NXG', 'FE60SZY', 'FE61AOB', 'FE61CWW', 'FE61DVU', 'FE61FFK', 'FE61VRT', 'FE61XRG', 'FE64TSX', 'FG06FHS', 'FG06LMO', 'FG07GHO', 'FG07KDJ', 'FG07KXL', 'FG08COJ', 'FG08YON', 'FG09CVK', 'FG09FFO', 'FG09JUO', 'FG09KVZ', 'FG09YBM', 'FG10 HNZ', 'FG10ERK', 'FG10OPL', 'FG10TVK', 'FG10UUT', 'FG11HXN', 'FG11MDY', 'FG11UPP', 'FG11UUH', 'FG12LGN', 'FG55VLW', 'FG56MWD', 'FG57KNF', 'FG57VZY', 'FG58CKY', 'FG58DVW', 'FG58EHT', 'FG58GJV', 'FG58JLU', 'FG58JOH', 'FG58JTV', 'FG58MXC', 'FG58MXV', 'FG58MZP', 'FG58NEU', 'FG58NHB', 'FG58NJJ', 'FG58OCA', 'FG58OPF', 'FG58UAA', 'FG58UFA', 'FG58UHN', 'FG58XCP', 'FG58XEH', 'FG58XGO', 'FG58XMW', 'FG58XTA', 'FG58XYR', 'FG59AJO', 'FG59JXE', 'FG59TJU', 'FG59UCX', 'FG59UTJ', 'FG60EHO', 'FG60JGZ', 'FG60OTM', 'FG60XBC', 'FG60ZFA', 'FG61CLZ', 'FG61UJX', 'FG61VLS', 'FG61WHZ', 'FG61YJE', 'FG62VXB', 'FG62XHN', 'FG62XPH', 'FG65HYN', 'FH06KXE', 'FH07CMU', 'FH07XAF', 'FH08RTX', 'FH10NOU', 'FH10VBZ', 'FH11BZY', 'FH11PKU', 'FH12NJU', 'FH12NWJ', 'FH12NWS', 'FH13BWB', 'FH13XYM', 'FH13YJP', 'FH57EEY', 'FH57KXM', 'FH64ZSJ', 'FH64ZSP', 'FH64ZST', 'FJ09HYO', 'FJ09WGY', 'FJ11VDR', 'FJ59EUM', 'FJ59MKA', 'FJ59YKP', 'FJ63ZHN', 'FL06VGT', 'FL06XGO', 'FL08HPE', 'FL08UYB', 'FL09MZG', 'FL09WCT', 'FL10DPN', 'FL10JWY', 'FL10OLJ', 'FL10ORH', 'FL11BFO', 'FL11LWP', 'FL11NZE', 'FL11TZA', 'FL11YON', 'FL12OGU', 'FL12OJV', 'FL57SXX', 'FL57THF', 'FL58DDU', 'FL58EAO', 'FL58EWJ', 'FL58EYG', 'FL58FAJ', 'FL58JHY', 'FL58KYY', 'FL58MTF', 'FL58PRX', 'FL58RMZ', 'FL58TFV', 'FL58UAU', 'FL58UKC', 'FL58WEK', 'FL58YLC', 'FL58YMR', 'FL58YRJ', 'FL59BAO', 'FL59BZS', 'FL59DYA', 'FL59ENP', 'FL59FDC', 'FL59KXP', 'FL59UBJ', 'FL60CXT', 'FL60DVM', 'FL60EUH', 'FL60LUY', 'FL60LVC', 'FL60ONN', 'FL60XKY', 'FL60ZYR', 'FL61JPX', 'FL61KBJ', 'FL61KCY', 'FL61VCZ', 'FM07CYG', 'FM08LCF', 'FM08PYO', 'FM08RXZ', 'FM10CPN', 'FM57CSX', 'FM64YVB', 'FN07LYG', 'FN08GZM', 'FN08UEL', 'FN08UZR', 'FN08VEA', 'FN08VTZ', 'FN08WBJ', 'FN08WDS', 'FN09JXA', 'FN09WYX', 'FN09XOZ', 'FN09YFY', 'FN09YLH', 'FN10HFC', 'FN10NHE', 'FN10OER', 'FN10OXG', 'FN11GVY', 'FN11LBF', 'FN11RUR', 'FN12KVV', 'FN12OTX', 'FN13ZDL', 'FN57ZGF', 'FN57ZKF', 'FN58HLH', 'FN58ZGU', 'FN59LHJ', 'FN59TYA', 'FN59VBB', 'FN59YSE', 'FN60UVU', 'FN60UWU', 'FN61KTF', 'FN61MKE', 'FN61ZFJ', 'FP06AXW', 'FP06HLX', 'FP06UAW', 'FP07LDD', 'FP08AZB', 'FP08RLO', 'FP08VRM', 'FP09EUD', 'FP09NUA', 'FP09VHR', 'FP09VPA', 'FP09ZPD', 'FP10BTO', 'FP10CAA', 'FP10EJV', 'FP10TDU', 'FP11BJO', 'FP11CAV', 'FP11EWX', 'FP11RZY', 'FP11TWA', 'FP11UVU', 'FP11XGS', 'FP12LJA', 'FP12WZB', 'FP55YWJ', 'FP56GSZ', 'FP58FEH', 'FP58GXU', 'FP58OGX', 'FP59DVJ', 'FP59UMS', 'FP59URH', 'FP59UZJ', 'FP60FGC', 'FP60OTA', 'FP60RZK', 'FP60VXC', 'FP60YHD', 'FP60ZPL', 'FP61EPF', 'FP62RHZ', 'FP62YRS', 'FR10EOK', 'FR10FVU', 'FR10FWT', 'FR10JDF', 'FR10JDJ', 'FR11CYS', 'FR11EZH', 'FR11HZC', 'FR11LYO', 'FR12VWU', 'FR13AAK', 'FR13AUL', 'FR13DVL', 'FR13JOA', 'FR13JRO', 'FR13OED', 'FR13OEY', 'FR13OFB', 'FR13OHV', 'FR13WVY', 'FR13XGS', 'FR13XGW', 'FR13XGZ', 'FR13XHC', 'FR13XHD', 'FR13XHE', 'FR13XHM', 'FR13XHU', 'FR13XJA', 'FR13XJF', 'FR13XJJ', 'FR13YPE', 'FR13YPL', 'FR13YSH', 'FR13YSN', 'FR13YSO', 'FR13YSP', 'FR13YSW', 'FRZ6836', 'FRZ6840', 'FRZ6841', 'FT08APV', 'FT10CVU', 'FT10GNF', 'FT10HVS', 'FT10HVW', 'FT10JSU', 'FT10JSV', 'FT10JSZ', 'FT10OCS', 'FT10ODC', 'FT10OEA', 'FT10OEB', 'FT10ZWW', 'FT11BHK', 'FT11FFU', 'FT11JUF', 'FT11TKE', 'FT12XDC', 'FT13WHD', 'FT13ZZR', 'FT60AOH', 'FT60PRX', 'FT60TCJ', 'FT61FVK', 'FT61FVL', 'FT61FVM', 'FT62CBU', 'FT62CBY', 'FT62CFG', 'FT62CFL', 'FT62CFM', 'FT62CFN', 'FT62CGO', 'FT62CKF', 'FT62CKG', 'FT62CKJ', 'FT62EYD', 'FT62EYF', 'FT62EYG', 'FT62EYH', 'FT62EYK', 'FT62EYM', 'FT62EYS', 'FT62EYU', 'FT62KFC', 'FT62KFF', 'FT62KFG', 'FT62KFJ', 'FT62KFK', 'FT62KFV', 'FT62KFY', 'FT62KGA', 'FT62KGE', 'FT62KGF', 'FT62KGJ', 'FT62KGK', 'FT62KGN', 'FT62KGP', 'FT62KGU', 'FT62KGZ', 'FT62KHA', 'FT62KHU', 'FT62KHW', 'FT62KHX', 'FT62KHZ', 'FT62KJA', 'FT62KJJ', 'FT62KMJ', 'FT62NPV', 'FT62NVY', 'FT62RUA', 'FT62RUO', 'FT62RUW', 'FT62RUY', 'FT63JDF', 'FT63PJY', 'FV07KMK', 'FV08CUY', 'FV08TFU', 'FV09HFN', 'FV09VSO', 'FV10DUH', 'FV10GUO', 'FV10GUW', 'FV10JCU', 'FV10JFN', 'FV10LVZ', 'FV10NXT', 'FV10WUM', 'FV10WWK', 'FV10XGB', 'FV10XMT', 'FV10XVW', 'FV10XWA', 'FV10XWD', 'FV10XXS', 'FV10XZX', 'FV10YPG', 'FV11YLF', 'FV12HKZ', 'FV12TXW', 'FV13WBD', 'FV13XWZ', 'FV15UVN', 'FV55NWS', 'FV56NXF', 'FV56OML', 'FV56RKJ', 'FV56WME', 'FV57LXG', 'FV58JSZ', 'FV59EOZ', 'FV59HZD', 'FV60LHY', 'FV60XWT', 'FV60XYE', 'FV60YCG', 'FV60YCH', 'FV60YCJ', 'FV60YCL', 'FV60YCM', 'FV61BZW', 'FV61CAX', 'FV61CFP', 'FV61CKU', 'FV61CKX', 'FV61CLU', 'FV61CLX', 'FV61DBO', 'FV61FDD', 'FV61FND', 'FV61SYX', 'FV61SZT', 'FV61THX', 'FV61TLJ', 'FV61TLN', 'FV61TOH', 'FV61TPZ', 'FV61TRZ', 'FV61TSX', 'FV61UJD', 'FV61UJG', 'FV61VBF', 'FV61XMD', 'FV62JWF', 'FV63AXY', 'FV63AYT', 'FV63MZE', 'FV63MZZ', 'FV63NBD', 'FV63WTY', 'FV63WUO', 'FV63WYS', 'FV63ZKB', 'FW13ACJ', 'FW13ACZ', 'FW13CZY', 'FW13FDU', 'FW13JOU', 'FX09GZZ', 'FX09ZFC', 'FX10GVR', 'FX10GVT', 'FX12EHN', 'FX57CYL', 'FX63BHF', 'FX63BKN', 'FX63DFN', 'FX63DLJ', 'FX63FAK', 'FX63MWY', 'FX65YJT', 'FY08LPF', 'FY09VOM', 'FY09WLP', 'FY09ZCU', 'FY10ZYE', 'FY11CPN', 'FY11GCF', 'FY11MVL', 'FY12OMS', 'FY12OZD', 'FY12OZK', 'FY12OZL', 'FY12OZM', 'FY12XAW', 'FY13WJK', 'FY13XPJ', 'FY15OPM', 'FY15OPW', 'FY55UFG', 'FY57LFZ', 'FY57PGU', 'FY58FOH', 'FY58KVM', 'FY59NLM', 'FY60NHC', 'FY60NHF', 'FY60PYD', 'FY60TNK', 'FY61KKX', 'FY61XHL', 'FY61XHP', 'FY62RGO', 'FY62UJM', 'FY62UJT', 'FY62USW', 'FY62UTT', 'FY62UTU', 'FY62UWK', 'FY62VJE', 'FY63EGX', 'FY63EHH', 'FY63EHP', 'FY63EJJ', 'FY63EJZ', 'FY63EVK', 'FY63EVL', 'FY63EVM', 'FY63EVV', 'FY63EWC', 'FY63FFT', 'G114FOR', 'G11CSC', 'G12ALY', 'G12EBS', 'G12JAR', 'G4HAK', 'GA04OOR', 'GC14AXX', 'GC14AYT', 'GC14EYX', 'GC14KAO', 'GC14KAU', 'GC14KAX', 'GC14OCS', 'GD07MLY', 'GD08TFE', 'GD10BHZ', 'GD14OLC', 'GD59HKX', 'GF06ELX', 'GF09XDV', 'GF10LHB', 'GF14DFG', 'GF14TEJ', 'GF14YLW', 'GF57OZO', 'GF59URG', 'GFZ5949', 'GJ08WXV', 'GJ09NOH', 'GJ10VNV', 'GJ12TZW', 'GJ14HNF', 'GJ14WMZ', 'GJ14WPK', 'GJ55FBC', 'GJ60BHY', 'GJ60PDX', 'GJ61BVG', 'GJ62LSY', 'GJ64HUZ', 'GK08WTR', 'GK09TXD', 'GK10XZX', 'GK11TFY', 'GK14GWP', 'GK14GZA', 'GK14GZD', 'GK14GZM', 'GK14LFM', 'GK14PTX', 'GK14PUH', 'GK14PVO', 'GK58UHT', 'GK61 SNJ', 'GL07FUH', 'GL08KTO', 'GL10ECF', 'GL12AHZ', 'GL14OSX', 'GL14OUH', 'GL14VTM', 'GL14VYO', 'GL14WXX', 'GL14XBM', 'GL14XDZ', 'GL14XFK', 'GL14XGY', 'GL55ARO', 'GL56SVG', 'GL59ETZ', 'GL59EUJ', 'GL59KYP', 'GL59ZKP', 'GL60EKC', 'GM14JHU', 'GM14XJC', 'GM14ZMO', 'GN07WGO', 'GN08EXE', 'GN08UTL', 'GN11KFL', 'GN12KSX', 'GN57AYC', 'GN57KWR', 'GN63HZB', 'GP08BVO', 'GP08VBL', 'GP56PEO', 'GP57JVV', 'GR07CWD', 'GU07BWM', 'GU07OAO', 'GU08KVO', 'GU09VRF', 'GU10OJK', 'GU10OMD', 'GU11FRZ', 'GU11LEE', 'GU11XEC', 'GU59JNJ', 'GU59XUJ', 'GV06EXR', 'GV06HNH', 'GV07EMJ', 'GV08BFA', 'GV08BGX', 'GV11GPU', 'GV11JVU', 'GV11LPE', 'GV11WBN', 'GV12AHZ', 'GV12KWH', 'GV13EES', 'GV58NMK', 'GV58ORG', 'GV59AEE', 'GV59GYD', 'GV60FRK', 'GV60OVM', 'GX63 GWZ', 'GY09YGE', 'GY11YSD', 'GY14OSD', 'GY56UTP', 'GY56ZYU', 'GY58FVD', 'GY59FXX', 'GY59ZPB', 'GY60ARU', 'GY60EOF', 'GY60YUW', 'GY61GPO', 'H13 LAA', 'H14AYN', 'H14UOK', 'H4NFF', 'H8CSC', 'HD06EJU', 'HF63BZW', 'HG07ZKN', 'HG09HTV', 'HG09XHR', 'HG10LFT', 'HG10WFR', 'HG11PSX', 'HG55SVJ', 'HG57FPJ', 'HG58OAO', 'HG58UGY', 'HG59OVF', 'HG59YWN', 'HG61NVV', 'HJ08VHM', 'HJ10HNC', 'HJ10VDO', 'HJ10ZSU', 'HJ57XUF', 'HJ58MVS', 'HJ58YFM', 'HJ59UUN', 'HJ60HKD', 'HJ60UNZ', 'HJ61VMH', 'HK10GRU', 'HK60HYZ', 'HK62GXR', 'HN08YWR', 'HN09DNV', 'HN09ETR', 'HN10OPV', 'HN10VNZ', 'HN56MJF', 'HN57ZTZ', 'HN58EFV', 'HN59NGV', 'HN59VLS', 'HN60KNP', 'HN60RZG', 'HN62MDZ', 'HN63YMR', 'HN63YYD', 'HT08HLR', 'HV06NDC', 'HV09LCL', 'HV10LBE', 'HV10XFR', 'HV11UME', 'HV11VEH', 'HV57ULP', 'HV58KMU', 'HV58UFB', 'HV58VPJ', 'HV58YBH', 'HV59FXU', 'HV59HFC', 'HV60LXK', 'HV63GZA', 'HW10HGN', 'HX06EZZ', 'HX57VGR', 'HY08SUA', 'HY08SXB', 'HY09OBH', 'HY09OBR', 'HY09OBW', 'HY11VLJ', 'HY60WHG', 'IEZ3184', 'J17 LYL', 'J2FMJ', 'J40VAD', 'J444VEO', 'J4VOD', 'J7RFY', 'J8NGK', 'J8WDD', 'JAV3D', 'JU03ARE', 'K12ERW', 'K15WJA', 'K18CSC', 'K19FAL', 'K1FYT', 'K1LYX', 'K20MRN', 'K44LYO', 'K4ESR', 'K4YAR', 'K786JRC', 'KA55EAM', 'KA57WJE', 'KC05NBX', 'KC57OCL', 'KE14KXY', 'KE55ARC', 'KE61WLD', 'KJ08YUF', 'KJ57WTF', 'KM07LTU', 'KM07MWJ', 'KM09KYV', 'KM09YVN', 'KM09YWA', 'KM11CZP', 'KM11OTV', 'KM11OTW', 'KM12WFZ', 'KM13OEY', 'KM13TWV', 'KM13WTT', 'KM57ELH', 'KM58KCV', 'KM58LYF', 'KM59OTW', 'KM60HFT', 'KM60VNF', 'KM61EZJ', 'KN09TZS', 'KN10FKV', 'KN11BHX', 'KN11FMJ', 'KN11LUL', 'KN55OXU', 'KN57BCO', 'KN58UEF', 'KN59NPZ', 'KN60XUZ', 'KN60XVA', 'KN61OUP', 'KP08DLY', 'KP09VYF', 'KP10ETF', 'KP10JGX', 'KP11AVU', 'KP11GKZ', 'KP11OCE', 'KP11XXF', 'KP13SYZ', 'KP13WCR', 'KP55WFC', 'KP58AXN', 'KP58KOD', 'KP58MKF', 'KP58OKN', 'KP60FPD', 'KP61YPV', 'KP62MYW', 'KR07YGP', 'KR08VUV', 'KR08YUT', 'KR10BDF', 'KR10KFA', 'KR10KFV', 'KR11FNU', 'KR11PPZ', 'KR12GJG', 'KR12MPY', 'KR13DTV', 'KR56OCW', 'KR57FHG', 'KR58FPG', 'KR58LTU', 'KR58LWY', 'KR59OPG', 'KS07OHU', 'KS08KJV', 'KS10KLA', 'KS56DMF', 'KS58JWC', 'KS58SGZ', 'KS59XTT', 'KS62WWT', 'KT08JYZ', 'KT08SYA', 'KU07USB', 'KU09KYS', 'KU09LJV', 'KU09TLN', 'KU09TPY', 'KU09TYV', 'KU09UWH', 'KU09WXV', 'KU10GDO', 'KU10HJO', 'KU10LLE', 'KU10RFF', 'KU11VXC', 'KU12KRV', 'KU12XTZ', 'KU12XVH', 'KU51HBU', 'KU59HKX', 'KU60HZT', 'KU60RYO', 'KU60RZB', 'KU60RZT', 'KU61UOO', 'KU61VMO', 'KV08XVZ', 'KV09MHK', 'KV09YZN', 'KV10WFP', 'KV10XVF', 'KV11LWS', 'KV11YHK', 'KV13XLU', 'KV13XLW', 'KV13XLX', 'KV13XLY', 'KV13XLZ', 'KV13XMA', 'KV13XMC', 'KV55JGO', 'KV55WTF', 'KV57UWX', 'KV57XCR', 'KV58WKC', 'KV59CKU', 'KV59EOL', 'KV59JJY', 'KV59JLX', 'KV59YAO', 'KV59YDP', 'KV59YKC', 'KV59ZDE', 'KV60GSO', 'KV61ATU', 'KV61EZH', 'KV61FHM', 'KV61FHN', 'KV61ZDF', 'KW08LSL', 'KW10 UKL', 'KW56CRJ', 'KX08SXE', 'KX12XUG', 'KX13YMR', 'KX13YNT', 'KX57BFP', 'KX57WFA', 'KX59BWA', 'KX59YFO', 'KX61WKU', 'KX61WTC', 'KX63NNW', 'KX63NNZ', 'KY09WFC', 'KY10HFV', 'KY10UFP', 'KY11MPF', 'KY12MKE', 'KY13YHA', 'KY14VLC', 'KY58EVX', 'KY58GKV', 'KY58OCP', 'KY58OFS', 'KY59VCO', 'KY61FSE', 'KY62MYW', 'KY64HMZ', 'KY64JWL', 'L12LAD', 'L17KKO', 'L19KRT', 'L33DSY', 'L44DAU', 'L5 LBA', 'LA07LZE', 'LA10FBF', 'LA12HYY', 'LB05FCD', 'LB07BMV', 'LB11RXC', 'LB11YMF', 'LB55BBU', 'LB57KZP', 'LB58GYX', 'LC06WHD', 'LC08ZDA', 'LC10EWM', 'LC10XYD', 'LC11FNT', 'LC58PMY', 'LC59YFG', 'LC60OXU', 'LC60ULA', 'LC61OGM', 'LD07URR', 'LD09ZDV', 'LD11 BRF', 'LD11DHV', 'LD11EDX', 'LD11VFN', 'LD55EPF', 'LD57 HVM', 'LD58TYH', 'LD59HWZ', 'LD60JVY', 'LD60TMZ', 'LD60TTE', 'LD61HGN', 'LE57JZU', 'LF11UZJ', 'LG05XYW', 'LG10KFL', 'LG11FGA', 'LG12KXN', 'LG59KNV', 'LG60BVP', 'LG61FKX', 'LG61OCM', 'LG61ZUC', 'LJ09HNX', 'LK06FXW', 'LK07AOX', 'LL08OGZ', 'LL09JHJ', 'LL10RDX', 'LL10VLP', 'LL10YMG', 'LL11ZRP', 'LL58FJZ', 'LL58RWJ', 'LL59JUE', 'LM06GNK', 'LM07EKF', 'LM07TZU', 'LM07VYP', 'LM09RKO', 'LM11HSL', 'LM11LXT', 'LM11ZNR', 'LM57BWW', 'LM57BYH', 'LM57CBF', 'LM57RBV', 'LM57TTU', 'LM58EFX', 'LM58UFN', 'LM59YKA', 'LM59ZYG', 'LN09OGT', 'LN09WPZ', 'LN11VJO', 'LN55OBM', 'LN58XSC', 'LN59XTK', 'LN60UEJ', 'LN60VPJ', 'LN60WML', 'LN60XWB', 'LN60XXM', 'LN61RBV', 'LN61WUK', 'LO10VKW', 'LO10VTZ', 'LO11FFW', 'LO12KTG', 'LO12UJG', 'LO59WNU', 'LO61DXZ', 'LO61NCZ', 'LO61OWC', 'LP10HGU', 'LP11BNN', 'LP11OJK', 'LP59OUD', 'LP60CKV', 'LP62HPK', 'LR07FGP', 'LR09JXT', 'LR09JYE', 'LR09NLX', 'LR09YUH', 'LR10LKG', 'LR10LXL', 'LR10SOA', 'LR12MEU', 'LR13ULC', 'LR56WUE', 'LR58CYS', 'LR59FRZ', 'LS05CXZ', 'LS06NRE', 'LS06NVA', 'LS07BTX', 'LS07CLV', 'LS07GJO', 'LS08NDC', 'LS09LXT', 'LS09VVM', 'LS09WKJ', 'LS10GNP', 'LS10NPV', 'LS10XVB', 'LS11DTX', 'LS11HFR', 'LS11HZW', 'LS11ONH', 'LS15FZP', 'LS55NMX', 'LS57AHP', 'LS57TGX', 'LS58KHD', 'LS58KHG', 'LS59ADV', 'LS59ADX', 'LS59WHC', 'LS60AFJ', 'LS60PGZ', 'LT05NUP', 'LT06UEM', 'LT10OMF', 'LT11RJU', 'LT12MPY', 'LT55GCU', 'LT56PJT', 'LT57SRZ', 'LT57TYA', 'LT57XVG', 'LT58TYG', 'LT59FDF', 'LT59JJZ', 'LT60AZF', 'LT61JJO', 'LT61LXY', 'LT61MKC', 'LT61ZPN', 'LV57UNY', 'LV60VJK', 'LV61XKP', 'LX09BHN', 'LX10BYC', 'LX11RKE', 'LX12XPH', 'LX57UYD', 'LY08FVD', 'LY59CXM', 'M111BUB', 'M11EHR', 'M12HAK', 'M14NRH', 'M16RAR', 'M17BBE', 'M22UBX', 'M3HWY', 'M444OLA', 'M600SEN', 'M777SAJ', 'M77GUL', 'M80ASF', 'M999NYX', 'MA07ZCK', 'MA08FMV', 'MA09KVD', 'MA09KVF', 'MA09RYB', 'MA09SYT', 'MA09SYU', 'MA09ZDY', 'MA10CZO', 'MA10LHN', 'MA10LKV', 'MA11VLU', 'MA11XLJ', 'MA11ZLU', 'MA11ZPO', 'MA12VZS', 'MA15YHJ', 'MA15YHL', 'MA15YHN', 'MA15YHO', 'MA15YHP', 'MA15YHR', 'MA55UDX', 'MA56AFY', 'MA57OKU', 'MA57WVO', 'MA58EYC', 'MA58KHR', 'MA58VRN', 'MA59ACF', 'MA59DYT', 'MA59FGD', 'MA59XDY', 'MA60BXE', 'MA60BXO', 'MA60NFF', 'MA60NVX', 'MA60WGV', 'MA60WWY', 'MA61NGJ', 'MA61OFD', 'MA61WYL', 'MA61ZSL', 'MA63FZP', 'MA63FZR', 'MA64VMZ', 'MAB5S', 'MC61AYU', 'MD06MXV', 'MD06MYG', 'MD14AUO', 'MD57YDN', 'MD64SGX', 'MD64SGY', 'MD64SGZ', 'MD64SJU', 'MD64SJX', 'MF08CGZ', 'MF08HUV', 'MF08UXZ', 'MF09BJE', 'MF09BKE', 'MF09RVO', 'MF10LFN', 'MF10LFP', 'MF11OJL', 'MF11OXH', 'MF11XFD', 'MF12BVU', 'MF12ROU', 'MF12SFE', 'MF12TXM', 'MF12UZB', 'MF56NBO', 'MF57FBG', 'MF58AOZ', 'MF59JHY', 'MF59UVT', 'MF59VAO', 'MF59WYZ', 'MF59WZC', 'MF59YBS', 'MF60HCK', 'MF60HNG', 'MF60MJX', 'MF60OEH', 'MF60TPV', 'MF60TTV', 'MF60TUH', 'MF63UCC', 'MF64ETT', 'MF64FSX', 'MF64SHJ', 'MF65GRK', 'MJ07OHH', 'MJ08WGC', 'MJ10MDE', 'MJ10WVZ', 'MJ10YYM', 'MJ11KKN', 'MJ11OUE', 'MJ11SJY', 'MJ11XCD', 'MJ12CPX', 'MJ12VJK', 'MJ14FRD', 'MJ15XVN', 'MJ58SWW', 'MJ58XET', 'MJ59ECN', 'MJ59UUE', 'MJ59UUZ', 'MJ60ECA', 'MJ60OSD', 'MJ60PUU', 'MJ60YGL', 'MJ62OTR', 'MJ62RYR', 'MJ64KKM', 'MJ64KKN', 'MJ64KLC', 'MJ64KLE', 'MK05UFP', 'MK08HGD', 'MK08JWC', 'MK08LKG', 'MK09BZS', 'MK09EFR', 'MK09KVA', 'MK09OFG', 'MK10XSR', 'MK11CUU', 'MK12BNX', 'MK13YEC', 'MK13YEF', 'MK13YEU', 'MK13YTU', 'MK55KTD', 'MK58VBE', 'MK58VHL', 'MK58WHJ', 'MK59AGU', 'MK59AHA', 'MK59ZPU', 'MK60GGA', 'MK60MBU', 'MK60OCX', 'MK61VGC', 'MK61YWT', 'ML08EPY', 'ML08FXE', 'ML08YPK', 'ML10ODK', 'ML10OKR', 'ML11EZH', 'ML11TBZ', 'ML11UZM', 'ML12UWD', 'ML13OXC', 'ML14TXY', 'ML14TXZ', 'ML14TYZ', 'ML56DKD', 'ML57XYR', 'ML58HGG', 'ML58WCR', 'ML58ZHB', 'ML59DZZ', 'ML59MTF', 'ML59UVS', 'ML60BUV', 'ML61FBX', 'ML61SUY', 'ML62AEA', 'ML63UJM', 'ML63UJN', 'ML63UJO', 'ML63UJP', 'ML63UJR', 'ML63UJS', 'ML63UJT', 'ML63UJU', 'ML63UJV', 'ML63UJW', 'ML63UJY', 'ML63UJZ', 'ML63UKA', 'ML63UKB', 'ML64BVJ', 'ML64BVR', 'ML64OTZ', 'ML64UMC', 'ML64UMK', 'MM06FFV', 'MM08LUL', 'MM08VLD', 'MM12OXL', 'MM14GYA', 'MM14GYB', 'MM14GZA', 'MM15BCU', 'MM15KPG', 'MM15KRN', 'MM15KUV', 'MM15KUW', 'MM15KUX', 'MM15KUY', 'MM15KVA', 'MM15KVB', 'MM15KVC', 'MM57AWH', 'MM63VDP', 'MM63VEP', 'MM63XTG', 'MM64KWB', 'MM64KXF', 'MM64ZDV', 'MM64ZGC', 'MR02NAS', 'MS08AAN', 'MT05JUX', 'MT07GOU', 'MT07HRN', 'MT08LRO', 'MT08TWK', 'MT08YTA', 'MT09CTE', 'MT09LNM', 'MT09UTV', 'MT09XKL', 'MT10KPU', 'MT11CWF', 'MT11EDK', 'MT11FPY', 'MT11RCO', 'MT12NVF', 'MT57MKE', 'MT57OKZ', 'MT58DWX', 'MT59ZRN', 'MT60XSC', 'MT61DBZ', 'MT61EOY', 'MT61OVL', 'MT61OVW', 'MT61OWC', 'MT62NUE', 'MT62NUF', 'MT62NUH', 'MT64RZC', 'MT64XCP', 'MV07OUY', 'MV07VHK', 'MV08FAF', 'MV08UGS', 'MV09YPR', 'MV09YTM', 'MV10HYN', 'MV10JBZ', 'MV10JFN', 'MV10JHF', 'MV10VTZ', 'MV10WEU', 'MV11UVP', 'MV11UWO', 'MV11VJC', 'MV11XVC', 'MV14UTO', 'MV14UTX', 'MV14UTY', 'MV53AKX', 'MV56MYG', 'MV58YCN', 'MV59KEK', 'MV59LHU', 'MV59SWU', 'MV59WOM', 'MV60KHJ', 'MV60ORX', 'MV60TSX', 'MV61HXA', 'MV61JBX', 'MV61JCU', 'MV61JZC', 'MW09CLO', 'MW10KNZ', 'MW10VYP', 'MW10YLF', 'MW10YPM', 'MW11UGO', 'MW15PWU', 'MW56ZVD', 'MW57HCJ', 'MW57OOG', 'MW60HNB', 'MW61RMY', 'MW62XTK', 'MX05XTT', 'MX07RNO', 'MX08HMJ', 'MX13VYT', 'MX13VYU', 'MX59HXE', 'MX61JDO', 'MX65XCH', 'N13DSY', 'N17BBA', 'N17DYN', 'N17VYD', 'N3HYM', 'N40EMJ', 'N44BYG', 'N4BYG', 'N800WAS', 'NA05VUT', 'NA08VLD', 'NA09FCU', 'NA09FSG', 'NA09FVC', 'NA09MHF', 'NA09UBH', 'NA09UEX', 'NA09VPW', 'NA10BNZ', 'NA10FZW', 'NA10HGE', 'NA10KCJ', 'NA10WHV', 'NA11EKP', 'NA11TJV', 'NA59ONM', 'NA60RWF', 'NA60RXN', 'NA60SGV', 'NA60VNT', 'NA60YYK', 'NA61FUO', 'NC08KGY', 'NC08XUT', 'NC55YFK', 'NC56WDP', 'NC56YMA', 'NC58BFU', 'NC58HYZ', 'NC58MLF', 'ND08PBU', 'ND08PGV', 'ND09KZB', 'ND09ULW', 'ND09ZNS', 'ND10BGF', 'ND10FFS', 'ND10FHS', 'ND10GWF', 'ND10KOV', 'ND10LJF', 'ND10NXG', 'ND10WTG', 'ND10XBR', 'ND11CHY', 'ND11EHG', 'ND11EHJ', 'ND11WKS', 'ND55PVT', 'ND59NVE', 'ND59SWY', 'ND59SXH', 'ND59TVX', 'ND59WUU', 'ND60MHM', 'ND60OGS', 'ND60OGT', 'ND60RSV', 'ND64CPF', 'NG07FYS', 'NG08WJX', 'NG09BHD', 'NG09GXV', 'NG09HUK', 'NG09LLD', 'NG09RCV', 'NG10DJD', 'NG10DZV', 'NG10LCF', 'NG11RHY', 'NG12DXP', 'NG12HFH', 'NG57TFA', 'NG57VXC', 'NG58KMA', 'NG58LWR', 'NG58NBE', 'NG58XHD', 'NG59RBV', 'NG60EHO', 'NG62GZV', 'NH07EUD', 'NH08OKO', 'NH57OVY', 'NH58AGV', 'NJ08AOO', 'NJ08AOP', 'NJ08ASV', 'NJ09OLE', 'NJ10GJG', 'NJ10XWO', 'NJ12KHP', 'NJ13DMU', 'NJ14WFB', 'NJ14WFC', 'NJ56PNF', 'NJ59NUP', 'NJ59RUV', 'NJ59XZG', 'NJ59XZU', 'NJ60LWL', 'NJ60YEB', 'NJ61KZA', 'NJ61PXG', 'NJ61XXE', 'NJ62HKO', 'NJ63HUY', 'NJ63HVA', 'NJ63HVB', 'NJ63HVF', 'NJ64WDV', 'NK08BZX', 'NK08HCZ', 'NK08KTN', 'NK09BAU', 'NK09DHN', 'NK10EBP', 'NK10FYA', 'NK57FZA', 'NK57FZF', 'NK58DXH', 'NK58EKC', 'NK58EKH', 'NK58GHD', 'NK59ATN', 'NK59AUN', 'NK59AUT', 'NK59AUU', 'NK59CDZ', 'NK59DZD', 'NK59FXL', 'NL07HXB', 'NL07JWG', 'NL07JXF', 'NL09DVR', 'NL09XHG', 'NL10WSJ', 'NL11VTG', 'NL12WMJ', 'NL13FXY', 'NL14AXS', 'NL14JCV', 'NL55CLF', 'NL58NWY', 'NL59HBH', 'NL59XUN', 'NL60BUU', 'NL60BVA', 'NL60KXP', 'NL60KXU', 'NL60KYB', 'NL60KYN', 'NL60OEV', 'NL60WTZ', 'NL60YOA', 'NL60YOE', 'NL60YOY', 'NL61DVY', 'NL61JZF', 'NL61XOH', 'NL61XOM', 'NL64LSN', 'NM07FUP', 'NM08LZP', 'NNZ3712', 'NU10DLK', 'NU11APX', 'NU11NMJ', 'NU11PYW', 'NU12FOM', 'NU12LHL', 'NU12UNV', 'NU57XKE', 'NU58WTM', 'NU59OBX', 'NU60AFJ', 'NU60FYH', 'NU60GXG', 'NU60JPX', 'NU60YKD', 'NU62DVP', 'NU62DVW`', 'NU62NZF', 'NU62NZX', 'NU62YJR', 'NV05OYS', 'NV05PKE', 'NV05UVG', 'NV08HME', 'NV09BNB', 'NV09MXG', 'NV10BDE', 'NV10VCA', 'NV11JUH', 'NV56AOH', 'NV56KVR', 'NV57LNW', 'NV59BKL', 'NV59PYL', 'NV61GUX', 'NV61KPX', 'NV61MDY', 'NV62DND', 'NX08GGY', 'NX10RVZ', 'NX12UST', 'NX13UFL', 'NX13UFU', 'NX58RMO', 'NX59RVY', 'NX62 UKG', 'NY05KDU', 'NY08DGZ', 'NY10FCZ', 'OE06AXD', 'OE07JUT', 'OE07OBV', 'OE08YSW', 'OE09LSD', 'OE09OCJ', 'OE09SNY', 'OE09USH', 'OE09YDJ', 'OE10DVW', 'OE10RFL', 'OE11AXW', 'OE11EKO', 'OE11HBH', 'OE11MHA', 'OE11OAZ', 'OE55KKC', 'OE57VPZ', 'OE60SLU', 'OFZ4157', 'OO04YAT', 'OU60WCE', 'OV06TZP', 'OV08UGO', 'OV09JYK', 'OV09JYT', 'OV09JZF', 'OV09JZJ', 'OV10AKN', 'OV10JUT', 'OV10LFU', 'OV10MWL', 'OV10NDF', 'OV10NMJ', 'OV11UZU', 'OV11XGP', 'OV11XGZ', 'OV11XHB', 'OV12NXW', 'OV12OAB', 'OV55NFF', 'OV57JYS', 'OV57PKY', 'OV57XUT', 'OV58LPJ', 'OV58LPU', 'OV59GVN', 'OV59KWE', 'OV60GEJ', 'OV60KDK', 'OV60NZP', 'OV60TXP', 'OV60TYA', 'OV60WWL', 'OV61KLU', 'OV61OZA', 'OY06VZE', 'OY07SOJ', 'OY08FKP', 'OY08TZX', 'OY08XVS', 'OY09BKV', 'OY09EWL', 'OY10AEA', 'OY10AOA', 'OY10HDL', 'OY10HWH', 'OY10OZB', 'OY10UFV', 'OY11NZM', 'OY11VHN', 'OY12LFV', 'OY12OHW', 'OY12SMU', 'OY13MYB', 'OY13NFK', 'OY14CWA', 'OY14UWB', 'OY56BLJ', 'OY57AOK', 'OY58NXP', 'OY58PXR', 'OY58PXS', 'OY59AVW', 'OY59KCZ', 'OY59TYS', 'OY60DWL', 'OY60DWX', 'OY60DYM', 'OY60EFH', 'OY60FLE', 'OY60LFN', 'OY60MZN', 'OY60PSX', 'OY60PVA', 'OY60TGE', 'OY60TKF', 'OY60TKJ', 'OY61BYH', 'OY62HWO', 'P14GAF', 'P999SOC', 'PE08GVD', 'PE08SXD', 'PE11HYS', 'PE11LHG', 'PE12UNS', 'PE14HRC', 'PE14NYG', 'PE58JKJ', 'PE58RCO', 'PE59PHF', 'PE60XGS', 'PEZ7364', 'PEZ7365', 'PF07MOU', 'PF07OJL', 'PF08HVN', 'PF08KVR', 'PF09UNU', 'PF10ZFE', 'PF57RWW', 'PF59LYJ', 'PF63TVC', 'PF63TVD', 'PF63TVE', 'PJ06WXE', 'PJ08KGP', 'PJ08ZTM', 'PJ09CKV', 'PJ09GEU', 'PJ10CMO', 'PJ10OLB', 'PJ10YTF', 'PJ13ZNZ', 'PJ55YRC', 'PJ56RYM', 'PJ57FHL', 'PJ58FLM', 'PJ58FSN', 'PJ60KCK', 'PK06SXL', 'PK09OSU', 'PK11BHW', 'PK11BHY', 'PK11KWD', 'PK11WXN', 'PK57BVP', 'PK58DWN', 'PK58LHU', 'PK58ULS', 'PK58WPJ', 'PK58YYE', 'PK59AXW', 'PK59EYO', 'PK59KFF', 'PK60OEE', 'PK60UCT', 'PK61JVG', 'PK62XTX', 'PL07FWG', 'PL08LHZ', 'PL09GXT', 'PN09FXL', 'PN11ZFM', 'PN12NLO', 'PN14CKL', 'PN14LJK', 'PN15BCU', 'PN57JUA', 'PN58NPZ', 'PN58YGG', 'PN59MVV', 'PN60XJP', 'PN60XNO', 'PN62LLK', 'PN62UNH', 'PO12ZVF', 'PO12ZVG', 'PO56YVW', 'PO58KMV', 'PO58PBZ', 'PO60BMY', 'PO60DYB', 'PO60JBY', 'PO61WSD', 'PX07PLN', 'PX08HTP', 'PX09YWU', 'PX09YWZ', 'PX11XMD', 'PX12PDY', 'PX13VUH', 'PX56VVT', 'PX57GXR', 'PX57UZD', 'PX58TCJ', 'PX59RBV', 'PX59RFN', 'PX59RGO', 'PX59XDC', 'PX60TEU', 'PX60WPK', 'PX64NKR', 'PY07KUB', 'PY09HFG', 'PY09MFK', 'PY10BHU', 'PY10FKM', 'PY58AGZ', 'PY58BZH', 'PY58CYA', 'PY58FVT', 'PY59AVT', 'PY59CVB', 'PY59JUU', 'PY59LWT', 'PY59NPV', 'PY60APU', 'PY60HTP', 'R100PYL', 'R22ULY', 'R2AMX', 'R444ESS', 'R444OUF', 'R4EDM', 'R9SHF', 'RA06HGE', 'RA08MDU', 'RA08TOU', 'RA57HWK', 'RA57PCO', 'RA57WGV', 'RA57YPC', 'RAM24N', 'RDC 349', 'RE07WVL', 'RE09AZL', 'RE09HFD', 'RE09YKX', 'RE10SLZ', 'RE10UTU', 'RE11HBL', 'RE12HGD', 'RE58AZV', 'RE58EZD', 'RE58NXO', 'RE58VKD', 'RE58VKV', 'RE58VNJ', 'RE58VNW', 'RE58VVR', 'RE59WKG', 'RE59XJV', 'RE60CLY', 'RE60DUY', 'RE60EKJ', 'RE60WFV', 'RE60WFY', 'RE60YYX', 'RE61AZP', 'RE61LPY', 'RE62UJS', 'RF08BXE', 'RF08XHD', 'RF09FZS', 'RF11DXB', 'RF57BGU', 'RF57SXW', 'RF58LUY', 'RF58WXD', 'RF59CEK', 'RF59UGN', 'RH51HAD', 'RJ07FUF', 'RJ07LZG', 'RJ08LGC', 'RJ08NRL', 'RJ08ZZA', 'RJ09WLU', 'RJ10CHY', 'RJ10EUD', 'RJ10NUY', 'RJ10USM', 'RJ10ZCO', 'RJ11NSV', 'RJ11PBF', 'RJ11RWY', 'RJ12PVN', 'RJ57NSK', 'RJ57PXF', 'RJ57XOH', 'RJ57XOK', 'RJ58DVR', 'RJ58GYZ', 'RJ59OZN', 'RJ59VLR', 'RJ60GXX', 'RJ60MXM', 'RJ60TRV', 'RJ60TSX', 'RJ62JXP', 'RK06VUD', 'RK06YMV', 'RK07SCX', 'RK08YML', 'RK09ULV', 'RK09UMS', 'RK09ZFC', 'RK10XKY', 'RK11URY', 'RK11UUG', 'RK11VTU', 'RK12PXH', 'RK55YGO', 'RK55YKN', 'RK55YMM', 'RK57ODR', 'RK57ODV', 'RK58WXS', 'RK59YUG', 'RK60YXV', 'RK60YXZ', 'RK61YYT', 'RK62UHP', 'RO09OAW', 'RO09OYK', 'RO10CJE', 'RO11MVX', 'RO11VBU', 'RO13SJU', 'RO13ZXK', 'RO56EDF', 'RO56HHJ', 'RO56HHS', 'RO56OUU', 'RO56YUW', 'RO60CCE', 'RO60GZZ', 'RO60RHV', 'RO60WGG', 'RO60ZBG', 'RO61RKX', 'RV09FKU', 'RV10RYU', 'RV10XZZ', 'RV14EGJ', 'RV60AWJ', 'RV60BZM', 'RV60UNP', 'RV60UXH', 'RV60YWT', 'RV61UVT', 'RX59HHS', 'RY57GZZ', 'S11FKT', 'S11LDD', 'S11YDM', 'S12BPD', 'S1MDV', 'S27CWY', 'S29SUR', 'S2LTN', 'S33 PJD', 'S40AFF', 'S4JVK', 'S6GHR', 'S77AYD', 'S7KYG', 'S999MRX', 'SA04RAZ', 'SA08KUY', 'SA08WCE', 'SA08WCF', 'SA09DXK', 'SA10WEC', 'SA11UDX', 'SA12UAY', 'SA57PKZ', 'SA57XCG', 'SA57YHK', 'SA58GPE', 'SA58GPF', 'SA58GPJ', 'SA58GPK', 'SA58KWS', 'SA58NVU', 'SA58UAB', 'SA58ZBJ', 'SA59FUV', 'SA60EOG', 'SA60MYX', 'SA61ZDM', 'SA62GJX', 'SA64AUY', 'SAB741N', 'SAG111R', 'SB05VKM', 'SB06NNC', 'SB06YCF', 'SB07FJA', 'SB07UDL', 'SB08KFX', 'SB08NPV', 'SB08NVV', 'SB08NVX', 'SB08OLM', 'SB09CKP', 'SB09JBV', 'SB09WTR', 'SB10CHL', 'SB10JYE', 'SB14AXT', 'SB14LXP', 'SB56DWK', 'SB56FZF', 'SB56TVX', 'SB57DZP', 'SB57LHO', 'SB57LYP', 'SB58JUA', 'SB59ZXD', 'SB60DFO', 'SB61LCU', 'SB61LCV', 'SB61UZE', 'SB61VLW', 'SB62VLY', 'SC08FFA', 'SC08KJA', 'SC08KJE', 'SC14EXE', 'SC15VLD', 'SC54GRK', 'SC55LLD', 'SC57BSX', 'SC57EBK', 'SC57FLG', 'SC60CSX', 'SC60CSZ', 'SD05HCU', 'SD07MYP', 'SD07NCX', 'SD08KGV', 'SD08UVN', 'SD09VKT', 'SD10EYU', 'SD10LZG', 'SD10LZV', 'SD11GUW', 'SD11VJJ', 'SD12MBY', 'SD13FLP', 'SD14UZV', 'SD56YBK', 'SD57LDZ', 'SD57XVL', 'SD57ZYJ', 'SD59GWX', 'SD59KYX', 'SD59RZX', 'SD59UWV', 'SD60DLF', 'SD60NHF', 'SD60OZU', 'SD60PBO', 'SD60YFK', 'SD61VTJ', 'SD63DPN', 'SD63EFC', 'SD63EHJ', 'SD63ENC', 'SD63EPK', 'SD63FTJ', 'SD63FTP', 'SD63FWZ', 'SE07ETR', 'SE07EUF', 'SE07MJF', 'SE07TOU', 'SE07UHD', 'SE07UZF', 'SE08EDX', 'SE08MWU', 'SE08MXG', 'SE08UHV', 'SE08UJB', 'S</t>
         </is>
@@ -1009,11 +1061,11 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>8</v>
+        <v>-1</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D9" t="n">
@@ -1069,12 +1121,18 @@
         </is>
       </c>
       <c r="T9" t="n">
+        <v>976</v>
+      </c>
+      <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
         <v>23010</v>
       </c>
-      <c r="U9" t="n">
+      <c r="W9" t="n">
         <v>83</v>
       </c>
-      <c r="V9" t="inlineStr">
+      <c r="X9" t="inlineStr">
         <is>
           <t>['134', '197', '29', '64', 'ARCTIC STEEL', 'B &amp;  W', 'B &amp; W', 'B / W', 'B&amp; W', 'B&amp;W', 'B/ W', 'B/W', 'B/White', 'B/w', 'BEIGE', 'BKLACK/WHITE', 'BLACK', 'BLACK &amp; WHITE', 'BLACK &amp;WHITE', 'BLACK&amp; WHITE', 'BLACK&amp;WHITE', 'BLACK/BLUE', 'BLACK/WHITE', 'BLUE', 'BRONZE', 'BROWN', 'BW', 'Ba&amp;W', 'Balck/White', 'Beige', 'Black', 'Black &amp; White', 'Black And White', 'Black&amp;White', 'Black/White', 'BlackWhite', 'Blue', 'Brown', 'COSMIC GREY', 'GOLD', 'GRAY', 'GREEN', 'GREY', 'Green', 'Grey', 'MAROON', 'MAUVE/PURPLE', 'MOONDUST SILVER', 'MOONDUSTSILVER', 'Maroon', 'ORANGE', 'PURPLE', 'Pearl Black', 'RED', 'Red', 'Royal Blue', 'SB1ZS3JE10E117591', 'SIILVER', 'SILVER', 'SIVER', 'SilVER', 'Silver', 'TURQUOISE', 'Turquoise', 'WHIE', 'WHITE', 'White', 'White/b', 'White/black', 'YELLOW', 'Yellow', 'b&amp;w', 'b/w', 'black', 'black/white', 'blue', 'grey', 'red', 'sILVER', 'sillver', 'silver', 'wHITE', 'white']</t>
         </is>
@@ -1087,11 +1145,11 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9</v>
+        <v>-1</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>string</t>
+          <t>date</t>
         </is>
       </c>
       <c r="D10" t="n">
@@ -1147,12 +1205,18 @@
         </is>
       </c>
       <c r="T10" t="n">
+        <v>786</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
         <v>57630</v>
       </c>
-      <c r="U10" t="n">
+      <c r="W10" t="n">
         <v>80</v>
       </c>
-      <c r="V10" t="inlineStr">
+      <c r="X10" t="inlineStr">
         <is>
           <t>['1st Apollo / A Metro Cars', '2', 'A1 LEEDS', 'A1 Leeds', 'AB Cars', 'ASAP', 'Abbey Private Hire', 'Ace Cars Leeds Ltd', 'Aireline/Holbeck Line', 'Airport Services', 'Amber Cars', 'Apex Cars', 'Ardsley Cars', 'Arrow', 'Beeston Line', 'Blue Line', 'Bramham Private Hire', 'CSC Executive', 'Call A Car', 'Chevin Cars', 'City Cabs', 'Club Cars', 'Dees', 'Deighton Cars', 'Diamond Class Executive Chauffeur', 'Drive Time', 'Easy Travel', 'Eurocabs', 'First Lady And Homelinks', 'Fly Away', 'G And M Cars', 'Gee Gee Cars', 'Geo Cars 3 (HQ)', 'Highways Private Hire', 'ITS Roadrunners', 'Independent', 'Independent City Taxis', 'Independent Hackney Carriage', 'Independent Private Hire', 'Interline', 'Intime Private Hire', 'Jerome Private Hire', 'Just Bus', 'Kirkstall Cars', 'Ladyline / Phoenix Cars Leeds Ltd', 'Leeds Alternative Travel', 'Local Cars (Morley)', 'MBS Ltd Yorkshire Trikes Tours', 'MC Chauffeurs Executive', 'Morley Cars', 'Morley Central Line', 'NOT WORKING', 'Network Cars', 'New Armley Cars', 'New Furlongs', 'New Yellow Cars', 'Otley Private Hire', 'Premier Licensed Private Hire', 'Pudsey B Line', 'Rhodes Ahead', 'Rollinson Safeway Ltd', 'Rothwell Line', 'Royal Cars/New Royal Cars', 'SJK Travel2Airport.com', 'South Leeds', 'Speed Line', 'Stanningley Cars Ltd', 'Star Supreme Line', 'Station Taxis', 'Streamline - Telecars (PH Operation)', 'Streamline/Telecabs', 'T And T Travel', 'T Line', 'ThreeSixteen Aiport And Exec', 'Time Line', 'UBER', 'Wetherby Cars', 'Wheels', 'White Rose Cars', 'Yeadon Licensed Private Hire']</t>
         </is>
